--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,150 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>No new InTransit trackings (deduped for 30 days).</t>
+          <t>tracking_number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>carrier_slug</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>status_tag</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>last_checkpoint_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>last_checkpoint_location</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_GDPR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dbschenker-se</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SHIPMENT_TITLE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-08T12:16:34+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING_DECEMBER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dhl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TEST_Tracking_December</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:55+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ZFRE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:18+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:07:24+00:00</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="InTransit" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AfterShip" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,135 +439,32 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>order_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>last_checkpoint_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>last_checkpoint_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>last_checkpoint_location</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>title</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>order_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>last_checkpoint_time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>last_checkpoint_location</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TEST_GDPR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dbschenker-se</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SHIPMENT_TITLE</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2026-02-08T12:16:34+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TEST_TRACKING_DECEMBER</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dhl</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TEST_Tracking_December</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:24:55+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TEST_TRACKING</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>kn</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ZFRE</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:24:18+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ITD-0-12345678</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>testing-courier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ITD-0-12345678</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:07:24+00:00</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,49 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_GDPR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dbschenker-se</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2026-02-08T16:46:34+04:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>,Afghanistan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-08T12:25:31+00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SHIPMENT_TITLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,115 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING_DECEMBER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dhl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-12-31T23:59:59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:55+00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TEST_Tracking_December</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-07T23:59:59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:18+00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ZFRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-08T07:07:24-04:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000 W Test Ln, Austin, Texas, 11111</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:07:24+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,156 +467,9 @@
           <t>title</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TEST_GDPR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dbschenker-se</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2026-02-08T16:46:34+04:30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>,Afghanistan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2026-02-08T12:25:31+00:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SHIPMENT_TITLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TEST_TRACKING_DECEMBER</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dhl</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-12-31T23:59:59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:24:55+00:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TEST_Tracking_December</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TEST_TRACKING</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>kn</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-07T23:59:59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:24:18+00:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ZFRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ITD-0-12345678</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>testing-courier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-08T07:07:24-04:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1000 W Test Ln, Austin, Texas, 11111</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2026-02-08T11:07:24+00:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ITD-0-12345678</t>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>custom_fields_json</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,178 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TEST_GDPR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dbschenker-se</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2026-02-08T16:46:34+04:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>,Afghanistan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-08T12:25:31+00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SHIPMENT_TITLE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{"OrderID": "12345"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING_DECEMBER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dhl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-12-31T23:59:59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:55+00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TEST_Tracking_December</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST_TRACKING</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-07T23:59:59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:18+00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ZFRE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-08T07:07:24-04:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1000 W Test Ln, Austin, Texas, 11111</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:07:24+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,40 +434,45 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>courier_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>status_tag</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>order_id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>last_checkpoint_id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>last_checkpoint_time</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>last_checkpoint_location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>custom_fields_json</t>
         </is>
@@ -486,36 +491,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>DB Schenker</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2026-02-08T16:46:34+04:30</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>,Afghanistan</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2026-02-08T12:25:31+00:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>SHIPMENT_TITLE</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>{"OrderID": "12345"}</t>
         </is>
@@ -534,28 +544,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DHL Express</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2025-12-31T23:59:59</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>2026-02-08T11:24:55+00:00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>TEST_Tracking_December</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -574,28 +589,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2026-02-07T23:59:59</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2026-02-08T11:24:18+00:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ZFRE</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -614,32 +634,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2026-02-08T07:07:24-04:00</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1000 W Test Ln, Austin, Texas, 11111</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2026-02-08T11:07:24+00:00</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ITD-0-12345678</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>{}</t>
         </is>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEST_GDPR</t>
+          <t>TEST_BARBARA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dbschenker-se</t>
+          <t>dpd-nl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DB Schenker</t>
+          <t>DPD Netherlands</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,52 +499,44 @@
           <t>Delivered</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-08T16:46:34+04:30</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>,Afghanistan</t>
-        </is>
-      </c>
+          <t>2026-02-09T00:30:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-08T12:25:31+00:00</t>
+          <t>2026-02-09T07:16:12+00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SHIPMENT_TITLE</t>
+          <t>TEST_BARBARA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"OrderID": "12345"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEST_TRACKING_DECEMBER</t>
+          <t>TEST_GDPR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dhl</t>
+          <t>dbschenker-se</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DHL Express</t>
+          <t>DB Schenker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,44 +544,52 @@
           <t>Delivered</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-31T23:59:59</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>2026-02-08T16:46:34+04:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>,Afghanistan</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-08T11:24:55+00:00</t>
+          <t>2026-02-08T12:25:31+00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>TEST_Tracking_December</t>
+          <t>SHIPMENT_TITLE</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"OrderID": "12345"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TEST_TRACKING</t>
+          <t>TEST_TRACKING_DECEMBER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>dhl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>DHL Express</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,18 +601,18 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-07T23:59:59</t>
+          <t>2025-12-31T23:59:59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-08T11:24:18+00:00</t>
+          <t>2026-02-08T11:24:55+00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ZFRE</t>
+          <t>TEST_Tracking_December</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -624,17 +624,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ITD-0-12345678</t>
+          <t>TEST_TRACKING</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>testing-courier</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>testing-courier</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -646,25 +646,70 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>2026-02-07T23:59:59</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2026-02-08T11:24:18+00:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ZFRE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ITD-0-12345678</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>testing-courier</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>2026-02-08T07:07:24-04:00</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1000 W Test Ln, Austin, Texas, 11111</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2026-02-08T11:07:24+00:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ITD-0-12345678</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>{}</t>
         </is>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEST_BARBARA</t>
+          <t>80070180668201</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dpd-nl</t>
+          <t>spanish-seur-api</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DPD Netherlands</t>
+          <t>spanish-seur-api</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,40 +503,40 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-09T00:30:00</t>
+          <t>2026-02-06T17:46:42+01:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-09T07:16:12+00:00</t>
+          <t>2026-02-09T05:21:35+00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>TEST_BARBARA</t>
+          <t>80070180668201</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MOT"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEST_GDPR</t>
+          <t>323202357059995044056030</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dbschenker-se</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DB Schenker</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,52 +544,48 @@
           <t>Delivered</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-08T16:46:34+04:30</t>
+          <t>2026-02-09T08:29:00+01:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>,Afghanistan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-08T12:25:31+00:00</t>
+          <t>2026-02-09T07:43:59+00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SHIPMENT_TITLE</t>
+          <t>323202357059995044056030</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"OrderID": "12345"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TEST_TRACKING_DECEMBER</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dhl</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DHL Express</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,18 +597,18 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-31T23:59:59</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-08T11:24:55+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TEST_Tracking_December</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -624,17 +620,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TEST_TRACKING</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -646,18 +642,18 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-07T23:59:59</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-08T11:24:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ZFRE</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -669,17 +665,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ITD-0-12345678</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>testing-courier</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>testing-courier</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -691,27 +687,9418 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-08T07:07:24-04:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1000 W Test Ln, Austin, Texas, 11111</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-08T11:07:24+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ITD-0-12345678</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JJD149990121180189756</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>JJD149990121180189756</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09447272602648</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:11+00:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>09447272602648</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09447272763065</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:11+00:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>09447272763065</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JJD149990121180193812</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>JJD149990121180193812</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08458093138698</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>brt-it</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BRT Bartolini</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2026-02-09T04:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>08458093138698</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JJD149990121180194493</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>JJD149990121180194493</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JJD149990121180194455</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>JJD149990121180194455</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JJD149990121180194480</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>JJD149990121180194480</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JJD149990121180194786</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>JJD149990121180194786</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JJD149990121180194277</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>JJD149990121180194277</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JJD149990121180193245</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>JJD149990121180193245</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JJD149990121180193486</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:11+00:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>JJD149990121180193486</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CY425450001DE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dhl-germany</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Deutsche Post DHL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CY425450001DE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JJD149990121180192273</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>JJD149990121180192273</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09447272761687</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:11+00:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>09447272761687</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>JJD149990121180197142</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>JJD149990121180197142</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>JJD149990121180195647</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>JJD149990121180195647</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JJD149990121180195737</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>JJD149990121180195737</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JJD149990121180197333</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>JJD149990121180197333</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JJD149990121180196232</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>JJD149990121180196232</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JJD149990121180195036</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>JJD149990121180195036</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JJD149990121180194833</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>JJD149990121180194833</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JJD149990121180196585</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>JJD149990121180196585</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JJD149990121180197789</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:06+00:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>JJD149990121180197789</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JJD149990121180196222</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>JJD149990121180196222</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>JJD149990121180196685</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>JJD149990121180196685</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JJD149990121180195374</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>JJD149990121180195374</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>JJD149990121180195416</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>JJD149990121180195416</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>JJD149990121180194902</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:09+00:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>JJD149990121180194902</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JJD149990121180195961</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>JJD149990121180195961</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JJD149990121180196977</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>JJD149990121180196977</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JJD149990121180194932</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:10+00:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>JJD149990121180194932</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>JJD149990121180197491</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:08+00:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>JJD149990121180197491</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JJD149990121180199132</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>JJD149990121180199132</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JJD149990121180198097</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>JJD149990121180198097</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JJD149990121180199217</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>JJD149990121180199217</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>JJD149990121180197838</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>JJD149990121180197838</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>JJD149990121180199072</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dhlparcel-nl</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DHL Parcel NL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>JJD149990121180199072</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>996014994510149158</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>swiss-post</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Swiss Post</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:27:31+01:00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:39:06+00:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>996014994510149158</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>{"courier": "swiss-post"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1Z6X581R9196293214</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ups-api</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ups-api</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2026-01-30T10:15:41+01:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:06+00:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1Z6X581R9196293214</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>996014657975466015</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>swiss-post</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Swiss Post</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:46:27+01:00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:06+00:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>996014657975466015</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>{"courier": "swiss-post"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>996014994510143390</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>swiss-post</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Swiss Post</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2026-01-22T15:08:39+01:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:06+00:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>996014994510143390</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>{"courier": "swiss-post"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>REC000079129404</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2026-02-06T19:37:00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:04+00:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>REC000079129404</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>REC000079129021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2026-02-06T13:18:00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:04+00:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>REC000079129021</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>REC000078815667</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2026-02-06T11:23:00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>REC000078815667</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>REC000078816709</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2026-02-06T17:37:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>REC000078816709</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>REC000077906401</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2026-01-26T14:38:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>REC000077906401</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>REC000078911857</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>spanish-seur-ftp</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2026-02-06T15:02:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:04+00:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>REC000078911857</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>502064229240</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2026-02-09T10:25:00+09:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>古河営業所, Japan</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>502064229240</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{"courier": "sagawa"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>502063984531</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2026-02-09T10:25:00+09:00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>古河営業所, Japan</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>502063984531</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>{"courier": "sagawa"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>502063852640</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:24:00+09:00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>古河営業所, Japan</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>502063852640</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{"courier": "sagawa"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>502063954103</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:24:00+09:00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>古河営業所, Japan</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>502063954103</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>{"courier": "sagawa"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>502063594970</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:24:00+09:00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>古河営業所, Japan</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:03+00:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>502063594970</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{"courier": "sagawa"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ZDDO3D3O</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>gls</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2026-02-02T13:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>DE, Germany</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:39:54+00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ZDDO3D3O</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ZDDO3F8R</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>gls</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2026-02-03T13:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>DE, Germany</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ZDDO3F8R</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12762668087</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gls</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2026-01-21T14:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Potsdam</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>12762668087</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12762668086</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>gls</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2026-01-21T14:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Potsdam</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>12762668086</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05222006536984</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2026-02-06T13:52:04+01:00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>05222006536984</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05222006537047</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2026-02-07T10:25:30+01:00</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tynaarlo, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>05222006537047</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05222006536562</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2026-02-04T18:22:14+01:00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Taulov, DK, Denmark</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>05222006536562</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05222006536998</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2026-02-06T16:06:01+01:00</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Etten-Leur, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>05222006536998</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05222006537048</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2026-02-07T11:47:52+01:00</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Etten-Leur, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>05222006537048</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>05222006536974</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2026-02-07T10:29:21+01:00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Etten-Leur, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>05222006536974</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05222006536993</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2026-02-06T15:00:58+01:00</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Vaexjoe, SE, Sweden</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>05222006536993</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0052914541925W</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:43+00:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0052914541925W</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>05222006537004</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2026-02-06T15:54:08+01:00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Veenendaal, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:41+00:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>05222006537004</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>05222006537003</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2026-02-06T15:54:08+01:00</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Veenendaal, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:42+00:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>05222006537003</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>05228742667452</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2026-01-15T19:02:36+01:00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>,Sweden</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>05228742667452</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>05222006536983</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2026-02-06T13:52:04+01:00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>05222006536983</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0053023876936W</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:45+00:00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0053023876936W</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05222006537046</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2026-02-07T16:50:27+01:00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>05222006537046</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>16408067675905</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>dpd-hungary-ftp</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DPD Hungary</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-12-17T10:54:08+01:00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1055, HUN, Hungary</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>16408067675905</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>16389000243464</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2026-02-05T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Budapest (HU), Hungary</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:34+00:00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>16389000243464</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16389000259403</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2026-02-05T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Budapest, HU, Hungary</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>16389000259403</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0053004990818W</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:44+00:00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0053004990818W</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0053001114443W</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:40+00:00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0053001114443W</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0053001114227W</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0053001114227W</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0053001113908W</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0053001113908W</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0053001159726W</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:41+00:00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0053001159726W</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0053001111720W</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0053001111720W</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0053001764027W</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2026-02-09T06:08:58+00:00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0053001764027W</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0053005989252W</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:43:18+01:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Lublin, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0053005989252W</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0053001118023W</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0053001118023W</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0053001113885W</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0053001113885W</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0053012964777W</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0053012964777W</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0053001114686W</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0053001114686W</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0053001108594W</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0053001108594W</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0053010425563W</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:47:21+01:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Dorotowo, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0053010425563W</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0052968511865W</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2026-02-03T10:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0052968511865W</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0053008821759W</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:40+00:00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0053008821759W</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0053006953715W</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:20:38+01:00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Konin, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0053006953715W</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0053001108475W</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2026-02-05T10:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:35+00:00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0053001108475W</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0053001105235W</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2026-02-09T06:08:47+00:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0053001105235W</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0053001114306W</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0053001114306W</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0053001113696W</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0053001113696W</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0053001113745W</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0053001113745W</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0053001114566W</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0053001114566W</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0053001114026W</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0053001114026W</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0053001114119W</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0053001114119W</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0053005340996W</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:41+00:00</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0053005340996W</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0053001114735W</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0053001114735W</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0053001114875W</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:37+00:00</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0053001114875W</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0053003472912W</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2026-02-04T12:30:33+01:00</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Kielce, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:35+00:00</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0053003472912W</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0053005341144W</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:42+00:00</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0053005341144W</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0053013166163W</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:41+00:00</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0053013166163W</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0053005828989W</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:38+00:00</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0053005828989W</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0053002076831W</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2026-02-06T08:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2026-02-09T05:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0053002076831W</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>03015160883455</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2026-02-04T00:00:00</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:35+00:00</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>03015160883455</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0053021279250W</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:40+00:00</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0053021279250W</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>03015160893699</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:27+01:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>03015160893699</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>03015160898572</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:33+01:00</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>03015160898572</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>03015160898219</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:14+01:00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:34+00:00</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>03015160898219</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>03015160901293</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:34+01:00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>03015160901293</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0053022954769W</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0053022954769W</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>03015160892359</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2026-02-04T00:00:00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:36+00:00</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>03015160892359</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>03015160869190</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:27+01:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:35+00:00</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>03015160869190</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0053020396363W</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:41+00:00</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0053020396363W</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>03015160898390</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:30+01:00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>03015160898390</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>03015160898392</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:32+01:00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>03015160898392</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>03015160890804</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:15+01:00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>03015160890804</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0053020396083W</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2026-02-09T11:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>ROSANOW, PL, Poland</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2026-02-09T07:38:39+00:00</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0053020396083W</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>03015160898391</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:31+01:00</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>03015160898391</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>03015160890800</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:10+01:00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:34+00:00</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>03015160890800</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>03015160883860</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2026-01-30T09:02:38+01:00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>03015160883860</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>03015160893919</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:29+01:00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:34+00:00</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>03015160893919</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>03015160890802</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:08:55+01:00</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:35+00:00</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>03015160890802</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>05025073586431</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:41+01:00</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>05025073586431</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>05025073587965</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:09:07+01:00</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>05025073587965</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>05025073588534</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:09:08+01:00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>05025073588534</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>05025073586083</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:37+01:00</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>05025073586083</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>05025073586354</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:39+01:00</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>05025073586354</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>05025073588542</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:09:09+01:00</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>05025073588542</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>03015160907813</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:31+01:00</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>03015160907813</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>05025073586430</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:40+01:00</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:44+00:00</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>05025073586430</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>03015160906769</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:15+01:00</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>03015160906769</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>05025073590314</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:09:11+01:00</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>05025073590314</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>05025073589950</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:09:10+01:00</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>05025073589950</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>05025073595799</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:43+01:00</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:34+00:00</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>05025073595799</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>05025073605859</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:23+01:00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>05025073605859</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>05025073609065</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:26+01:00</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>05025073609065</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>05025073617529</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:42+01:00</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>05025073617529</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>05025073591889</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:17+01:00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>05025073591889</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>05025073591941</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:33+01:00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>05025073591941</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>05025073605662</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:22+01:00</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>05025073605662</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>05025073596447</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:44+01:00</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>05025073596447</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>05025073615222</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:41+01:00</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>05025073615222</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>05025073614410</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:40+01:00</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>05025073614410</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>05025073610894</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:27+01:00</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>05025073610894</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>05025073607040</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:36+01:00</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:32+00:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>05025073607040</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>05025073606651</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:24+01:00</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>05025073606651</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>05025073606652</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:50:25+01:00</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:31+00:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>05025073606652</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>05025073605468</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:24:35+01:00</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>05025073605468</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>05025073591940</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:18:42+01:00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:33+00:00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>05025073591940</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>05222006536295</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:10:16+01:00</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>05222006536295</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>05222006536816</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:51:56+01:00</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>05222006536816</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>05222006536598</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2026-02-06T09:25:21+01:00</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>05222006536598</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05286000511065</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:27+01:00</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>05286000511065</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>05286000509137</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:26+01:00</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>05286000509137</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>05286000511716</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:46+01:00</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>05286000511716</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>05222006536833</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2026-02-05T15:00:33+01:00</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Taulov, DK, Denmark</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>05222006536833</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>05222006536684</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:51:48+01:00</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>05222006536684</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>05222006536847</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2026-02-07T14:49:17+01:00</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Vijfhuizen, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>05222006536847</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>05286000503781</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2026-01-19T09:17:03+01:00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>05286000503781</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>05286000514273</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:21:00+01:00</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>05286000514273</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>05286000514239</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:59+01:00</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:27+00:00</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>05286000514239</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>05286000512802</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:41+01:00</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>05286000512802</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>05286000513591</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:52:56+01:00</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>05286000513591</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>05286000513503</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:52:55+01:00</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>05286000513503</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>05286000514272</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:52:57+01:00</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>05286000514272</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>05286000512966</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2026-02-02T09:15:57+01:00</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>05286000512966</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>05286000511865</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:32+01:00</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>05286000511865</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>05286000513366</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:49+01:00</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>05286000513366</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>05286000512896</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:52:54+01:00</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>05286000512896</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>05286000512840</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:42+01:00</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>05286000512840</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>05286000514238</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:58+01:00</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:27+00:00</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>05286000514238</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>05286000512799</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:38+01:00</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:42+00:00</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>05286000512799</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>05286000514314</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:52:58+01:00</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:27+00:00</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>05286000514314</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>05286000511870</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:34+01:00</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>05286000511870</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>05286000512800</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:39+01:00</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>05286000512800</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>05286000512968</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:48+01:00</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>05286000512968</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>05286000511891</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:35+01:00</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>05286000511891</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>05286000514254</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:54+01:00</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:27+00:00</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>05286000514254</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>05286000513489</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:51+01:00</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>05286000513489</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>05286000514276</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:55+01:00</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>05286000514276</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>05286000513495</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:53+01:00</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>05286000513495</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>05286000512965</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2026-02-02T09:15:56+01:00</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>05286000512965</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>05286000511864</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:31+01:00</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>05286000511864</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>05286000512801</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:40+01:00</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>05286000512801</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>05286000511869</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2026-02-03T09:11:33+01:00</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:30+00:00</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>05286000511869</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>05286000512967</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:47+01:00</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>05286000512967</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>05286000514227</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:20:57+01:00</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>05286000514227</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>05286000514539</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:21:03+01:00</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>05286000514539</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>05286000514320</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2026-02-05T09:53:01+01:00</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>05286000514320</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>05286000514637</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:21:04+01:00</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:27+00:00</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>05286000514637</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>05286000514538</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>dpd</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DPD</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2026-02-04T10:21:02+01:00</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Oirschot, NL, Netherlands</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:38:28+00:00</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>05286000514538</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80070180668201</t>
+          <t>00KK1CVO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>spanish-seur-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>spanish-seur-api</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,40 +503,44 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-06T17:46:42+01:00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>2026-02-06T10:47:21+01:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Vitrolles, FR, France</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-09T05:21:35+00:00</t>
+          <t>2026-02-09T10:09:47+00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>80070180668201</t>
+          <t>00KK1CVO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MOT"}</t>
+          <t>{"external_order_id": "0033005675301", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>323202357059995044056030</t>
+          <t>00KK1CVR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bpost</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bpost</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,44 +552,44 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-09T08:29:00+01:00</t>
+          <t>2026-02-06T07:57:32+01:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>CARVIN, FR, France</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-09T07:43:59+00:00</t>
+          <t>2026-02-09T09:58:51+00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>323202357059995044056030</t>
+          <t>00KK1CVR</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
+          <t>{"external_order_id": "B2BDS9965308", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>00KKN9CL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,40 +601,44 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>2026-02-09T07:39:38+01:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CARVIN, FR, France</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T09:58:52+00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>00KKN9CL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "B2BDS9965308", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -642,40 +650,44 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>2026-02-06T13:14:34+01:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rixheim, FR, France</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "406-4673666-1722714", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>80070180668201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>spanish-seur-api</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>spanish-seur-api</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -687,44 +699,40 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-06T17:46:42+01:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T05:21:35+00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>80070180668201</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MOT"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>LA709546645NL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>postnl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>PostNL Domestic</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -736,40 +744,44 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>2026-02-09T09:26:00+01:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>,United Kingdom</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T10:51:21+00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>LA709546645NL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>LA990885792NL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>postnl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>PostNL Domestic</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -781,44 +793,44 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-02-09T08:51:00+01:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>,United Kingdom</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T10:48:25+00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>LA990885792NL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>R1120019520891200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>colis-prive</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Colis Privé</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -830,44 +842,44 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-02-09T10:49:38+01:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>,France</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T09:49:40+00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>R1120019520891200</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>R1120019520091190</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colis-prive</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colis Privé</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -879,40 +891,44 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>2026-02-09T09:49:33+01:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>,France</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T08:49:34+00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>R1120019520091190</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>R1120019520975016</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>colis-prive</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>Colis Privé</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -924,44 +940,44 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-09T10:49:39+01:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>,France</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T09:49:40+00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>R1120019520975016</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>00340434764770745041</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -973,40 +989,44 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>2026-02-09T11:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T10:46:52+00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>00340434764770745041</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>40111961027</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1018,40 +1038,44 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>2026-02-09T09:35:38+01:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vaihingen / Enz</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T08:52:16+00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>40111961027</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>40111961023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1063,40 +1087,44 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>2026-02-09T08:38:17+01:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Laatzen/Rethen</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T07:52:14+00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>40111961023</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>40111961029</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1108,40 +1136,44 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>2026-02-09T10:43:51+01:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Wesel</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T09:54:58+00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>40111961029</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>40111961021</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1153,40 +1185,44 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>2026-02-09T11:26:20+01:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Weilheim</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T10:55:07+00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>40111961021</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>323202357059995041770030</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1198,40 +1234,44 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>2026-02-09T11:19:00+01:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T10:44:04+00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>323202357059995041770030</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>323202357059995041768030</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1243,40 +1283,44 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>2026-02-09T10:57:00+01:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T10:14:12+00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>323202357059995041768030</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>323202357059995041850030</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1288,44 +1332,44 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
+          <t>2026-02-09T11:01:00+01:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T10:14:06+00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>323202357059995041850030</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>323202357059995041907030</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1337,40 +1381,44 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>2026-02-09T11:02:00+01:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T10:14:06+00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>323202357059995041907030</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>323202357059995041902030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1382,44 +1430,44 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-02-09T11:05:00+01:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T10:14:09+00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>323202357059995041902030</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>323202357059995042023030</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1431,40 +1479,44 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>2026-02-09T09:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T09:14:07+00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>323202357059995042023030</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>323202357059995042223030</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1476,40 +1528,44 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>2026-02-09T11:02:00+01:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:09+00:00</t>
+          <t>2026-02-09T10:14:08+00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>323202357059995042223030</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>323202357059995042029030</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1521,40 +1577,44 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>2026-02-09T09:12:00+01:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T08:14:04+00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>323202357059995042029030</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>323202357059995042796030</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1566,40 +1626,44 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>2026-02-09T09:12:00+01:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T08:14:03+00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>323202357059995042796030</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>323202357059995042662030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1611,40 +1675,44 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>2026-02-09T11:36:00+01:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T10:44:06+00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>323202357059995042662030</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>323202357059995042132030</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1656,40 +1724,44 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>2026-02-09T09:19:00+01:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T08:44:02+00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>323202357059995042132030</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>323202357059995042442030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1701,40 +1773,44 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>2026-02-09T09:12:00+01:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:10+00:00</t>
+          <t>2026-02-09T08:14:02+00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>323202357059995042442030</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>323202357059995042650030</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1746,40 +1822,44 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>2026-02-09T10:16:00+01:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T09:44:11+00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>323202357059995042650030</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>323202357059995042144030</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1791,40 +1871,44 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>2026-02-09T10:42:00+01:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T10:44:04+00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>323202357059995042144030</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>323202357059995042032030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1836,40 +1920,44 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>2026-02-09T10:25:00+01:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T10:44:08+00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>323202357059995042032030</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>323202357059995042062030</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1881,40 +1969,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>2026-02-09T09:36:00+01:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:09+00:00</t>
+          <t>2026-02-09T08:44:02+00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>323202357059995042062030</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>323202357059995043554030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1926,40 +2018,44 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>2026-02-09T11:10:00+01:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T10:14:09+00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>323202357059995043554030</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>323202357059995042668030</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1971,40 +2067,44 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>2026-02-09T09:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T09:14:07+00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>323202357059995042668030</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>323202357059995042528030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2016,40 +2116,44 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>2026-02-09T10:17:00+01:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T09:44:06+00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>323202357059995042528030</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>323202357059995042451030</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2061,40 +2165,44 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>2026-02-09T08:57:00+01:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T08:14:01+00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>323202357059995042451030</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>323202357059995044056030</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2106,40 +2214,44 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>2026-02-09T08:29:00+01:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T07:43:59+00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>323202357059995044056030</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>6A05221534877</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2151,40 +2263,44 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>2026-02-09T09:49:15+01:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:10+00:00</t>
+          <t>2026-02-09T09:14:02+00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>6A05221534877</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>6A05216759551</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2196,40 +2312,44 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>2026-02-09T10:48:16+01:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:08+00:00</t>
+          <t>2026-02-09T10:14:14+00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>6A05216759551</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>6A05221536246</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2241,40 +2361,44 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>2026-02-09T10:33:44+01:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:07+00:00</t>
+          <t>2026-02-09T09:44:04+00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>6A05221536246</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>323202357059995049497030</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2286,40 +2410,44 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>2026-02-09T10:42:00+01:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:07+00:00</t>
+          <t>2026-02-09T09:44:03+00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>323202357059995049497030</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>6A05221546818</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2331,40 +2459,44 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>2026-02-09T10:20:24+01:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:07+00:00</t>
+          <t>2026-02-09T09:44:06+00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>6A05221546818</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>6A05216761936</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2376,40 +2508,44 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>2026-02-09T11:16:19+01:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T10:44:14+00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>6A05216761936</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>6A05216753979</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2421,40 +2557,44 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>2026-02-09T08:44:00+01:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:07+00:00</t>
+          <t>2026-02-09T08:13:56+00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>6A05216753979</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>996014994510149158</t>
+          <t>323202357059995044084030</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2466,44 +2606,44 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-02-06T09:27:31+01:00</t>
+          <t>2026-02-09T09:54:00+01:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-09T05:39:06+00:00</t>
+          <t>2026-02-09T09:14:01+00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>996014994510149158</t>
+          <t>323202357059995044084030</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1Z6X581R9196293214</t>
+          <t>323202357059995049575030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2515,44 +2655,44 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-01-30T10:15:41+01:00</t>
+          <t>2026-02-09T09:54:00+01:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T09:14:05+00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1Z6X581R9196293214</t>
+          <t>323202357059995049575030</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>996014657975466015</t>
+          <t>6A05221596578</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2564,44 +2704,44 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-01-09T14:46:27+01:00</t>
+          <t>2026-02-09T10:43:49+01:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>FR, France</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T10:43:57+00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>996014657975466015</t>
+          <t>6A05221596578</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>996014994510143390</t>
+          <t>323202357059995049360030</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2613,44 +2753,44 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-01-22T15:08:39+01:00</t>
+          <t>2026-02-09T10:14:00+01:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T09:44:03+00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>996014994510143390</t>
+          <t>323202357059995049360030</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>REC000079129404</t>
+          <t>6A05237606452</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>colissimo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Colissimo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2662,40 +2802,44 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-02-06T19:37:00</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>2026-02-09T11:02:46+01:00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FR, France</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:04+00:00</t>
+          <t>2026-02-09T10:44:05+00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>REC000079129404</t>
+          <t>6A05237606452</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>REC000079129021</t>
+          <t>323202357059995074569030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2707,40 +2851,44 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-02-06T13:18:00</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>2026-02-09T10:28:00+01:00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:04+00:00</t>
+          <t>2026-02-09T09:42:55+00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>REC000079129021</t>
+          <t>323202357059995074569030</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>REC000078815667</t>
+          <t>323202357059995053976030</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2752,40 +2900,44 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2026-02-06T11:23:00</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>2026-02-09T10:56:00+01:00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T10:12:59+00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>REC000078815667</t>
+          <t>323202357059995053976030</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>REC000078816709</t>
+          <t>323202357059995056979030</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2797,40 +2949,44 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2026-02-06T17:37:00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>2026-02-09T07:51:00+01:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T08:42:55+00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>REC000078816709</t>
+          <t>323202357059995056979030</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>REC000077906401</t>
+          <t>323202357059995050297030</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2842,40 +2998,44 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2026-01-26T14:38:00</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>2026-02-09T11:09:00+01:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T10:42:53+00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>REC000077906401</t>
+          <t>323202357059995050297030</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>REC000078911857</t>
+          <t>323202357059995066174030</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2887,40 +3047,44 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2026-02-06T15:02:00</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>2026-02-09T10:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:04+00:00</t>
+          <t>2026-02-09T10:12:57+00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>REC000078911857</t>
+          <t>323202357059995066174030</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>502064229240</t>
+          <t>323202357059995053469030</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2932,44 +3096,44 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2026-02-09T10:25:00+09:00</t>
+          <t>2026-02-09T10:27:00+01:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>古河営業所, Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T09:42:56+00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>502064229240</t>
+          <t>323202357059995053469030</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>{"courier": "sagawa"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>502063984531</t>
+          <t>323202357059995061560030</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2981,44 +3145,44 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-02-09T10:25:00+09:00</t>
+          <t>2026-02-09T10:51:00+01:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>古河営業所, Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T10:12:58+00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>502063984531</t>
+          <t>323202357059995061560030</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{"courier": "sagawa"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>502063852640</t>
+          <t>323202357059995067916030</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3030,44 +3194,44 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-02-05T10:24:00+09:00</t>
+          <t>2026-02-09T11:34:00+01:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>古河営業所, Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T10:42:57+00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>502063852640</t>
+          <t>323202357059995067916030</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>{"courier": "sagawa"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>502063954103</t>
+          <t>323202357059995051904030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3079,44 +3243,44 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-02-05T10:24:00+09:00</t>
+          <t>2026-02-09T10:44:00+01:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>古河営業所, Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T10:12:59+00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>502063954103</t>
+          <t>323202357059995051904030</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>{"courier": "sagawa"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>502063594970</t>
+          <t>323202357059995064339030</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3128,44 +3292,44 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2026-02-05T10:24:00+09:00</t>
+          <t>2026-02-09T10:19:00+01:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>古河営業所, Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:03+00:00</t>
+          <t>2026-02-09T09:42:58+00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>502063594970</t>
+          <t>323202357059995064339030</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>{"courier": "sagawa"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ZDDO3D3O</t>
+          <t>323202357059995051742030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3177,44 +3341,44 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-02-02T13:30:00+01:00</t>
+          <t>2026-02-09T09:39:00+01:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>DE, Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:54+00:00</t>
+          <t>2026-02-09T08:42:55+00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ZDDO3D3O</t>
+          <t>323202357059995051742030</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZDDO3F8R</t>
+          <t>323202357059995069387030</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3226,44 +3390,44 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2026-02-03T13:30:00+01:00</t>
+          <t>2026-02-09T11:23:00+01:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>DE, Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:39+00:00</t>
+          <t>2026-02-09T10:42:57+00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ZDDO3F8R</t>
+          <t>323202357059995069387030</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12762668087</t>
+          <t>323202357059995076364030</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3275,44 +3439,44 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2026-01-21T14:30:00+01:00</t>
+          <t>2026-02-09T10:38:00+01:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Potsdam</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:37+00:00</t>
+          <t>2026-02-09T09:42:59+00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>12762668087</t>
+          <t>323202357059995076364030</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12762668086</t>
+          <t>323202357059995056978030</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3324,44 +3488,44 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2026-01-21T14:30:00+01:00</t>
+          <t>2026-02-09T07:51:00+01:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Potsdam</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:36+00:00</t>
+          <t>2026-02-09T08:42:53+00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>12762668086</t>
+          <t>323202357059995056978030</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05222006536984</t>
+          <t>323202357059995067225030</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3373,44 +3537,44 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2026-02-06T13:52:04+01:00</t>
+          <t>2026-02-09T10:31:00+01:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Berkel en Rodenrijs, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:39+00:00</t>
+          <t>2026-02-09T09:42:58+00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>05222006536984</t>
+          <t>323202357059995067225030</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05222006537047</t>
+          <t>323202357059995062780030</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3422,44 +3586,44 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2026-02-07T10:25:30+01:00</t>
+          <t>2026-02-09T11:08:00+01:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tynaarlo, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:38+00:00</t>
+          <t>2026-02-09T10:12:59+00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>05222006537047</t>
+          <t>323202357059995062780030</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05222006536562</t>
+          <t>323202357059995064226030</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3471,44 +3635,44 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2026-02-04T18:22:14+01:00</t>
+          <t>2026-02-09T10:30:00+01:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Taulov, DK, Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:37+00:00</t>
+          <t>2026-02-09T09:42:55+00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>05222006536562</t>
+          <t>323202357059995064226030</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05222006536998</t>
+          <t>323202357059995056383030</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3520,44 +3684,44 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2026-02-06T16:06:01+01:00</t>
+          <t>2026-02-09T09:30:00+01:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Etten-Leur, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:36+00:00</t>
+          <t>2026-02-09T08:42:55+00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>05222006536998</t>
+          <t>323202357059995056383030</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05222006537048</t>
+          <t>323202357059995056488030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3569,44 +3733,44 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2026-02-07T11:47:52+01:00</t>
+          <t>2026-02-09T11:13:00+01:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Etten-Leur, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:39+00:00</t>
+          <t>2026-02-09T10:43:02+00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>05222006537048</t>
+          <t>323202357059995056488030</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05222006536974</t>
+          <t>323202357059995069160030</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3618,44 +3782,44 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-02-07T10:29:21+01:00</t>
+          <t>2026-02-09T11:10:00+01:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Etten-Leur, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:37+00:00</t>
+          <t>2026-02-09T10:13:02+00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>05222006536974</t>
+          <t>323202357059995069160030</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05222006536993</t>
+          <t>323202357059995082342030</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3667,44 +3831,44 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-02-06T15:00:58+01:00</t>
+          <t>2026-02-09T09:42:00+01:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Vaexjoe, SE, Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:37+00:00</t>
+          <t>2026-02-09T09:12:56+00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>05222006536993</t>
+          <t>323202357059995082342030</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0052914541925W</t>
+          <t>323202357059995073972030</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3716,44 +3880,44 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-02-09T09:45:00+01:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:43+00:00</t>
+          <t>2026-02-09T09:12:54+00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0052914541925W</t>
+          <t>323202357059995073972030</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05222006537004</t>
+          <t>323202357059995063930030</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3765,44 +3929,44 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2026-02-06T15:54:08+01:00</t>
+          <t>2026-02-09T10:10:00+01:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Veenendaal, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:41+00:00</t>
+          <t>2026-02-09T09:12:55+00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>05222006537004</t>
+          <t>323202357059995063930030</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05222006537003</t>
+          <t>323202357059995074910030</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>bpost</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Bpost</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3814,44 +3978,44 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-02-06T15:54:08+01:00</t>
+          <t>2026-02-09T11:41:00+01:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Veenendaal, NL, Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:42+00:00</t>
+          <t>2026-02-09T10:42:56+00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>05222006537003</t>
+          <t>323202357059995074910030</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>05228742667452</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3863,44 +4027,40 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-01-15T19:02:36+01:00</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>,Sweden</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:38+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>05228742667452</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05222006536983</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3912,34 +4072,30 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2026-02-06T13:52:04+01:00</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Berkel en Rodenrijs, NL, Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:37+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>05222006536983</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0053023876936W</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3961,44 +4117,44 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-01-16T14:43:03+01:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>Aschaffenburg, DE, Germany</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:45+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0053023876936W</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05222006537046</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4010,44 +4166,40 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2026-02-07T16:50:27+01:00</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NL, Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:36+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>05222006537046</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>16408067675905</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>dpd-hungary-ftp</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DPD Hungary</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4059,44 +4211,44 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-12-17T10:54:08+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1055, HUN, Hungary</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>16408067675905</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>16389000243464</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4108,44 +4260,40 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-02-05T17:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Budapest (HU), Hungary</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:34+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>16389000243464</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>16389000259403</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4157,34 +4305,30 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-02-05T17:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Budapest, HU, Hungary</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>16389000259403</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0053004990818W</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4206,44 +4350,44 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:44+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0053004990818W</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0053001114443W</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4255,34 +4399,30 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:40+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0053001114443W</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0053001114227W</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4304,44 +4444,44 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
+          <t>2026-02-02T15:56:13+01:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>Nagold, DE, Germany</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:36+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0053001114227W</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0053001113908W</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4353,44 +4493,40 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:38+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0053001113908W</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0053001159726W</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4402,44 +4538,40 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:41+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0053001159726W</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0053001111720W</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4451,44 +4583,40 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:38+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0053001111720W</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0053001764027W</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4500,44 +4628,40 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-02-09T06:08:58+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0053001764027W</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0053005989252W</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4549,44 +4673,40 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2026-02-06T09:43:18+01:00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Lublin, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:36+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0053005989252W</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0053001118023W</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4598,44 +4718,44 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:39+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0053001118023W</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0053001113885W</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4647,44 +4767,44 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0053001113885W</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0053012964777W</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4696,44 +4816,40 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0053012964777W</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0053001114686W</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4745,44 +4861,40 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T05:39:10+00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0053001114686W</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0053001108594W</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4794,44 +4906,40 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2026-02-05T10:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T05:39:09+00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0053001108594W</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0053010425563W</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4843,44 +4951,40 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2026-02-06T09:47:21+01:00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Dorotowo, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0053010425563W</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0052968511865W</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4892,44 +4996,40 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2026-02-03T10:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0052968511865W</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0053008821759W</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4941,44 +5041,40 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:40+00:00</t>
+          <t>2026-02-09T05:39:09+00:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0053008821759W</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0053006953715W</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4990,44 +5086,40 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2026-02-06T10:20:38+01:00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Konin, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:38+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0053006953715W</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0053001108475W</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5039,44 +5131,40 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2026-02-05T10:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:35+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0053001108475W</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0053001105235W</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5088,44 +5176,40 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-02-09T06:08:47+00:00</t>
+          <t>2026-02-09T05:39:10+00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0053001105235W</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0053001114306W</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5137,44 +5221,40 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:38+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0053001114306W</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0053001113696W</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5186,44 +5266,40 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0053001113696W</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0053001113745W</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5235,44 +5311,40 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0053001113745W</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0053001114566W</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5284,44 +5356,40 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:38+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0053001114566W</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0053001114026W</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5333,44 +5401,40 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:39+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0053001114026W</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0053001114119W</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5382,44 +5446,40 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:36+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0053001114119W</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0053005340996W</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5431,44 +5491,40 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:41+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0053005340996W</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0053001114735W</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5480,44 +5536,40 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0053001114735W</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0053001114875W</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5529,44 +5581,40 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:37+00:00</t>
+          <t>2026-02-09T05:39:08+00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0053001114875W</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0053003472912W</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5578,44 +5626,40 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2026-02-04T12:30:33+01:00</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Kielce, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:35+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0053003472912W</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0053005341144W</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5627,44 +5671,40 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:42+00:00</t>
+          <t>2026-02-09T05:39:07+00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0053005341144W</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0053013166163W</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5676,44 +5716,40 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:41+00:00</t>
+          <t>2026-02-09T05:39:07+00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0053013166163W</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0053005828989W</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5725,44 +5761,40 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:38+00:00</t>
+          <t>2026-02-09T05:39:07+00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0053005828989W</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0053002076831W</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5774,44 +5806,40 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2026-02-06T08:30:00+01:00</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-02-09T05:38:36+00:00</t>
+          <t>2026-02-09T05:39:07+00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0053002076831W</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>03015160883455</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5823,40 +5851,40 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2026-02-04T00:00:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:35+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>03015160883455</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0053021279250W</t>
+          <t>1Z6X581R9192931997</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5868,44 +5896,44 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-02-09T09:56:49+01:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:40+00:00</t>
+          <t>2026-02-09T09:39:13+00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0053021279250W</t>
+          <t>1Z6X581R9192931997</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>03015160893699</t>
+          <t>1Z6X581R9193913380</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5917,44 +5945,44 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:27+01:00</t>
+          <t>2026-02-09T09:56:49+01:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T09:39:12+00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>03015160893699</t>
+          <t>1Z6X581R9193913380</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>03015160898572</t>
+          <t>1Z6X581R9196293214</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5966,44 +5994,44 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:33+01:00</t>
+          <t>2026-01-30T10:15:41+01:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>03015160898572</t>
+          <t>1Z6X581R9196293214</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>03015160898219</t>
+          <t>996014657975466015</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6015,44 +6043,44 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:14+01:00</t>
+          <t>2026-01-09T14:46:27+01:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:34+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>03015160898219</t>
+          <t>996014657975466015</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>03015160901293</t>
+          <t>996014994510143390</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6064,44 +6092,44 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:34+01:00</t>
+          <t>2026-01-22T15:08:39+01:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>03015160901293</t>
+          <t>996014994510143390</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0053022954769W</t>
+          <t>996011434800713577</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6113,44 +6141,44 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
+          <t>2026-02-09T09:11:16+01:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>ROSANOW, PL, Poland</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:39+00:00</t>
+          <t>2026-02-09T08:39:10+00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0053022954769W</t>
+          <t>996011434800713577</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>03015160892359</t>
+          <t>996014994510149158</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6162,40 +6190,44 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2026-02-04T00:00:00</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
+          <t>2026-02-06T09:27:31+01:00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:36+00:00</t>
+          <t>2026-02-09T05:39:06+00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>03015160892359</t>
+          <t>996014994510149158</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>03015160869190</t>
+          <t>REC000079126209</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6207,44 +6239,40 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:27+01:00</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T09:31:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:35+00:00</t>
+          <t>2026-02-09T10:20:14+00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>03015160869190</t>
+          <t>REC000079126209</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0053020396363W</t>
+          <t>REC000079129404</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6256,44 +6284,40 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T19:37:00</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:41+00:00</t>
+          <t>2026-02-09T01:39:04+00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0053020396363W</t>
+          <t>REC000079129404</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>03015160898390</t>
+          <t>996011434800714377</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6305,44 +6329,44 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:30+01:00</t>
+          <t>2026-02-09T09:12:26+01:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T08:39:09+00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>03015160898390</t>
+          <t>996011434800714377</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>03015160898392</t>
+          <t>996011434800713732</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6354,44 +6378,44 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:32+01:00</t>
+          <t>2026-02-09T09:09:31+01:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T08:39:09+00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>03015160898392</t>
+          <t>996011434800713732</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>03015160890804</t>
+          <t>REC000079126066</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6403,44 +6427,40 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:15+01:00</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T10:40:00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T10:20:15+00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>03015160890804</t>
+          <t>REC000079126066</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0053020396083W</t>
+          <t>REC000079129021</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6452,44 +6472,40 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2026-02-09T11:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>ROSANOW, PL, Poland</t>
-        </is>
-      </c>
+          <t>2026-02-06T13:18:00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-02-09T07:38:39+00:00</t>
+          <t>2026-02-09T01:39:04+00:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0053020396083W</t>
+          <t>REC000079129021</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>03015160898391</t>
+          <t>REC000077906401</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6501,44 +6517,40 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:31+01:00</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-01-26T14:38:00</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>03015160898391</t>
+          <t>REC000077906401</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>03015160890800</t>
+          <t>REC000078911857</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6550,44 +6562,40 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:10+01:00</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-06T15:02:00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:34+00:00</t>
+          <t>2026-02-09T01:39:04+00:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>03015160890800</t>
+          <t>REC000078911857</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>03015160883860</t>
+          <t>REC000078816709</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6599,44 +6607,40 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2026-01-30T09:02:38+01:00</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-06T17:37:00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>03015160883860</t>
+          <t>REC000078816709</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>03015160893919</t>
+          <t>REC000078815667</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6648,44 +6652,40 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:29+01:00</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-06T11:23:00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:34+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>03015160893919</t>
+          <t>REC000078815667</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>03015160890802</t>
+          <t>502063984531</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6697,44 +6697,44 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2026-02-03T09:08:55+01:00</t>
+          <t>2026-02-09T10:25:00+09:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>古河営業所, Japan</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:35+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>03015160890802</t>
+          <t>502063984531</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "sagawa"}</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>05025073586431</t>
+          <t>502063594970</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6746,44 +6746,44 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:41+01:00</t>
+          <t>2026-02-05T10:24:00+09:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>古河営業所, Japan</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>05025073586431</t>
+          <t>502063594970</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "sagawa"}</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>05025073587965</t>
+          <t>502063954103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6795,44 +6795,44 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2026-02-03T09:09:07+01:00</t>
+          <t>2026-02-05T10:24:00+09:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>古河営業所, Japan</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>05025073587965</t>
+          <t>502063954103</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "sagawa"}</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>05025073588534</t>
+          <t>502064229240</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6844,44 +6844,44 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2026-02-03T09:09:08+01:00</t>
+          <t>2026-02-09T10:25:00+09:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>古河営業所, Japan</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>05025073588534</t>
+          <t>502064229240</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "sagawa"}</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>05025073586083</t>
+          <t>502063852640</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6893,44 +6893,44 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:37+01:00</t>
+          <t>2026-02-05T10:24:00+09:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>古河営業所, Japan</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:03+00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>05025073586083</t>
+          <t>502063852640</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "sagawa"}</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>05025073586354</t>
+          <t>ZDDO3D3O</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6942,44 +6942,44 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:39+01:00</t>
+          <t>2026-02-02T13:30:00+01:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>DE, Germany</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:39:54+00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>05025073586354</t>
+          <t>ZDDO3D3O</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>05025073588542</t>
+          <t>ZDDO3F8R</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6991,44 +6991,44 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2026-02-03T09:09:09+01:00</t>
+          <t>2026-02-03T13:30:00+01:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>DE, Germany</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:39+00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>05025073588542</t>
+          <t>ZDDO3F8R</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>03015160907813</t>
+          <t>12762668086</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7040,44 +7040,44 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:31+01:00</t>
+          <t>2026-01-21T14:30:00+01:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Potsdam</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T01:38:36+00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>03015160907813</t>
+          <t>12762668086</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>05025073586430</t>
+          <t>12762668087</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7089,34 +7089,34 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:40+01:00</t>
+          <t>2026-01-21T14:30:00+01:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Potsdam</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:44+00:00</t>
+          <t>2026-02-09T01:38:37+00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>05025073586430</t>
+          <t>12762668087</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>03015160906769</t>
+          <t>05222006536984</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7138,22 +7138,22 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:15+01:00</t>
+          <t>2026-02-06T13:52:04+01:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:39+00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>03015160906769</t>
+          <t>05222006536984</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -7165,7 +7165,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>05025073590314</t>
+          <t>05222006536998</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7187,22 +7187,22 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2026-02-03T09:09:11+01:00</t>
+          <t>2026-02-06T16:06:01+01:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Etten-Leur, NL, Netherlands</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:36+00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>05025073590314</t>
+          <t>05222006536998</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -7214,7 +7214,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>05025073589950</t>
+          <t>05222006536562</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7236,22 +7236,22 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2026-02-03T09:09:10+01:00</t>
+          <t>2026-02-04T18:22:14+01:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Taulov, DK, Denmark</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:37+00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>05025073589950</t>
+          <t>05222006536562</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -7263,7 +7263,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>05025073595799</t>
+          <t>05222006537048</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7285,22 +7285,22 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:43+01:00</t>
+          <t>2026-02-07T11:47:52+01:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Etten-Leur, NL, Netherlands</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:34+00:00</t>
+          <t>2026-02-09T01:38:39+00:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>05025073595799</t>
+          <t>05222006537048</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -7312,7 +7312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>05025073605859</t>
+          <t>0053023874321W</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7334,22 +7334,22 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:23+01:00</t>
+          <t>2026-02-09T09:34:46+01:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Czestochowa, PL, Poland</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T10:38:48+00:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>05025073605859</t>
+          <t>0053023874321W</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -7361,7 +7361,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>05025073609065</t>
+          <t>05222006537047</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7383,22 +7383,22 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:26+01:00</t>
+          <t>2026-02-07T10:25:30+01:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Tynaarlo, NL, Netherlands</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:38:38+00:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>05025073609065</t>
+          <t>05222006537047</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -7410,7 +7410,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>05025073617529</t>
+          <t>0052914541925W</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7432,22 +7432,22 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:42+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T07:38:43+00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>05025073617529</t>
+          <t>0052914541925W</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -7459,7 +7459,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>05025073591889</t>
+          <t>05222006536993</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7481,22 +7481,22 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:17+01:00</t>
+          <t>2026-02-06T15:00:58+01:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Vaexjoe, SE, Sweden</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:38:37+00:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>05025073591889</t>
+          <t>05222006536993</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>05025073591941</t>
+          <t>0053024044546W</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7530,22 +7530,22 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:33+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T08:08:46+00:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>05025073591941</t>
+          <t>0053024044546W</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -7557,7 +7557,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>05025073605662</t>
+          <t>05222006537003</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7579,22 +7579,22 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:22+01:00</t>
+          <t>2026-02-06T15:54:08+01:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Veenendaal, NL, Netherlands</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T05:38:42+00:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>05025073605662</t>
+          <t>05222006537003</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -7606,7 +7606,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>05025073596447</t>
+          <t>05222006536974</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7628,22 +7628,22 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:44+01:00</t>
+          <t>2026-02-07T10:29:21+01:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Etten-Leur, NL, Netherlands</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:37+00:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>05025073596447</t>
+          <t>05222006536974</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -7655,7 +7655,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>05025073615222</t>
+          <t>05222006537004</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7677,22 +7677,22 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:41+01:00</t>
+          <t>2026-02-06T15:54:08+01:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Veenendaal, NL, Netherlands</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T05:38:41+00:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>05025073615222</t>
+          <t>05222006537004</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -7704,7 +7704,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>05025073614410</t>
+          <t>05222006536983</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7726,22 +7726,22 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:40+01:00</t>
+          <t>2026-02-06T13:52:04+01:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:38:37+00:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>05025073614410</t>
+          <t>05222006536983</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>05025073610894</t>
+          <t>0053023876936W</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7775,22 +7775,22 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:27+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T07:38:45+00:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>05025073610894</t>
+          <t>0053023876936W</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -7802,7 +7802,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>05025073607040</t>
+          <t>05222006537046</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7824,22 +7824,22 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:36+01:00</t>
+          <t>2026-02-07T16:50:27+01:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>NL, Netherlands</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:32+00:00</t>
+          <t>2026-02-09T01:38:36+00:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>05025073607040</t>
+          <t>05222006537046</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -7851,7 +7851,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>05025073606651</t>
+          <t>05228742667452</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7873,22 +7873,22 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:24+01:00</t>
+          <t>2026-01-15T19:02:36+01:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>,Sweden</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:38:38+00:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>05025073606651</t>
+          <t>05228742667452</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>05025073606652</t>
+          <t>16389000243464</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7922,22 +7922,22 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2026-02-05T09:50:25+01:00</t>
+          <t>2026-02-05T17:00:00+01:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Budapest (HU), Hungary</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:31+00:00</t>
+          <t>2026-02-09T01:38:34+00:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>05025073606652</t>
+          <t>16389000243464</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -7949,7 +7949,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>05025073605468</t>
+          <t>16389000259403</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7971,12 +7971,12 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2026-02-06T09:24:35+01:00</t>
+          <t>2026-02-05T17:00:00+01:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Budapest, HU, Hungary</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>05025073605468</t>
+          <t>16389000259403</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -7998,7 +7998,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>05025073591940</t>
+          <t>0053004990818W</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8020,22 +8020,22 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2026-02-04T10:18:42+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:33+00:00</t>
+          <t>2026-02-09T07:38:44+00:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>05025073591940</t>
+          <t>0053004990818W</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -8047,17 +8047,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>05222006536295</t>
+          <t>16408067675905</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dpd-hungary-ftp</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DPD Hungary</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8069,22 +8069,22 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2026-02-03T09:10:16+01:00</t>
+          <t>2025-12-17T10:54:08+01:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>1055, HUN, Hungary</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T01:38:31+00:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>05222006536295</t>
+          <t>16408067675905</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -8096,7 +8096,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05222006536816</t>
+          <t>0053001764027W</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8118,22 +8118,22 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2026-02-05T09:51:56+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T06:08:58+00:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>05222006536816</t>
+          <t>0053001764027W</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -8145,7 +8145,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>05222006536598</t>
+          <t>0053006953715W</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8167,22 +8167,22 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2026-02-06T09:25:21+01:00</t>
+          <t>2026-02-06T10:20:38+01:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>Konin, PL, Poland</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T05:38:38+00:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>05222006536598</t>
+          <t>0053006953715W</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>05286000511065</t>
+          <t>0053005341069W</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8216,22 +8216,22 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:27+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T08:08:50+00:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>05286000511065</t>
+          <t>0053005341069W</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -8243,7 +8243,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>05286000509137</t>
+          <t>0053013403136W</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8265,22 +8265,22 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:26+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T08:39:23+00:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>05286000509137</t>
+          <t>0053013403136W</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -8292,7 +8292,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05286000511716</t>
+          <t>0053001114227W</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8314,22 +8314,22 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:46+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:36+00:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>05286000511716</t>
+          <t>0053001114227W</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -8341,7 +8341,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>05222006536833</t>
+          <t>0053001113908W</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8363,22 +8363,22 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2026-02-05T15:00:33+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Taulov, DK, Denmark</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:38+00:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>05222006536833</t>
+          <t>0053001113908W</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -8390,7 +8390,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>05222006536684</t>
+          <t>0053012964777W</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8412,22 +8412,22 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2026-02-05T09:51:48+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>05222006536684</t>
+          <t>0053012964777W</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -8439,7 +8439,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>05222006536847</t>
+          <t>0053008821759W</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8461,22 +8461,22 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2026-02-07T14:49:17+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Vijfhuizen, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:40+00:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>05222006536847</t>
+          <t>0053008821759W</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>05286000503781</t>
+          <t>0053001108475W</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8510,22 +8510,22 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2026-01-19T09:17:03+01:00</t>
+          <t>2026-02-05T10:30:00+01:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T01:38:35+00:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>05286000503781</t>
+          <t>0053001108475W</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -8537,7 +8537,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>05286000514273</t>
+          <t>0053005341144W</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8559,22 +8559,22 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2026-02-04T10:21:00+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T07:38:42+00:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>05286000514273</t>
+          <t>0053005341144W</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -8586,7 +8586,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>05286000514239</t>
+          <t>0052968511865W</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8608,22 +8608,22 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:59+01:00</t>
+          <t>2026-02-03T10:30:00+01:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:27+00:00</t>
+          <t>2026-02-09T01:38:33+00:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>05286000514239</t>
+          <t>0052968511865W</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -8635,7 +8635,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>05286000512802</t>
+          <t>0053001118023W</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8657,22 +8657,22 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:41+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T07:38:39+00:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>05286000512802</t>
+          <t>0053001118023W</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -8684,7 +8684,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>05286000513591</t>
+          <t>0053001114306W</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8706,22 +8706,22 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2026-02-05T09:52:56+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:38+00:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>05286000513591</t>
+          <t>0053001114306W</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -8733,7 +8733,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>05286000513503</t>
+          <t>0053001111720W</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8755,22 +8755,22 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2026-02-05T09:52:55+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:38+00:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>05286000513503</t>
+          <t>0053001111720W</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>05286000514272</t>
+          <t>0053005340996W</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8804,22 +8804,22 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2026-02-05T09:52:57+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T07:38:41+00:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>05286000514272</t>
+          <t>0053005340996W</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -8831,7 +8831,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>05286000512966</t>
+          <t>0053001114119W</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8853,22 +8853,22 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2026-02-02T09:15:57+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:36+00:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>05286000512966</t>
+          <t>0053001114119W</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -8880,7 +8880,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>05286000511865</t>
+          <t>0053013166163W</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8902,22 +8902,22 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:32+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T07:38:41+00:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>05286000511865</t>
+          <t>0053013166163W</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -8929,7 +8929,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>05286000513366</t>
+          <t>0053002076831W</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8951,22 +8951,22 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:49+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:36+00:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>05286000513366</t>
+          <t>0053002076831W</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -8978,7 +8978,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>05286000512896</t>
+          <t>0053001108594W</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9000,22 +9000,22 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2026-02-05T09:52:54+01:00</t>
+          <t>2026-02-05T10:30:00+01:00</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T01:38:33+00:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>05286000512896</t>
+          <t>0053001108594W</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -9027,7 +9027,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>05286000512840</t>
+          <t>0053001105235W</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9049,22 +9049,22 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:42+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T06:08:47+00:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>05286000512840</t>
+          <t>0053001105235W</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>05286000514238</t>
+          <t>0053005989252W</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9098,22 +9098,22 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:58+01:00</t>
+          <t>2026-02-06T09:43:18+01:00</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>Lublin, PL, Poland</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:27+00:00</t>
+          <t>2026-02-09T05:38:36+00:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>05286000514238</t>
+          <t>0053005989252W</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -9125,7 +9125,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>05286000512799</t>
+          <t>0053001113696W</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9147,22 +9147,22 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:38+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:42+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>05286000512799</t>
+          <t>0053001113696W</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -9174,7 +9174,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>05286000514314</t>
+          <t>0053001114875W</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9196,22 +9196,22 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2026-02-05T09:52:58+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:27+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>05286000514314</t>
+          <t>0053001114875W</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -9223,7 +9223,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>05286000511870</t>
+          <t>0053001114443W</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9245,22 +9245,22 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:34+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:40+00:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>05286000511870</t>
+          <t>0053001114443W</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -9272,7 +9272,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>05286000512800</t>
+          <t>0053001113745W</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9294,22 +9294,22 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:39+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>05286000512800</t>
+          <t>0053001113745W</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -9321,7 +9321,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>05286000512968</t>
+          <t>0053001114735W</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9343,22 +9343,22 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:48+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>05286000512968</t>
+          <t>0053001114735W</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -9370,7 +9370,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>05286000511891</t>
+          <t>0053001159726W</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9392,22 +9392,22 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:35+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:41+00:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>05286000511891</t>
+          <t>0053001159726W</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -9419,7 +9419,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>05286000514254</t>
+          <t>0053003472912W</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9441,22 +9441,22 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:54+01:00</t>
+          <t>2026-02-04T12:30:33+01:00</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>Kielce, PL, Poland</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:27+00:00</t>
+          <t>2026-02-09T01:38:35+00:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>05286000514254</t>
+          <t>0053003472912W</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -9468,7 +9468,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>05286000513489</t>
+          <t>0053001114026W</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9490,22 +9490,22 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:51+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:39+00:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>05286000513489</t>
+          <t>0053001114026W</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -9517,7 +9517,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>05286000514276</t>
+          <t>0053001114686W</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9539,22 +9539,22 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:55+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>05286000514276</t>
+          <t>0053001114686W</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>05286000513495</t>
+          <t>0053001114566W</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9588,22 +9588,22 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:53+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:38+00:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>05286000513495</t>
+          <t>0053001114566W</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -9615,7 +9615,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>05286000512965</t>
+          <t>0053001113885W</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9637,22 +9637,22 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2026-02-02T09:15:56+01:00</t>
+          <t>2026-02-06T08:30:00+01:00</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>05286000512965</t>
+          <t>0053001113885W</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -9664,7 +9664,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>05286000511864</t>
+          <t>0053010425563W</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9686,22 +9686,22 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:31+01:00</t>
+          <t>2026-02-06T09:47:21+01:00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>Dorotowo, PL, Poland</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T05:38:37+00:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>05286000511864</t>
+          <t>0053010425563W</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>05286000512801</t>
+          <t>0053005828989W</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9735,22 +9735,22 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:40+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T07:38:38+00:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>05286000512801</t>
+          <t>0053005828989W</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -9762,7 +9762,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>05286000511869</t>
+          <t>0053020396363W</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9784,22 +9784,22 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2026-02-03T09:11:33+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:30+00:00</t>
+          <t>2026-02-09T07:38:41+00:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>05286000511869</t>
+          <t>0053020396363W</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -9811,7 +9811,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>05286000512967</t>
+          <t>0053021279250W</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9833,22 +9833,22 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:47+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T07:38:40+00:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>05286000512967</t>
+          <t>0053021279250W</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -9860,7 +9860,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>05286000514227</t>
+          <t>0053020396083W</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9882,22 +9882,22 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2026-02-04T10:20:57+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T07:38:39+00:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>05286000514227</t>
+          <t>0053020396083W</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -9909,7 +9909,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>05286000514539</t>
+          <t>03015160883455</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9931,22 +9931,18 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2026-02-04T10:21:03+01:00</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Oirschot, NL, Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-04T00:00:00</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:29+00:00</t>
+          <t>2026-02-09T01:38:35+00:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>05286000514539</t>
+          <t>03015160883455</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -9958,7 +9954,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>05286000514320</t>
+          <t>03015160869190</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9980,22 +9976,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2026-02-05T09:53:01+01:00</t>
+          <t>2026-02-06T09:24:27+01:00</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T01:38:35+00:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>05286000514320</t>
+          <t>03015160869190</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -10007,7 +10003,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>05286000514637</t>
+          <t>0053022954769W</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10029,22 +10025,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2026-02-04T10:21:04+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:27+00:00</t>
+          <t>2026-02-09T07:38:39+00:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>05286000514637</t>
+          <t>0053022954769W</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -10056,7 +10052,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>05286000514538</t>
+          <t>0053017106234W</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10078,22 +10074,22 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2026-02-04T10:21:02+01:00</t>
+          <t>2026-02-09T11:00:00+01:00</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Oirschot, NL, Netherlands</t>
+          <t>ROSANOW, PL, Poland</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-09T01:38:28+00:00</t>
+          <t>2026-02-09T08:08:57+00:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>05286000514538</t>
+          <t>0053017106234W</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:14+00:00</t>
+          <t>2026-02-09T13:41:13+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:13+00:00</t>
+          <t>2026-02-09T13:41:14+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "PM-OB"}</t>
         </is>
       </c>
     </row>
@@ -3608,113 +3608,57 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>JJD149990121180193812</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>dhlparcel-nl</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DHL Parcel NL</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>2026-02-09T01:39:10+00:00</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>JJD149990121180193812</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>JJD149990121180194455</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>dhlparcel-nl</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DHL Parcel NL</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>2026-02-09T01:39:09+00:00</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>JJD149990121180194455</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "JIM"}</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3728,22 +3672,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3755,17 +3695,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3779,18 +3719,22 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3802,7 +3746,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3826,7 +3770,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -3837,7 +3781,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3849,7 +3793,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3879,12 +3823,12 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3896,17 +3840,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3920,18 +3864,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3943,17 +3891,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3967,22 +3915,22 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3994,7 +3942,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4018,18 +3966,18 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4041,7 +3989,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4065,18 +4013,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4088,7 +4036,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4112,18 +4060,18 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4135,17 +4083,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4159,22 +4107,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4186,17 +4130,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4210,22 +4154,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4284,17 +4224,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4308,22 +4248,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4335,7 +4271,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4359,18 +4295,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4382,17 +4318,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4406,22 +4342,22 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-02T15:56:13+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Nagold, DE, Germany</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4433,7 +4369,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4463,12 +4399,12 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4480,7 +4416,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4504,12 +4440,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -4519,7 +4455,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4531,7 +4467,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4555,18 +4491,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4578,17 +4514,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4602,18 +4538,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4625,7 +4565,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4649,7 +4589,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -4660,7 +4600,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4672,17 +4612,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4696,22 +4636,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4723,17 +4663,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4747,18 +4687,22 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4770,7 +4714,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4794,18 +4738,18 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4817,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4841,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4864,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4894,12 +4838,12 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4911,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4935,18 +4879,18 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4958,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4982,18 +4926,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5005,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5035,12 +4979,12 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5052,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5076,18 +5020,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5099,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5129,12 +5073,12 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5146,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5181,7 +5125,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5193,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5223,12 +5167,12 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5240,7 +5184,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5264,18 +5208,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5334,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5358,18 +5302,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5381,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5405,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5428,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5452,18 +5396,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5475,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5499,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5522,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5546,7 +5490,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -5557,7 +5501,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5569,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5593,18 +5537,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5616,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5646,12 +5590,12 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5663,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5687,18 +5631,18 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5710,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5734,18 +5678,18 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5757,7 +5701,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5781,18 +5725,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5804,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5834,12 +5778,12 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5851,7 +5795,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5875,18 +5819,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5898,7 +5842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5922,18 +5866,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5945,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5975,12 +5919,12 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5992,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6016,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6039,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6063,18 +6007,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6086,17 +6030,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1Z6X581R9193913380</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6110,34 +6054,30 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-09T09:56:49+01:00</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T09:39:12+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1Z6X581R9193913380</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6161,18 +6101,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6184,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6208,18 +6148,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6231,7 +6171,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6261,12 +6201,12 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6278,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6308,12 +6248,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6325,17 +6265,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1Z6X581R9192931997</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6349,34 +6289,30 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-09T09:56:49+01:00</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>1 MARY KINGSLEYSTRAAT, VENLO, 5928SK, NL, Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-06T12:47:00+01:00</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T09:39:13+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1Z6X581R9192931997</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6400,18 +6336,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1054,7 +1054,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1081,7 +1081,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3672,18 +3672,22 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3695,17 +3699,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3719,22 +3723,18 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3746,7 +3746,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3770,7 +3770,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3793,17 +3793,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3817,18 +3817,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3840,17 +3844,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3864,22 +3868,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3891,17 +3895,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3915,22 +3919,18 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3942,7 +3942,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3966,18 +3966,18 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4013,18 +4013,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4036,17 +4036,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4060,18 +4060,22 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4083,17 +4087,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4107,18 +4111,22 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4130,7 +4138,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4154,18 +4162,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4177,7 +4185,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4201,7 +4209,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -4212,7 +4220,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4224,7 +4232,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4248,18 +4256,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4271,17 +4279,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4295,18 +4303,22 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4318,17 +4330,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4342,22 +4354,22 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4416,17 +4428,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4440,22 +4452,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4467,7 +4475,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4491,18 +4499,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4514,17 +4522,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4538,22 +4546,18 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4565,7 +4569,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4589,18 +4593,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4612,7 +4616,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4636,22 +4640,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-01-16T14:43:03+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Aschaffenburg, DE, Germany</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4663,17 +4667,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4687,22 +4691,18 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4744,12 +4744,12 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4785,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4832,18 +4832,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4885,12 +4885,12 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4932,12 +4932,12 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4973,18 +4973,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5020,18 +5020,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5073,12 +5073,12 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5114,18 +5114,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5167,12 +5167,12 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5208,18 +5208,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5231,7 +5231,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5255,18 +5255,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5302,18 +5302,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5349,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5396,18 +5396,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5443,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5496,12 +5496,12 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5543,12 +5543,12 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5584,18 +5584,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5637,12 +5637,12 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5678,18 +5678,18 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5725,18 +5725,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5778,12 +5778,12 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5819,18 +5819,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5866,18 +5866,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5913,18 +5913,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5960,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6007,18 +6007,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6054,18 +6054,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6077,7 +6077,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6101,18 +6101,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6148,18 +6148,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6195,18 +6195,18 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6242,18 +6242,18 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6295,12 +6295,12 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6342,12 +6342,12 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3672,22 +3672,22 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-02-02T15:56:13+01:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Nagold, DE, Germany</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3699,7 +3699,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3723,18 +3723,18 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3746,7 +3746,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3770,18 +3770,18 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3793,17 +3793,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3817,22 +3817,18 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3844,17 +3840,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3868,22 +3864,18 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3895,7 +3887,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3919,18 +3911,18 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3942,7 +3934,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3966,7 +3958,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -3977,7 +3969,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -3989,17 +3981,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4013,18 +4005,22 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4036,17 +4032,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4060,22 +4056,22 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4087,17 +4083,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4111,22 +4107,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4185,17 +4177,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4209,18 +4201,22 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4232,7 +4228,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4256,18 +4252,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4330,17 +4326,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4354,22 +4350,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4381,7 +4373,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4405,18 +4397,18 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4428,17 +4420,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,18 +4444,22 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4475,7 +4471,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4499,18 +4495,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4522,7 +4518,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4546,7 +4542,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -4557,7 +4553,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4569,17 +4565,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4593,18 +4589,22 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4616,17 +4616,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4640,22 +4640,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4667,7 +4667,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4697,12 +4697,12 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4738,7 +4738,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4785,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4838,12 +4838,12 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4885,12 +4885,12 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4926,18 +4926,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4979,12 +4979,12 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5020,18 +5020,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5067,7 +5067,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5114,18 +5114,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5167,12 +5167,12 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5231,7 +5231,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5261,12 +5261,12 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5302,18 +5302,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5349,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5402,12 +5402,12 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5443,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5490,18 +5490,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5537,18 +5537,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5584,18 +5584,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5631,18 +5631,18 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5678,18 +5678,18 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5725,18 +5725,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5772,18 +5772,18 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5819,18 +5819,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5913,18 +5913,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5960,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6013,12 +6013,12 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6077,7 +6077,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6101,18 +6101,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6148,18 +6148,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6201,12 +6201,12 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6242,18 +6242,18 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6289,18 +6289,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6336,18 +6336,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3672,22 +3672,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3699,17 +3695,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3723,18 +3719,22 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3770,18 +3770,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3793,7 +3797,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3823,12 +3827,12 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3840,17 +3844,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3864,18 +3868,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3887,7 +3895,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3911,7 +3919,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -3922,7 +3930,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3934,17 +3942,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3958,18 +3966,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -3981,17 +3993,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4005,22 +4017,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4083,7 +4091,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4107,18 +4115,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4130,7 +4138,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4154,18 +4162,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4177,17 +4185,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4201,22 +4209,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4228,17 +4232,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4252,18 +4256,22 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4275,17 +4283,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4299,22 +4307,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4373,7 +4377,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4397,18 +4401,18 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4420,17 +4424,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4444,22 +4448,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4471,7 +4471,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4495,18 +4495,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4518,17 +4518,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4542,18 +4542,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4565,17 +4569,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4589,22 +4593,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4616,17 +4616,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4640,22 +4640,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4667,7 +4667,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4691,7 +4691,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4738,18 +4738,18 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4785,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4832,18 +4832,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4879,18 +4879,18 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4926,18 +4926,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4973,18 +4973,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5026,12 +5026,12 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5073,12 +5073,12 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5114,18 +5114,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5161,18 +5161,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5208,18 +5208,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5231,7 +5231,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5255,18 +5255,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5302,18 +5302,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5349,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5402,12 +5402,12 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5443,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5537,18 +5537,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5584,18 +5584,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5637,12 +5637,12 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5678,7 +5678,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5725,18 +5725,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5772,18 +5772,18 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5819,18 +5819,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5866,18 +5866,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5913,18 +5913,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5960,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6007,18 +6007,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6060,12 +6060,12 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6077,7 +6077,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6107,12 +6107,12 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6148,18 +6148,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6201,12 +6201,12 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6242,18 +6242,18 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6289,18 +6289,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3672,18 +3672,22 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3695,17 +3699,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3719,22 +3723,18 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3770,22 +3770,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3797,17 +3797,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3821,18 +3821,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3844,17 +3848,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3868,22 +3872,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3895,7 +3899,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3919,18 +3923,18 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3942,17 +3946,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3966,22 +3970,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -3993,7 +3997,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4023,12 +4027,12 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4040,17 +4044,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4064,22 +4068,18 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4115,18 +4115,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4138,17 +4138,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4162,18 +4162,22 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4185,7 +4189,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4209,18 +4213,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4232,7 +4236,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4256,12 +4260,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -4271,7 +4275,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4283,7 +4287,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4307,18 +4311,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4330,7 +4334,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4354,18 +4358,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4377,7 +4381,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4407,12 +4411,12 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4424,7 +4428,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4448,18 +4452,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4471,7 +4475,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4495,18 +4499,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4518,17 +4522,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4542,22 +4546,18 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4593,18 +4593,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4616,17 +4616,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4640,22 +4640,18 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4667,7 +4663,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4691,18 +4687,18 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4714,17 +4710,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4738,18 +4734,22 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4785,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4832,18 +4832,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4879,18 +4879,18 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4926,18 +4926,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4973,18 +4973,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5020,18 +5020,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5067,18 +5067,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5114,18 +5114,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5161,18 +5161,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5208,18 +5208,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5231,7 +5231,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5255,18 +5255,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5302,18 +5302,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5349,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5396,18 +5396,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5443,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5490,18 +5490,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5543,12 +5543,12 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5584,18 +5584,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5678,7 +5678,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5772,18 +5772,18 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5819,18 +5819,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5866,18 +5866,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5913,18 +5913,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5960,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6013,12 +6013,12 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6060,12 +6060,12 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6148,18 +6148,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6195,18 +6195,18 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6248,12 +6248,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1054,7 +1054,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1081,7 +1081,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1646,7 +1646,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3672,22 +3672,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3699,7 +3695,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3723,18 +3719,18 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3746,17 +3742,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3770,22 +3766,18 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3797,17 +3789,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3821,22 +3813,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3848,17 +3840,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3872,22 +3864,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -3899,17 +3891,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3923,18 +3915,22 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3946,17 +3942,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3970,22 +3966,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-01-16T14:43:03+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Aschaffenburg, DE, Germany</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -3997,7 +3993,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4021,18 +4017,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4044,17 +4040,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4068,18 +4064,22 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4115,7 +4115,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4138,17 +4138,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4162,22 +4162,22 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4213,18 +4213,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4236,17 +4236,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4260,22 +4260,22 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4287,7 +4287,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4311,18 +4311,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4334,7 +4334,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4358,18 +4358,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4381,7 +4381,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4405,18 +4405,18 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4452,7 +4452,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4475,7 +4475,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4499,18 +4499,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4522,7 +4522,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4546,18 +4546,18 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4593,18 +4593,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4616,7 +4616,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4640,7 +4640,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4663,7 +4663,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4687,18 +4687,18 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4710,7 +4710,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4734,22 +4734,22 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-02-02T15:56:13+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Nagold, DE, Germany</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +4761,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4785,18 +4785,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4832,18 +4832,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4879,18 +4879,18 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4926,18 +4926,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4979,12 +4979,12 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5020,18 +5020,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5067,18 +5067,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5114,7 +5114,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5161,18 +5161,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5208,18 +5208,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5231,7 +5231,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5255,18 +5255,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5308,12 +5308,12 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +5325,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5349,18 +5349,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5396,18 +5396,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +5419,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5443,18 +5443,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5490,18 +5490,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5537,18 +5537,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5584,18 +5584,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5631,7 +5631,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +5654,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5684,12 +5684,12 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5725,18 +5725,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5778,12 +5778,12 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5866,18 +5866,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5913,18 +5913,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5960,18 +5960,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6007,18 +6007,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6054,18 +6054,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6154,12 +6154,12 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6242,18 +6242,18 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6289,18 +6289,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6336,18 +6336,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -519,7 +519,11 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
@@ -533,12 +537,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -550,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,7 +582,11 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
@@ -592,12 +600,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -637,7 +645,11 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
@@ -696,7 +708,11 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
@@ -755,7 +771,11 @@
           <t>4263</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -814,7 +834,11 @@
           <t>4263</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
@@ -873,7 +897,11 @@
           <t>0302</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
@@ -932,7 +960,11 @@
           <t>4452</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
@@ -991,7 +1023,11 @@
           <t>4452</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
@@ -1050,7 +1086,11 @@
           <t>4561</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
@@ -1109,7 +1149,11 @@
           <t>4561</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
@@ -1144,7 +1188,11 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1163,7 +1211,11 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1182,7 +1234,11 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1201,7 +1257,11 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1220,7 +1280,11 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1239,7 +1303,11 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1258,7 +1326,11 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1277,7 +1349,11 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1296,7 +1372,11 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1315,7 +1395,11 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1334,7 +1418,11 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1353,7 +1441,11 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1372,7 +1464,11 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1391,7 +1487,11 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1410,7 +1510,11 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1429,7 +1533,11 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1448,7 +1556,11 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1467,7 +1579,11 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1486,7 +1602,11 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1505,7 +1625,11 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1524,7 +1648,11 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1543,7 +1671,11 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1562,7 +1694,11 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1581,7 +1717,11 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1600,7 +1740,11 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1619,7 +1763,11 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1638,7 +1786,11 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1646,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1809,11 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1676,7 +1832,11 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1684,7 +1844,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1855,11 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1703,7 +1867,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1878,11 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1722,7 +1890,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1901,11 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1752,7 +1924,11 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1760,7 +1936,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1947,11 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1779,7 +1959,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1970,11 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1809,7 +1993,11 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -1828,7 +2016,11 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -1847,7 +2039,11 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -1866,7 +2062,11 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -1885,7 +2085,11 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -1904,7 +2108,11 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -1923,7 +2131,11 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -1942,7 +2154,11 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -1961,7 +2177,11 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -1980,7 +2200,11 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -1999,7 +2223,11 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2018,7 +2246,11 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2037,7 +2269,11 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2056,7 +2292,11 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2075,7 +2315,11 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2094,7 +2338,11 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2113,7 +2361,11 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2132,7 +2384,11 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2151,7 +2407,11 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2170,7 +2430,11 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2189,7 +2453,11 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2208,7 +2476,11 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2227,7 +2499,11 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2246,7 +2522,11 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2265,7 +2545,11 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2284,7 +2568,11 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2303,7 +2591,11 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2322,7 +2614,11 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2341,7 +2637,11 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2360,7 +2660,11 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2379,7 +2683,11 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2398,7 +2706,11 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -2417,7 +2729,11 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -2436,7 +2752,11 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -2455,7 +2775,11 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -2474,7 +2798,11 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -2493,7 +2821,11 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -2512,7 +2844,11 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -2531,7 +2867,11 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -2550,7 +2890,11 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -2569,7 +2913,11 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -2588,7 +2936,11 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -2607,7 +2959,11 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -2626,7 +2982,11 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -2645,7 +3005,11 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -2664,7 +3028,11 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -2683,7 +3051,11 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -2702,7 +3074,11 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -2721,7 +3097,11 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -2740,7 +3120,11 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -2759,7 +3143,11 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -2778,7 +3166,11 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -2797,7 +3189,11 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -2816,7 +3212,11 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -2835,7 +3235,11 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -2854,7 +3258,11 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -2873,7 +3281,11 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -2892,7 +3304,11 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -2911,7 +3327,11 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -2930,7 +3350,11 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -2949,7 +3373,11 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -2968,7 +3396,11 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -2987,7 +3419,11 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -3006,7 +3442,11 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -3025,7 +3465,11 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -3044,7 +3488,11 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -3063,7 +3511,11 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -3082,7 +3534,11 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -3101,7 +3557,11 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -3120,7 +3580,11 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -3139,7 +3603,11 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -3158,7 +3626,11 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -3177,7 +3649,11 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -3196,7 +3672,11 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -3215,7 +3695,11 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -3234,7 +3718,11 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -3253,7 +3741,11 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -3272,7 +3764,11 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -3291,7 +3787,11 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -3310,7 +3810,11 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -3329,7 +3833,11 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -3348,7 +3856,11 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -3367,7 +3879,11 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -3386,7 +3902,11 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -3405,7 +3925,11 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -3424,7 +3948,11 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -3443,7 +3971,11 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -3462,7 +3994,11 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -3481,7 +4017,11 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -3500,7 +4040,11 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -3519,7 +4063,11 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -3538,7 +4086,11 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -3557,7 +4109,11 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -3576,7 +4132,11 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -3595,7 +4155,11 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -3614,7 +4178,11 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -3633,7 +4201,11 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -3648,7 +4220,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3668,7 +4240,11 @@
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
@@ -3678,12 +4254,12 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -3695,7 +4271,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3715,7 +4291,11 @@
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
@@ -3725,12 +4305,12 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -3742,17 +4322,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3762,22 +4342,30 @@
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -3789,17 +4377,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3809,26 +4397,30 @@
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -3860,7 +4452,11 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
@@ -3891,17 +4487,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3911,26 +4507,30 @@
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -3962,7 +4562,11 @@
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
@@ -3993,17 +4597,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4013,22 +4617,30 @@
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4040,17 +4652,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4060,26 +4672,26 @@
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4091,7 +4703,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4111,22 +4723,26 @@
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4138,17 +4754,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4158,26 +4774,26 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4189,7 +4805,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4209,22 +4825,26 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4236,17 +4856,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4256,26 +4876,26 @@
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4307,7 +4927,11 @@
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
@@ -4334,17 +4958,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4354,22 +4978,30 @@
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4381,7 +5013,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4401,7 +5033,11 @@
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
@@ -4411,12 +5047,12 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -4428,7 +5064,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4448,7 +5084,11 @@
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
@@ -4458,12 +5098,12 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -4475,7 +5115,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4495,7 +5135,11 @@
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
@@ -4505,12 +5149,12 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -4522,7 +5166,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4542,22 +5186,26 @@
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -4569,7 +5217,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4589,11 +5237,15 @@
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -4604,7 +5256,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -4616,17 +5268,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4636,22 +5288,30 @@
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -4663,7 +5323,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4683,22 +5343,26 @@
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -4710,17 +5374,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4730,26 +5394,26 @@
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -4761,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4781,7 +5445,11 @@
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
@@ -4791,12 +5459,12 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -4808,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4828,22 +5496,26 @@
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -4855,7 +5527,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4875,22 +5547,26 @@
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -4902,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4922,22 +5598,26 @@
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -4949,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4969,22 +5649,26 @@
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -4996,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5016,22 +5700,26 @@
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5043,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5063,22 +5751,26 @@
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5090,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5110,22 +5802,26 @@
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5137,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5157,22 +5853,26 @@
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5184,7 +5884,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5204,22 +5904,26 @@
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5231,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5251,22 +5955,26 @@
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5278,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5298,7 +6006,11 @@
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
@@ -5308,12 +6020,12 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -5325,7 +6037,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5345,7 +6057,11 @@
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
@@ -5355,12 +6071,12 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -5372,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5392,22 +6108,26 @@
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -5419,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5439,22 +6159,26 @@
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -5466,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5486,22 +6210,26 @@
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -5513,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5533,22 +6261,26 @@
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -5560,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5580,22 +6312,26 @@
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -5607,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5627,7 +6363,11 @@
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
@@ -5642,7 +6382,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -5654,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5674,22 +6414,26 @@
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -5701,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5721,7 +6465,11 @@
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
@@ -5731,12 +6479,12 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -5748,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5768,22 +6516,26 @@
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -5795,7 +6547,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5815,7 +6567,11 @@
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
@@ -5825,12 +6581,12 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -5842,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5862,22 +6618,26 @@
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -5889,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5909,22 +6669,26 @@
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -5936,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5956,22 +6720,26 @@
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -5983,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6003,22 +6771,26 @@
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6030,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6050,22 +6822,26 @@
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6077,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6097,7 +6873,11 @@
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
@@ -6107,12 +6887,12 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6124,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6144,22 +6924,26 @@
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6171,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6191,22 +6975,26 @@
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -6218,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6238,22 +7026,26 @@
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -6285,7 +7077,11 @@
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
@@ -6312,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6332,22 +7128,26 @@
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>csv_importer</t>
+        </is>
+      </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -1798,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4248,18 +4248,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4271,7 +4271,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4305,12 +4305,12 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4322,17 +4322,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4350,22 +4350,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4377,17 +4377,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4405,22 +4405,18 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -4432,17 +4428,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4460,22 +4456,18 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -4487,17 +4479,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4515,22 +4507,18 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4542,17 +4530,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4570,22 +4558,18 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4597,17 +4581,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4625,22 +4609,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4703,7 +4683,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4731,18 +4711,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4754,7 +4734,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4782,18 +4762,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4805,7 +4785,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4833,18 +4813,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4856,17 +4836,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4884,18 +4864,22 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4907,17 +4891,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4935,18 +4919,22 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4958,17 +4946,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4986,22 +4974,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5013,17 +4997,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5041,18 +5025,22 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5064,17 +5052,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5092,18 +5080,22 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5115,7 +5107,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5143,18 +5135,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5166,17 +5158,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5194,18 +5186,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5217,7 +5213,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5245,18 +5241,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5268,17 +5264,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5296,22 +5292,18 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5323,17 +5315,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5351,10 +5343,14 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>2026-02-09T01:39:11+00:00</t>
@@ -5362,7 +5358,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5374,17 +5370,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5402,18 +5398,22 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5453,18 +5453,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5504,18 +5504,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5606,18 +5606,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5657,18 +5657,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5708,18 +5708,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5759,18 +5759,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5816,12 +5816,12 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5861,18 +5861,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5912,18 +5912,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5963,7 +5963,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6014,18 +6014,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6122,12 +6122,12 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6139,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6173,12 +6173,12 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6218,18 +6218,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6275,12 +6275,12 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6320,18 +6320,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,7 +6371,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6422,18 +6422,18 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6445,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6473,18 +6473,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6524,18 +6524,18 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6547,7 +6547,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6575,18 +6575,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6626,18 +6626,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6649,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6677,18 +6677,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6734,12 +6734,12 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6779,18 +6779,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6836,12 +6836,12 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6881,18 +6881,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6932,18 +6932,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6955,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6983,18 +6983,18 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7040,12 +7040,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -7057,7 +7057,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7085,18 +7085,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7136,18 +7136,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -1798,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4248,18 +4248,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4271,7 +4271,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4299,7 +4299,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4322,17 +4322,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4350,22 +4350,18 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4377,17 +4373,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4405,18 +4401,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -4479,7 +4479,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4507,18 +4507,18 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4530,17 +4530,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4558,18 +4558,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4581,7 +4585,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4609,18 +4613,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4632,7 +4636,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4660,18 +4664,18 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4683,7 +4687,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4717,12 +4721,12 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4734,7 +4738,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4762,18 +4766,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4785,7 +4789,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4813,18 +4817,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4836,17 +4840,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4864,22 +4868,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4919,22 +4919,22 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4946,7 +4946,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4974,18 +4974,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4997,17 +4997,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5025,22 +5025,22 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5052,17 +5052,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5080,22 +5080,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5107,7 +5103,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5135,18 +5131,18 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5158,17 +5154,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5186,22 +5182,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5213,17 +5209,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5241,18 +5237,22 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5264,17 +5264,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5292,18 +5292,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5315,7 +5319,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5343,12 +5347,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-02-02T15:56:13+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Nagold, DE, Germany</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -5358,7 +5362,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5370,17 +5374,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5398,22 +5402,18 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5453,18 +5453,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5504,18 +5504,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5527,7 +5527,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5555,18 +5555,18 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5606,18 +5606,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5657,18 +5657,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5708,18 +5708,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5765,12 +5765,12 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5810,18 +5810,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5861,18 +5861,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5912,18 +5912,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5969,12 +5969,12 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6014,18 +6014,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6037,7 +6037,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6071,12 +6071,12 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6122,12 +6122,12 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6139,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6167,18 +6167,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6218,18 +6218,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6269,18 +6269,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6326,12 +6326,12 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,18 +6371,18 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6422,7 +6422,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6445,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6473,18 +6473,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6530,12 +6530,12 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6547,7 +6547,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6575,18 +6575,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6626,18 +6626,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6649,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6677,18 +6677,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6728,18 +6728,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6785,12 +6785,12 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6830,18 +6830,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6881,18 +6881,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6932,18 +6932,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6955,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6989,12 +6989,12 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7040,12 +7040,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -7057,7 +7057,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7091,12 +7091,12 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7136,18 +7136,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:13+00:00</t>
+          <t>2026-02-09T13:41:14+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:14+00:00</t>
+          <t>2026-02-09T13:41:13+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1798,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4248,7 +4248,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4271,7 +4271,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4299,7 +4299,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4322,17 +4322,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4350,18 +4350,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4373,7 +4377,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4401,12 +4405,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -4416,7 +4420,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -4428,7 +4432,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4456,18 +4460,18 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -4479,17 +4483,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4507,18 +4511,22 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4530,17 +4538,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4558,22 +4566,18 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4585,7 +4589,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4613,18 +4617,18 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4636,7 +4640,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4664,18 +4668,18 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4738,17 +4742,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4766,18 +4770,22 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4789,17 +4797,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4817,18 +4825,22 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4840,17 +4852,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4868,18 +4880,22 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4891,17 +4907,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4919,22 +4935,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4946,7 +4958,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4974,18 +4986,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -4997,17 +5009,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5025,22 +5037,18 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5052,7 +5060,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5080,7 +5088,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5091,7 +5099,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5103,7 +5111,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5131,7 +5139,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5142,7 +5150,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5154,17 +5162,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5182,22 +5190,18 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5209,17 +5213,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5237,22 +5241,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5264,17 +5264,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5292,22 +5292,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5402,18 +5402,18 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5453,18 +5453,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5504,7 +5504,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5527,7 +5527,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5561,12 +5561,12 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5606,18 +5606,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5657,18 +5657,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5708,18 +5708,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5759,18 +5759,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5810,18 +5810,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5861,18 +5861,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5918,12 +5918,12 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5963,18 +5963,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6014,18 +6014,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6037,7 +6037,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6065,18 +6065,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6116,18 +6116,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6139,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6167,18 +6167,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6218,18 +6218,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6275,12 +6275,12 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6326,12 +6326,12 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,18 +6371,18 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6422,7 +6422,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6445,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6473,18 +6473,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6530,12 +6530,12 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6547,7 +6547,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6575,18 +6575,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6626,18 +6626,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6649,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6728,18 +6728,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6785,12 +6785,12 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6830,18 +6830,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6881,18 +6881,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6932,18 +6932,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6955,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6989,12 +6989,12 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7034,18 +7034,18 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -7057,7 +7057,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7085,18 +7085,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7136,18 +7136,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:14+00:00</t>
+          <t>2026-02-09T13:41:13+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:13+00:00</t>
+          <t>2026-02-09T13:41:14+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1798,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -4220,17 +4220,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4248,18 +4248,22 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4271,7 +4275,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4305,12 +4309,12 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4322,17 +4326,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4350,22 +4354,18 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4460,18 +4460,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -4483,17 +4487,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4521,12 +4525,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4538,17 +4542,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4566,18 +4570,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4589,17 +4597,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4617,18 +4625,22 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4640,7 +4652,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4668,18 +4680,18 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4691,7 +4703,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4719,18 +4731,18 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -4742,17 +4754,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4770,22 +4782,18 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4797,17 +4805,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4825,22 +4833,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4852,17 +4856,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4880,22 +4884,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4907,7 +4907,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4935,18 +4935,18 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4986,18 +4986,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5009,17 +5009,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5037,18 +5037,22 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5060,7 +5064,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5088,18 +5092,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5162,7 +5166,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5190,18 +5194,18 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5213,7 +5217,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5247,12 +5251,12 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5264,17 +5268,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5292,22 +5296,18 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-02T14:31:00+01:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5319,17 +5319,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5347,22 +5347,18 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5374,17 +5370,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5402,18 +5398,22 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5453,18 +5453,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5504,18 +5504,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5527,7 +5527,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5561,12 +5561,12 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5606,18 +5606,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5657,18 +5657,18 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5708,18 +5708,18 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5759,18 +5759,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5810,18 +5810,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5861,18 +5861,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5963,18 +5963,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6014,7 +6014,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6037,7 +6037,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6065,18 +6065,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6116,18 +6116,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6139,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6167,18 +6167,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6218,18 +6218,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6269,18 +6269,18 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6326,12 +6326,12 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,18 +6371,18 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6422,18 +6422,18 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6445,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6479,12 +6479,12 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6524,18 +6524,18 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6626,18 +6626,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6649,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6677,18 +6677,18 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6728,18 +6728,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6779,18 +6779,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6830,18 +6830,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6881,18 +6881,18 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6932,18 +6932,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6955,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6983,18 +6983,18 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7040,12 +7040,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -7057,7 +7057,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7085,18 +7085,18 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7136,18 +7136,18 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -743,7 +743,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:13+00:00</t>
+          <t>2026-02-09T13:41:14+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:14+00:00</t>
+          <t>2026-02-09T13:41:13+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1798,7 +1798,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-RES"}</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-CLE"}</t>
+          <t>{"custom_1": "ParcelHub", "custom_2": "TRL-MER"}</t>
         </is>
       </c>
     </row>
@@ -4220,17 +4220,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4248,22 +4248,18 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -4275,7 +4271,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4303,18 +4299,18 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -4326,17 +4322,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4354,18 +4350,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>2026-02-09T08:20:00+01:00</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Oirschot (NL), Netherlands</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -4377,17 +4377,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4405,22 +4405,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4460,22 +4460,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
+          <t>2026-01-16T14:43:03+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Aschaffenburg, DE, Germany</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -4487,17 +4487,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4515,22 +4515,22 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-01-28T08:53:02+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Wuppertal, DE, Germany</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -4542,17 +4542,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4570,22 +4570,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -4597,17 +4597,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -4652,17 +4652,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4680,18 +4680,22 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -4754,7 +4758,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4782,7 +4786,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -4793,7 +4797,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -4805,7 +4809,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4833,18 +4837,18 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -4856,7 +4860,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4884,18 +4888,18 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -4907,7 +4911,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4946,7 +4950,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -4958,7 +4962,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4986,18 +4990,18 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5009,17 +5013,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5037,22 +5041,18 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-01-30T16:38:00+01:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5064,7 +5064,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5092,18 +5092,18 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5115,7 +5115,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5149,12 +5149,12 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5166,17 +5166,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5194,18 +5194,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5217,7 +5221,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5245,18 +5249,18 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5268,7 +5272,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5296,18 +5300,18 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5319,7 +5323,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5347,7 +5351,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5370,17 +5374,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5398,22 +5402,18 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5453,18 +5453,18 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5504,18 +5504,18 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -5527,7 +5527,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5561,12 +5561,12 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5606,18 +5606,18 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5759,18 +5759,18 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5810,18 +5810,18 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5861,18 +5861,18 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5912,18 +5912,18 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5963,18 +5963,18 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6014,18 +6014,18 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6037,7 +6037,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6065,18 +6065,18 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6116,18 +6116,18 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6139,7 +6139,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6167,18 +6167,18 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6218,18 +6218,18 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6275,12 +6275,12 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6320,18 +6320,18 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,7 +6371,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6428,12 +6428,12 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -6445,7 +6445,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6473,18 +6473,18 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -6547,7 +6547,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6575,18 +6575,18 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6626,18 +6626,18 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6649,7 +6649,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6683,12 +6683,12 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6728,18 +6728,18 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6779,18 +6779,18 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6830,18 +6830,18 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:07+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180199132</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6887,12 +6887,12 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180199217</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6932,18 +6932,18 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -6955,7 +6955,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6983,18 +6983,18 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199072</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -7040,12 +7040,12 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>JJD149990121180199132</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -7057,7 +7057,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7091,12 +7091,12 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7142,12 +7142,12 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:41+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSH</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T14:54:41+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>ZD1QZSSH</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1184,17 +1184,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6001554616</t>
+          <t>6001598642</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1216,22 +1216,22 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Nagold, DE, Germany</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6001550820</t>
+          <t>6001571651</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1275,18 +1275,18 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1298,7 +1298,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6001567252</t>
+          <t>6001568409</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1330,18 +1330,18 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6001571651</t>
+          <t>6001567181</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1385,18 +1385,18 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6001593264</t>
+          <t>6001567069</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1446,12 +1446,12 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1463,17 +1463,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6001598642</t>
+          <t>6001567083</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1495,22 +1495,18 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Oirschot (NL), Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1522,7 +1518,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1542,7 +1538,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6001574479</t>
+          <t>6001579516</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1554,18 +1550,18 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1577,7 +1573,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1597,7 +1593,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6001567181</t>
+          <t>6001550820</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1609,18 +1605,18 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1632,17 +1628,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6001567083</t>
+          <t>6001594899</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1664,18 +1660,22 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1687,17 +1687,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6001596148</t>
+          <t>6001593264</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1719,22 +1719,18 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:19+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1805,17 +1801,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1825,7 +1821,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6001488933</t>
+          <t>6001574479</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1837,22 +1833,18 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Aschaffenburg, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1864,17 +1856,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1884,7 +1876,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6001568409</t>
+          <t>6001554616</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1896,18 +1888,22 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1919,17 +1915,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1939,7 +1935,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6001568364</t>
+          <t>6001554566</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1951,18 +1947,22 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2029,7 +2029,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6001571627</t>
+          <t>6001567252</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2067,12 +2067,12 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2084,17 +2084,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6001554566</t>
+          <t>6001594900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2116,22 +2116,22 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
+          <t>2026-02-05T12:00:00+01:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Wuppertal, DE, Germany</t>
+          <t>MILANO SEDRIANO (050)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6001567069</t>
+          <t>6001551014</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2175,18 +2175,18 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6001579516</t>
+          <t>6001571627</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2230,18 +2230,18 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2253,17 +2253,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6001594900</t>
+          <t>6001568364</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2285,22 +2285,18 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2367,17 +2363,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2387,7 +2383,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6001594899</t>
+          <t>6001596148</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2399,22 +2395,22 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
+          <t>2026-01-22T14:45:00+01:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>MILANO SEDRIANO (050)</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2426,17 +2422,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2446,7 +2442,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6001551014</t>
+          <t>6001488933</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2458,18 +2454,22 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6001574822</t>
+          <t>6001571562</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2513,18 +2513,18 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6001584209</t>
+          <t>6001571534</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2568,18 +2568,18 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6001571391</t>
+          <t>6001584209</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2629,12 +2629,12 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2646,7 +2646,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6001571520</t>
+          <t>6001574463</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2678,18 +2678,18 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:20+00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2701,7 +2701,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6001579646</t>
+          <t>6001571360</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2739,12 +2739,12 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2756,7 +2756,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6001571360</t>
+          <t>6001571520</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2788,18 +2788,18 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -2811,7 +2811,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6001571402</t>
+          <t>6001575592</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6001578985</t>
+          <t>6001575277</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2904,12 +2904,12 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6001574446</t>
+          <t>6001571372</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2953,7 +2953,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6001575277</t>
+          <t>6001575197</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3008,18 +3008,18 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3031,7 +3031,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6001571372</t>
+          <t>6001571391</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3063,18 +3063,18 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3086,7 +3086,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6001579325</t>
+          <t>6001575554</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3118,18 +3118,18 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3141,7 +3141,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6001575554</t>
+          <t>6001578985</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3173,18 +3173,18 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6001575592</t>
+          <t>6001579325</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3228,18 +3228,18 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3251,7 +3251,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6001574876</t>
+          <t>6001579162</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3283,18 +3283,18 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T16:09:32+00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3306,7 +3306,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6001571534</t>
+          <t>6001579646</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3338,18 +3338,18 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3361,7 +3361,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6001579191</t>
+          <t>6001571583</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3393,18 +3393,18 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3416,7 +3416,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6001579656</t>
+          <t>6001579104</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3448,18 +3448,18 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3471,7 +3471,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6001571562</t>
+          <t>6001574446</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3503,7 +3503,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3526,7 +3526,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6001574463</t>
+          <t>6001579656</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3558,18 +3558,18 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3581,7 +3581,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6001571583</t>
+          <t>6001574876</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3613,18 +3613,18 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6001575079</t>
+          <t>6001574389</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3668,18 +3668,18 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T16:09:21+00:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3691,7 +3691,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6001579162</t>
+          <t>6001579191</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3729,12 +3729,12 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T16:09:18+00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -3746,7 +3746,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6001574389</t>
+          <t>6001571402</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3778,18 +3778,18 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3801,7 +3801,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6001575197</t>
+          <t>6001575079</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3833,18 +3833,18 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6001579104</t>
+          <t>6001574822</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,18 +3888,18 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3911,7 +3911,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6001578779</t>
+          <t>6001579221</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3943,18 +3943,18 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6001578664</t>
+          <t>6001579479</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:17+00:00</t>
+          <t>2026-02-09T16:09:15+00:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>JJD149990121180198167</t>
+          <t>JJD149990121180198565</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6001579221</t>
+          <t>6001578779</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4108,18 +4108,18 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180198097</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4131,7 +4131,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6001579479</t>
+          <t>6001583679</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4169,12 +4169,12 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T16:09:31+00:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180199090</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4241,7 +4241,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6001583679</t>
+          <t>6001578664</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4279,12 +4279,12 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T16:09:17+00:00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180198167</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>888549259252</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O26-702120017306</t>
+          <t>115158340-1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4632</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,34 +527,34 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-09T10:02:44+01:00</t>
+          <t>2026-02-09T10:24:19-06:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Eschbach, DE, Germany</t>
+          <t>Cleveland, TX, 77328, US, United States</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-09T14:54:42+00:00</t>
+          <t>2026-02-09T20:39:32+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ZD1QZSSG</t>
+          <t>888549259252</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"external_order_id": "O26-702120017306", "sales_office_id": "4632"}</t>
+          <t>{"external_order_id": "115158340-1", "sales_office_id": "4175"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ZD1QZSPQ</t>
+          <t>ZD1QZSSG</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZD1QZSPR</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ZD1QZSPR</t>
+          <t>ZD1QZSPQ</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZSPR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>305-4609959-0805113</t>
+          <t>O26-702120017306</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -779,34 +779,34 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-09T10:53:01+01:00</t>
+          <t>2026-02-09T10:02:44+01:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Neuss, DE, Germany</t>
+          <t>Eschbach, DE, Germany</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:13+00:00</t>
+          <t>2026-02-09T14:54:42+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZD1QZT98</t>
+          <t>ZD1QZSPR</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"external_order_id": "305-4609959-0805113", "sales_office_id": "4263"}</t>
+          <t>{"external_order_id": "O26-702120017306", "sales_office_id": "4632"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-09T13:41:14+00:00</t>
+          <t>2026-02-09T13:41:13+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZD1QZT0Q</t>
+          <t>ZD1QZT98</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00KK1CVO</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0033005675301</t>
+          <t>305-4609959-0805113</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,34 +905,34 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-06T10:47:21+01:00</t>
+          <t>2026-02-09T10:53:01+01:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Vitrolles, FR, France</t>
+          <t>Neuss, DE, Germany</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2026-02-09T10:09:47+00:00</t>
+          <t>2026-02-09T13:41:14+00:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00KK1CVO</t>
+          <t>ZD1QZT0Q</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005675301", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "305-4609959-0805113", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00KK1CVR</t>
+          <t>00KK1CVO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B2BDS9965308</t>
+          <t>0033005675301</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -968,34 +968,34 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-06T07:57:32+01:00</t>
+          <t>2026-02-06T10:47:21+01:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CARVIN, FR, France</t>
+          <t>Vitrolles, FR, France</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:51+00:00</t>
+          <t>2026-02-09T10:09:47+00:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00KK1CVR</t>
+          <t>00KK1CVO</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS9965308", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005675301", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00KKN9CL</t>
+          <t>00KK1CVR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1031,7 +1031,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-09T07:39:38+01:00</t>
+          <t>2026-02-06T07:57:32+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:52+00:00</t>
+          <t>2026-02-09T09:58:51+00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00KKN9CL</t>
+          <t>00KK1CVR</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1058,7 +1058,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9CL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>406-4673666-1722714</t>
+          <t>B2BDS9965308</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1094,34 +1094,34 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-06T13:14:34+01:00</t>
+          <t>2026-02-09T07:39:38+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Rixheim, FR, France</t>
+          <t>CARVIN, FR, France</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-09T09:58:42+00:00</t>
+          <t>2026-02-09T09:58:52+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KK1CUG</t>
+          <t>00KKN9CL</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "406-4673666-1722714", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS9965308", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:55:31+01:00</t>
+          <t>2026-02-06T13:14:34+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-09T13:58:47+00:00</t>
+          <t>2026-02-09T09:58:42+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KKN9P6</t>
+          <t>00KK1CUG</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1184,17 +1184,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,56 +1204,60 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6001598642</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>406-4673666-1722714</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4561</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-09T08:20:00+01:00</t>
+          <t>2026-02-09T13:55:31+01:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Oirschot (NL), Netherlands</t>
+          <t>Rixheim, FR, France</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:20+00:00</t>
+          <t>2026-02-09T13:58:47+00:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>01606828664171</t>
+          <t>00KKN9P6</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "406-4673666-1722714", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>3366515578878</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>directfreight-au-ref</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Direct Freight Express</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1263,52 +1267,60 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6001571651</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>358067140</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>2026-02-10T08:11:00+11:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Geelong, Australia</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T21:14:08+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>JJD149990121180194480</t>
+          <t>3366515578878</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "358067140", "sales_office_id": "4131"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>3366515578911</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>directfreight-au-ref</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Direct Freight Express</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1318,52 +1330,60 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6001568409</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>358072352</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>2026-02-10T08:23:00+11:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Albury, Australia</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T21:26:09+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>JJD149990121180193245</t>
+          <t>3366515578911</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "358072352", "sales_office_id": "4131"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>3366515578872</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>directfreight-au-ref</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Direct Freight Express</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1373,52 +1393,60 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6001567181</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>0061004384092</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>2026-02-10T08:19:00+11:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Albury, Australia</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T21:26:09+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>JJD149990121180193693</t>
+          <t>3366515578872</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "0061004384092", "sales_office_id": "3016"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>3366515578904</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>directfreight-au-ref</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Direct Freight Express</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1428,42 +1456,50 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6001567069</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>G7WR3E4Q</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>2026-02-10T08:40:00+11:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Bendigo, Australia</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T21:50:08+00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>JJD149990121180193851</t>
+          <t>3366515578904</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"external_order_id": "G7WR3E4Q", "sales_office_id": "4285"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1483,7 +1519,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6001567083</t>
+          <t>6001567252</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1495,18 +1531,18 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>JJD149990121180193821</t>
+          <t>JJD149990121180193486</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1518,7 +1554,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1538,7 +1574,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6001579516</t>
+          <t>6001562748</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1550,18 +1586,18 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>JJD149990121180194455</t>
+          <t>JJD149990121180192273</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1573,7 +1609,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1593,7 +1629,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6001550820</t>
+          <t>6001574479</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1605,18 +1641,18 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-30T16:38:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>JJD149990121180189785</t>
+          <t>JJD149990121180194493</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1628,17 +1664,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>brt-it-parcelid</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BRT Bartolini(Parcel ID)</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1648,7 +1684,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6001594899</t>
+          <t>6001568364</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1660,22 +1696,18 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-09T02:39:20+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>166050916804958</t>
+          <t>JJD149990121180194277</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1687,7 +1719,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1707,7 +1739,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6001593264</t>
+          <t>6001568409</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1719,18 +1751,18 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-02T14:31:00+01:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:19+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>JJD149990121180200629</t>
+          <t>JJD149990121180193245</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1742,17 +1774,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1762,7 +1794,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6001571335</t>
+          <t>6001598642</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1784,12 +1816,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-09T14:39:14+00:00</t>
+          <t>2026-02-09T13:39:20+00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>09447272788603</t>
+          <t>01606828664171</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1801,17 +1833,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1821,7 +1853,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6001574479</t>
+          <t>6001596148</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1833,10 +1865,14 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>2026-01-22T14:45:00+01:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>2026-02-09T01:39:08+00:00</t>
@@ -1844,7 +1880,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>JJD149990121180194493</t>
+          <t>CY425450001DE</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1856,17 +1892,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1876,7 +1912,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6001554616</t>
+          <t>6001579516</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1888,22 +1924,18 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-02T15:56:13+01:00</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Nagold, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-05T11:49:00+01:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>09447272761687</t>
+          <t>JJD149990121180194455</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1915,17 +1947,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dpd</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1935,7 +1967,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6001554566</t>
+          <t>6001551014</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1947,22 +1979,18 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-28T08:53:02+01:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Wuppertal, DE, Germany</t>
-        </is>
-      </c>
+          <t>2026-02-03T14:59:00+01:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>09447272763065</t>
+          <t>JJD149990121180189756</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1974,17 +2002,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1994,7 +2022,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6001567095</t>
+          <t>6001488933</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2006,18 +2034,22 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>2026-01-16T14:43:03+01:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Aschaffenburg, DE, Germany</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>JJD149990121180193812</t>
+          <t>09447272602648</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2029,7 +2061,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2049,7 +2081,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6001567252</t>
+          <t>6001567083</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2061,18 +2093,18 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T20:09:39+00:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>JJD149990121180193486</t>
+          <t>JJD149990121180193821</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2084,17 +2116,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>brt-it</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BRT Bartolini</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2104,7 +2136,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6001594900</t>
+          <t>6001593264</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2116,22 +2148,18 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-05T12:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>MILANO SEDRIANO (050)</t>
-        </is>
-      </c>
+          <t>2026-02-09T16:55:00+01:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-09T04:39:10+00:00</t>
+          <t>2026-02-09T20:09:20+00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>08458093138698</t>
+          <t>JJD149990121180200629</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2143,7 +2171,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2163,7 +2191,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6001551014</t>
+          <t>6001550820</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2175,18 +2203,18 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-01-30T16:38:00+01:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>JJD149990121180189756</t>
+          <t>JJD149990121180189785</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2198,17 +2226,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2218,7 +2246,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6001571627</t>
+          <t>6001554566</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2230,18 +2258,22 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>2026-01-28T08:53:02+01:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Wuppertal, DE, Germany</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:10+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>JJD149990121180194786</t>
+          <t>09447272763065</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2253,7 +2285,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2273,7 +2305,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6001568364</t>
+          <t>6001567069</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2285,18 +2317,18 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-03T14:59:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T20:09:21+00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>JJD149990121180194277</t>
+          <t>JJD149990121180193851</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2308,7 +2340,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2328,7 +2360,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6001562748</t>
+          <t>6001567095</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2340,7 +2372,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-02T14:31:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2351,7 +2383,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>JJD149990121180192273</t>
+          <t>JJD149990121180193812</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2363,17 +2395,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dhl-germany</t>
+          <t>dhlparcel-nl</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL</t>
+          <t>DHL Parcel NL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2383,7 +2415,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6001596148</t>
+          <t>6001567181</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2395,14 +2427,10 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-22T14:45:00+01:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>2026-02-04T14:34:00+01:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>2026-02-09T01:39:08+00:00</t>
@@ -2410,7 +2438,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>CY425450001DE</t>
+          <t>JJD149990121180193693</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2422,7 +2450,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2442,7 +2470,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6001488933</t>
+          <t>6001571335</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2454,22 +2482,22 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-16T14:43:03+01:00</t>
+          <t>2026-02-09T08:20:00+01:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aschaffenburg, DE, Germany</t>
+          <t>Oirschot (NL), Netherlands</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:11+00:00</t>
+          <t>2026-02-09T14:39:14+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>09447272602648</t>
+          <t>09447272788603</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2481,17 +2509,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2501,7 +2529,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6001571562</t>
+          <t>6001554616</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2513,18 +2541,22 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>2026-02-02T15:56:13+01:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Nagold, DE, Germany</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:11+00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>JJD149990121180194902</t>
+          <t>09447272761687</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2536,17 +2568,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2556,7 +2588,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6001571534</t>
+          <t>6001594900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2568,18 +2600,22 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T04:39:10+00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>JJD149990121180194932</t>
+          <t>08458093138698</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2591,17 +2627,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dhlparcel-nl</t>
+          <t>brt-it-parcelid</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DHL Parcel NL</t>
+          <t>BRT Bartolini(Parcel ID)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2611,7 +2647,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6001584209</t>
+          <t>6001594899</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2623,18 +2659,22 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>2026-02-05T12:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>MILANO SEDRIANO (050)</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T02:39:20+00:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>JJD149990121180196112</t>
+          <t>166050916804958</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2646,7 +2686,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2666,7 +2706,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6001574463</t>
+          <t>6001571627</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2678,18 +2718,18 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-03T14:59:00+01:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:20+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>JJD149990121180194983</t>
+          <t>JJD149990121180194786</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2701,7 +2741,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2721,7 +2761,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6001571360</t>
+          <t>6001571651</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2733,18 +2773,18 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:10+00:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>JJD149990121180195426</t>
+          <t>JJD149990121180194480</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2756,7 +2796,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2776,7 +2816,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6001571520</t>
+          <t>6001578985</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2788,18 +2828,18 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:06+00:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>JJD149990121180195036</t>
+          <t>JJD149990121180197789</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -2811,7 +2851,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2831,7 +2871,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6001575592</t>
+          <t>6001571372</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2843,18 +2883,18 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>JJD149990121180196222</t>
+          <t>JJD149990121180195416</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2866,7 +2906,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2886,7 +2926,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6001575277</t>
+          <t>6001584209</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2898,18 +2938,18 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T20:09:23+00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>JJD149990121180196585</t>
+          <t>JJD149990121180196112</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2921,7 +2961,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2941,7 +2981,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6001571372</t>
+          <t>6001575277</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2953,18 +2993,18 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>JJD149990121180195416</t>
+          <t>JJD149990121180196585</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2976,7 +3016,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2996,7 +3036,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6001575197</t>
+          <t>6001571391</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3008,18 +3048,18 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T20:09:18+00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>JJD149990121180196685</t>
+          <t>JJD149990121180195413</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3031,7 +3071,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3051,7 +3091,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6001571391</t>
+          <t>6001574822</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3063,18 +3103,18 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>JJD149990121180195413</t>
+          <t>JJD149990121180197333</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3086,7 +3126,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3106,7 +3146,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6001575554</t>
+          <t>6001579191</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3118,18 +3158,18 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T20:09:17+00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>JJD149990121180196232</t>
+          <t>JJD149990121180195903</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3141,7 +3181,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3161,7 +3201,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6001578985</t>
+          <t>6001571534</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3173,18 +3213,18 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:06+00:00</t>
+          <t>2026-02-09T13:39:10+00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>JJD149990121180197789</t>
+          <t>JJD149990121180194932</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3196,7 +3236,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3216,7 +3256,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6001579325</t>
+          <t>6001571520</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3228,18 +3268,18 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>JJD149990121180195647</t>
+          <t>JJD149990121180195036</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3251,7 +3291,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3271,7 +3311,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6001579162</t>
+          <t>6001574446</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3283,18 +3323,18 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:32+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>JJD149990121180195907</t>
+          <t>JJD149990121180195737</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3306,7 +3346,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3326,7 +3366,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6001579646</t>
+          <t>6001571583</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3338,18 +3378,18 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:12+00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>JJD149990121180195981</t>
+          <t>JJD149990121180194833</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3361,7 +3401,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3381,7 +3421,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6001571583</t>
+          <t>6001571360</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3393,18 +3433,18 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:12+00:00</t>
+          <t>2026-02-09T20:09:18+00:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>JJD149990121180194833</t>
+          <t>JJD149990121180195426</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3416,7 +3456,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3436,7 +3476,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6001579104</t>
+          <t>6001574876</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3448,18 +3488,18 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:09+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>JJD149990121180197491</t>
+          <t>JJD149990121180197142</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3471,7 +3511,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3491,7 +3531,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6001574446</t>
+          <t>6001579646</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3503,18 +3543,18 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T20:09:21+00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>JJD149990121180195737</t>
+          <t>JJD149990121180195981</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3526,7 +3566,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3546,7 +3586,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6001579656</t>
+          <t>6001579162</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3558,18 +3598,18 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T20:09:39+00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>JJD149990121180195961</t>
+          <t>JJD149990121180195907</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3581,7 +3621,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3601,7 +3641,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6001574876</t>
+          <t>6001575079</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3613,18 +3653,18 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:09+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>JJD149990121180197142</t>
+          <t>JJD149990121180196977</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3636,7 +3676,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3656,7 +3696,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6001574389</t>
+          <t>6001579325</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3668,18 +3708,18 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:21+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>JJD149990121180195611</t>
+          <t>JJD149990121180195647</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3691,7 +3731,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3711,7 +3751,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6001579191</t>
+          <t>6001571402</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3723,18 +3763,18 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:18+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>JJD149990121180195903</t>
+          <t>JJD149990121180195374</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -3746,7 +3786,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3766,7 +3806,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6001571402</t>
+          <t>6001579656</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3789,7 +3829,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>JJD149990121180195374</t>
+          <t>JJD149990121180195961</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3801,7 +3841,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3821,7 +3861,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6001575079</t>
+          <t>6001574463</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3833,18 +3873,18 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-04T14:34:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T20:09:21+00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>JJD149990121180196977</t>
+          <t>JJD149990121180194983</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3856,7 +3896,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3876,7 +3916,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6001574822</t>
+          <t>6001575197</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,18 +3928,18 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:08+00:00</t>
+          <t>2026-02-09T13:39:08+00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>JJD149990121180197333</t>
+          <t>JJD149990121180196685</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3911,7 +3951,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3931,7 +3971,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6001579221</t>
+          <t>6001579104</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3943,18 +3983,18 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-05T11:49:00+01:00</t>
+          <t>2026-02-06T12:47:00+01:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-02-09T01:39:07+00:00</t>
+          <t>2026-02-09T13:39:09+00:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>JJD149990121180197838</t>
+          <t>JJD149990121180197491</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -3966,7 +4006,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3986,7 +4026,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6001579479</t>
+          <t>6001575592</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3998,18 +4038,18 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:15+00:00</t>
+          <t>2026-02-09T01:39:08+00:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>JJD149990121180198565</t>
+          <t>JJD149990121180196222</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4021,7 +4061,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4041,7 +4081,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6001583187</t>
+          <t>6001574389</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4053,18 +4093,18 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-09T16:55:00+01:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T20:09:21+00:00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>JJD149990121180199217</t>
+          <t>JJD149990121180195611</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4076,7 +4116,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4096,7 +4136,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6001578779</t>
+          <t>6001575554</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4108,18 +4148,18 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:08+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>JJD149990121180198097</t>
+          <t>JJD149990121180196232</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4131,7 +4171,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4151,7 +4191,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6001583679</t>
+          <t>6001571562</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4163,18 +4203,18 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-02-09T16:55:00+01:00</t>
+          <t>2026-02-04T14:34:00+01:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-02-09T16:09:31+00:00</t>
+          <t>2026-02-09T01:39:09+00:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>JJD149990121180199090</t>
+          <t>JJD149990121180194902</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4186,7 +4226,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4206,7 +4246,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6001583818</t>
+          <t>6001579221</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4218,76 +4258,21 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-02-06T12:47:00+01:00</t>
+          <t>2026-02-05T11:49:00+01:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2026-02-09T13:39:10+00:00</t>
+          <t>2026-02-09T01:39:07+00:00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>JJD149990121180199072</t>
+          <t>JJD149990121180197838</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>JJD149990121180198167</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>dhlparcel-nl</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DHL Parcel NL</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>6001578664</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2026-02-09T16:55:00+01:00</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2026-02-09T16:09:17+00:00</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>JJD149990121180198167</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
         <is>
           <t>{}</t>
         </is>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05228742756455</t>
+          <t>05228742756476</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,17 +532,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Flémalle (BE), Belgium</t>
+          <t>Flemalle, BE, Belgium</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:48+00:00</t>
+          <t>2026-02-11T15:45:35+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>05228742756455</t>
+          <t>05228742756476</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05228742756476</t>
+          <t>05228742756455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Flemalle, BE, Belgium</t>
+          <t>Flémalle (BE), Belgium</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:35+00:00</t>
+          <t>2026-02-11T15:45:48+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>05228742756476</t>
+          <t>05228742756455</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -995,17 +995,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00370733747287153689</t>
+          <t>01475240726962</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>posten-norge</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Posten Norge / Bring</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0046005974950</t>
+          <t>PO-076-19549829338231712</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0307</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1031,44 +1031,44 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-05T16:45:30+01:00</t>
+          <t>2026-02-03T13:34:17+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>,Sweden</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:25+00:00</t>
+          <t>2026-02-11T15:45:23+00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00370733747287153689</t>
+          <t>01475240726962</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0046005974950", "sales_office_id": "0307"}</t>
+          <t>{"external_order_id": "PO-076-19549829338231712", "sales_office_id": "4670"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01475240726962</t>
+          <t>00370733747287153689</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>posten-norge</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Posten Norge / Bring</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PO-076-19549829338231712</t>
+          <t>0046005974950</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>0307</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1094,27 +1094,27 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-03T13:34:17+01:00</t>
+          <t>2026-02-05T16:45:30+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mannheim (DE), Germany</t>
+          <t>,Sweden</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:23+00:00</t>
+          <t>2026-02-11T15:45:25+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>01475240726962</t>
+          <t>00370733747287153689</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-076-19549829338231712", "sales_office_id": "4670"}</t>
+          <t>{"external_order_id": "0046005974950", "sales_office_id": "0307"}</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UTV356513230</t>
+          <t>323212510900011889240030</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>bpost-api</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>bpost-api</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0031009833430</t>
+          <t>0032005521393</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1283,44 +1283,44 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-03T09:55:37+01:00</t>
+          <t>2026-02-02T09:51:55+01:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>28800267 PUURS MAIL, Belgium</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:23+00:00</t>
+          <t>2026-02-11T15:45:19+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>UTV356513230</t>
+          <t>323212510900011889240030</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009833430", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005521393", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>323212510900011889240030</t>
+          <t>UTV356513230</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bpost-api</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>bpost-api</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0032005521393</t>
+          <t>0031009833430</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1346,44 +1346,44 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-02T09:51:55+01:00</t>
+          <t>2026-02-03T09:55:37+01:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28800267 PUURS MAIL, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:19+00:00</t>
+          <t>2026-02-11T15:45:23+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>323212510900011889240030</t>
+          <t>UTV356513230</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005521393", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009833430", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01475240726729</t>
+          <t>00370733747287151746</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>posten-norge</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Posten Norge / Bring</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0049010048409</t>
+          <t>f1623bc0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1409,44 +1409,44 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-03T08:48:10+01:00</t>
+          <t>2026-02-05T16:08:51+01:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Anröchte (DE), Germany</t>
+          <t>,Sweden</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:16+00:00</t>
+          <t>2026-02-11T15:45:19+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>01475240726729</t>
+          <t>00370733747287151746</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010048409", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "f1623bc0", "sales_office_id": "4071"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00370733747287151746</t>
+          <t>01475240726729</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>posten-norge</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Posten Norge / Bring</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f1623bc0</t>
+          <t>0049010048409</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1472,44 +1472,44 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-05T16:08:51+01:00</t>
+          <t>2026-02-03T08:48:10+01:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>,Sweden</t>
+          <t>Anröchte (DE), Germany</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:19+00:00</t>
+          <t>2026-02-11T15:45:16+00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>00370733747287151746</t>
+          <t>01475240726729</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"external_order_id": "f1623bc0", "sales_office_id": "4071"}</t>
+          <t>{"external_order_id": "0049010048409", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>81224021886</t>
+          <t>01475240726762</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0040001033198</t>
+          <t>O26-697911850473</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,27 +1535,27 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-09T12:04:12+02:00</t>
+          <t>2026-02-03T12:18:33+01:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>OR. CIACOVA</t>
+          <t>Marl (DE), Germany</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:18+00:00</t>
+          <t>2026-02-11T15:45:16+00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>81224021886</t>
+          <t>01475240726762</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0040001033198", "sales_office_id": "3025"}</t>
+          <t>{"external_order_id": "O26-697911850473", "sales_office_id": "4632"}</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>81224021872</t>
+          <t>81224021886</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:16+00:00</t>
+          <t>2026-02-11T15:45:18+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>81224021872</t>
+          <t>81224021886</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1688,17 +1688,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01475240726762</t>
+          <t>81224021872</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd-ro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD Romania</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>O26-697911850473</t>
+          <t>0040001033198</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4632</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1724,12 +1724,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-03T12:18:33+01:00</t>
+          <t>2026-02-09T12:04:12+02:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Marl (DE), Germany</t>
+          <t>OR. CIACOVA</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>01475240726762</t>
+          <t>81224021872</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"external_order_id": "O26-697911850473", "sales_office_id": "4632"}</t>
+          <t>{"external_order_id": "0040001033198", "sales_office_id": "3025"}</t>
         </is>
       </c>
     </row>
@@ -1814,17 +1814,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>957140542984</t>
+          <t>Z7M5RVKG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sending</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sending Transporte Urgente y Comunicacion</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0034001365802</t>
+          <t>0385000249321</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1850,44 +1850,44 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-05T14:57:30</t>
+          <t>2026-02-05T10:08:38+01:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>MADRID</t>
+          <t>HR, Croatia</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:16+00:00</t>
+          <t>2026-02-11T15:45:13+00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>957140542984</t>
+          <t>Z7M5RVKG</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0034001365802", "sales_office_id": "3018"}</t>
+          <t>{"external_order_id": "0385000249321", "sales_office_id": "3030"}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Z7M5RVKG</t>
+          <t>957140542984</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>sending</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Sending Transporte Urgente y Comunicacion</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,12 +1897,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0385000249321</t>
+          <t>0034001365802</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1913,27 +1913,27 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-05T10:08:38+01:00</t>
+          <t>2026-02-05T14:57:30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>HR, Croatia</t>
+          <t>MADRID</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-11T15:45:13+00:00</t>
+          <t>2026-02-11T15:45:16+00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Z7M5RVKG</t>
+          <t>957140542984</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0385000249321", "sales_office_id": "3030"}</t>
+          <t>{"external_order_id": "0034001365802", "sales_office_id": "3018"}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01475240749268</t>
+          <t>01475240748010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>01475240749268</t>
+          <t>01475240748010</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2507,7 +2507,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01475240748010</t>
+          <t>01475240749268</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>01475240748010</t>
+          <t>01475240749268</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>888625198230</t>
+          <t>888619148002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GSU15G62200MHJM</t>
+          <t>200014226142853</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2732,27 +2732,27 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-11T09:21:03-05:00</t>
+          <t>2026-02-11T15:07:10-05:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Stoughton, MA, 02072, US, United States</t>
+          <t>Quincy, FL, 32351, US, United States</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-11T18:41:43+00:00</t>
+          <t>2026-02-11T20:41:47+00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>888625198230</t>
+          <t>888619148002</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"external_order_id": "GSU15G62200MHJM", "sales_office_id": "4684"}</t>
+          <t>{"external_order_id": "200014226142853", "sales_office_id": "4260"}</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>888625196606</t>
+          <t>888625198230</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-11T18:41:41+00:00</t>
+          <t>2026-02-11T18:41:43+00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>888625196606</t>
+          <t>888625198230</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2885,7 +2885,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>888615669590</t>
+          <t>888623985468</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B2BDS10126763</t>
+          <t>200014226142853</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2921,34 +2921,34 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-02-11T11:16:25-05:00</t>
+          <t>2026-02-11T15:07:10-05:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Miami, FL, 33182, US, United States</t>
+          <t>Quincy, FL, 32351, US, United States</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:42+00:00</t>
+          <t>2026-02-11T20:41:59+00:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>888615669590</t>
+          <t>888623985468</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10126763", "sales_office_id": "4461"}</t>
+          <t>{"external_order_id": "200014226142853", "sales_office_id": "4260"}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>888622593620</t>
+          <t>888625196606</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B2BDS10126763</t>
+          <t>GSU15G62200MHJM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2984,44 +2984,44 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-11T11:16:25-05:00</t>
+          <t>2026-02-11T09:21:03-05:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Miami, FL, 33182, US, United States</t>
+          <t>Stoughton, MA, 02072, US, United States</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:41+00:00</t>
+          <t>2026-02-11T18:41:41+00:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>888622593620</t>
+          <t>888625196606</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10126763", "sales_office_id": "4461"}</t>
+          <t>{"external_order_id": "GSU15G62200MHJM", "sales_office_id": "4684"}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BGK000310656</t>
+          <t>888619172007</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>purolator</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Purolator</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>309103829151299</t>
+          <t>200014226142853</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3047,44 +3047,44 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-11T09:33:46-05:00</t>
+          <t>2026-02-11T15:07:10-05:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>NORTH YORK, ON, CA, Canada</t>
+          <t>Quincy, FL, 32351, US, United States</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2026-02-11T14:38:31+00:00</t>
+          <t>2026-02-11T20:42:02+00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BGK000310656</t>
+          <t>888619172007</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"external_order_id": "309103829151299", "sales_office_id": "4608"}</t>
+          <t>{"external_order_id": "200014226142853", "sales_office_id": "4260"}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>05228742784512</t>
+          <t>888616386444</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0033005681590</t>
+          <t>200014531407736</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3110,44 +3110,44 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-02-11T10:55:56+01:00</t>
+          <t>2026-02-11T13:52:57-05:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Calmont, FR, France</t>
+          <t>DeLand, FL, 32724, US, United States</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2026-02-11T18:00:29+00:00</t>
+          <t>2026-02-11T19:41:51+00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>05228742784512</t>
+          <t>888616386444</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681590", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "200014531407736", "sales_office_id": "4260"}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05228742783470</t>
+          <t>888616383386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0033005682222</t>
+          <t>200014531407736</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3173,44 +3173,44 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-11T14:23:01+01:00</t>
+          <t>2026-02-11T13:52:57-05:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ruaudin, FR, France</t>
+          <t>DeLand, FL, 32724, US, United States</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2026-02-11T14:00:39+00:00</t>
+          <t>2026-02-11T19:41:52+00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>05228742783470</t>
+          <t>888616383386</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682222", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "200014531407736", "sales_office_id": "4260"}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05228742785092</t>
+          <t>888615669590</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0033005680102</t>
+          <t>B2BDS10126763</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3236,44 +3236,44 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-11T12:32:00+01:00</t>
+          <t>2026-02-11T11:16:25-05:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Miami, FL, 33182, US, United States</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:04+00:00</t>
+          <t>2026-02-11T16:41:42+00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>05228742785092</t>
+          <t>888615669590</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10126763", "sales_office_id": "4461"}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05228742781892</t>
+          <t>888622373391</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3283,12 +3283,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0033005680102</t>
+          <t>B2BDS10202929</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3299,44 +3299,44 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-11T12:31:49+01:00</t>
+          <t>2026-02-11T15:34:11-05:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Inverness, FL, 34450, US, United States</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:06+00:00</t>
+          <t>2026-02-11T20:41:58+00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>05228742781892</t>
+          <t>888622373391</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10202929", "sales_office_id": "4461"}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05228742782198</t>
+          <t>888622593620</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0033005680102</t>
+          <t>B2BDS10126763</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3362,44 +3362,44 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-10T12:40:48+01:00</t>
+          <t>2026-02-11T11:16:25-05:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Miami, FL, 33182, US, United States</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:18+00:00</t>
+          <t>2026-02-11T16:41:41+00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>05228742782198</t>
+          <t>888622593620</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10126763", "sales_office_id": "4461"}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05228742782397</t>
+          <t>888622372330</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0033005680102</t>
+          <t>B2BDS10202929</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3425,44 +3425,44 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-10T12:40:49+01:00</t>
+          <t>2026-02-11T15:34:11-05:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Inverness, FL, 34450, US, United States</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:01+00:00</t>
+          <t>2026-02-11T20:41:57+00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>05228742782397</t>
+          <t>888622372330</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10202929", "sales_office_id": "4461"}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UTV743299124</t>
+          <t>888622377206</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0031009869251</t>
+          <t>B2BDS10202929</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3488,44 +3488,44 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-10T15:23:30+01:00</t>
+          <t>2026-02-11T15:34:11-05:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>Inverness, FL, 34450, US, United States</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2026-02-11T17:32:32+00:00</t>
+          <t>2026-02-11T20:41:55+00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>UTV743299124</t>
+          <t>888622377206</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009869251", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10202929", "sales_office_id": "4461"}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UTV761609651</t>
+          <t>BGK000310706</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>purolator</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>Purolator</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PO-141-01921634965113363</t>
+          <t>701-0383266-7869023</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4675</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3551,44 +3551,44 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-11T11:42:02+01:00</t>
+          <t>2026-02-11T15:30:04-05:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>HAMILTON, ON, CA, Canada</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2026-02-11T17:30:38+00:00</t>
+          <t>2026-02-11T20:39:21+00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>UTV761609651</t>
+          <t>BGK000310706</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-141-01921634965113363", "sales_office_id": "4675"}</t>
+          <t>{"external_order_id": "701-0383266-7869023", "sales_office_id": "4567"}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>80840147809630</t>
+          <t>BGK000310656</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>purolator</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Purolator</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0351001358628</t>
+          <t>309103829151299</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3614,40 +3614,44 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-12-09T11:30:00</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>2026-02-11T09:33:46-05:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>NORTH YORK, ON, CA, Canada</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2026-02-11T13:30:07+00:00</t>
+          <t>2026-02-11T14:38:31+00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>80840147809630</t>
+          <t>BGK000310656</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0351001358628", "sales_office_id": "3024"}</t>
+          <t>{"external_order_id": "309103829151299", "sales_office_id": "4608"}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ZI6799PE</t>
+          <t>05228742784512</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-api</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3657,12 +3661,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0032005536830</t>
+          <t>0033005681590</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3673,44 +3677,44 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-11T14:10:37+01:00</t>
+          <t>2026-02-11T10:55:56+01:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Calmont, FR, France</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2026-02-11T13:29:04+00:00</t>
+          <t>2026-02-11T18:00:29+00:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ZI6799PE</t>
+          <t>05228742784512</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005681590", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ZI6799OE</t>
+          <t>05228742783470</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-api</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3720,12 +3724,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0032005536830</t>
+          <t>0033005682222</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3736,44 +3740,44 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-11T14:09:59+01:00</t>
+          <t>2026-02-11T14:23:01+01:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Ruaudin, FR, France</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-02-11T13:29:02+00:00</t>
+          <t>2026-02-11T14:00:39+00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ZI6799OE</t>
+          <t>05228742783470</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005682222", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZI6799OP</t>
+          <t>05228742781892</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-api</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3783,12 +3787,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0032005536830</t>
+          <t>0033005680102</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3799,44 +3803,44 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-11T14:09:59+01:00</t>
+          <t>2026-02-11T12:31:49+01:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2026-02-11T13:29:02+00:00</t>
+          <t>2026-02-11T17:56:06+00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ZI6799OP</t>
+          <t>05228742781892</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ZI6799TH</t>
+          <t>05228742785092</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-api</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3846,12 +3850,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0032005536378</t>
+          <t>0033005680102</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3862,44 +3866,44 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-11T14:10:18+01:00</t>
+          <t>2026-02-11T12:32:00+01:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-02-11T13:28:32+00:00</t>
+          <t>2026-02-11T17:56:04+00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>ZI6799TH</t>
+          <t>05228742785092</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536378", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ZI6799OF</t>
+          <t>05228742782198</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-api</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3909,12 +3913,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0032005536378</t>
+          <t>0033005680102</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3925,34 +3929,34 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-11T14:10:18+01:00</t>
+          <t>2026-02-10T12:40:48+01:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-02-11T13:28:25+00:00</t>
+          <t>2026-02-11T18:26:18+00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ZI6799OF</t>
+          <t>05228742782198</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536378", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05228742791122</t>
+          <t>05228742782397</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3972,12 +3976,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0031009882628</t>
+          <t>0033005680102</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3988,44 +3992,44 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-11T16:34:40+01:00</t>
+          <t>2026-02-10T12:40:49+01:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-02-11T15:53:24+00:00</t>
+          <t>2026-02-11T13:56:01+00:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>05228742791122</t>
+          <t>05228742782397</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009882628", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0033005680102", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>05228742783328</t>
+          <t>UTV743299124</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4035,12 +4039,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>B2BDS10121016</t>
+          <t>0031009869251</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4051,44 +4055,44 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-02-11T09:46:48+01:00</t>
+          <t>2026-02-10T15:23:30+01:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Bondoufle, FR, France</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-02-11T16:45:48+00:00</t>
+          <t>2026-02-11T17:32:32+00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>05228742783328</t>
+          <t>UTV743299124</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0031009869251", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>05228742782774</t>
+          <t>UTV761609651</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4098,12 +4102,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>171-8021437-2684301</t>
+          <t>PO-141-01921634965113363</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4114,44 +4118,44 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-02-11T12:37:20+01:00</t>
+          <t>2026-02-11T11:42:02+01:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-02-11T16:46:51+00:00</t>
+          <t>2026-02-11T17:30:38+00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>05228742782774</t>
+          <t>UTV761609651</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"external_order_id": "171-8021437-2684301", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "PO-141-01921634965113363", "sales_office_id": "4675"}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>05228742783329</t>
+          <t>80840147809630</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>spanish-seur-ftp</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4161,12 +4165,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B2BDS10121016</t>
+          <t>0351001358628</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4177,44 +4181,40 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-11T09:46:36+01:00</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Bondoufle, FR, France</t>
-        </is>
-      </c>
+          <t>2025-12-09T11:30:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-02-11T16:45:48+00:00</t>
+          <t>2026-02-11T13:30:07+00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>05228742783329</t>
+          <t>80840147809630</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0351001358628", "sales_office_id": "3024"}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>05228742782042</t>
+          <t>ZI6799PE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B2BDS10121016</t>
+          <t>0032005536830</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4240,44 +4240,44 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-10T13:07:18+01:00</t>
+          <t>2026-02-11T14:10:37+01:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Bondoufle, FR, France</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-02-11T12:45:33+00:00</t>
+          <t>2026-02-11T13:29:04+00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>05228742782042</t>
+          <t>ZI6799PE</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>05228742783062</t>
+          <t>ZI6799OE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4287,12 +4287,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>B2BDS10121137</t>
+          <t>0032005536830</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4303,44 +4303,44 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-11T09:31:22+01:00</t>
+          <t>2026-02-11T14:09:59+01:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-02-11T16:45:37+00:00</t>
+          <t>2026-02-11T13:29:02+00:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>05228742783062</t>
+          <t>ZI6799OE</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>05228742781706</t>
+          <t>ZI6799OP</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>171-8021437-2684301</t>
+          <t>0032005536830</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4366,44 +4366,44 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-02-10T12:18:01+01:00</t>
+          <t>2026-02-11T14:09:59+01:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2026-02-11T12:46:56+00:00</t>
+          <t>2026-02-11T13:29:02+00:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>05228742781706</t>
+          <t>ZI6799OP</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"external_order_id": "171-8021437-2684301", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0032005536830", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>05228742784085</t>
+          <t>ZI6799TH</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>B2BDS10121137</t>
+          <t>0032005536378</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4429,44 +4429,44 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-11T09:31:15+01:00</t>
+          <t>2026-02-11T14:10:18+01:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2026-02-11T16:46:52+00:00</t>
+          <t>2026-02-11T13:28:32+00:00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>05228742784085</t>
+          <t>ZI6799TH</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0032005536378", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05228742784302</t>
+          <t>ZI6799OF</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dpd-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DPD</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0033005679737</t>
+          <t>0032005536378</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4492,34 +4492,34 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-11T09:10:38+01:00</t>
+          <t>2026-02-11T14:10:18+01:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Le Palais sur Vienne, FR, France</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-02-11T12:45:31+00:00</t>
+          <t>2026-02-11T13:28:25+00:00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>05228742784302</t>
+          <t>ZI6799OF</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005679737", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0032005536378", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05228742782143</t>
+          <t>05228742791122</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>B2BDS10121137</t>
+          <t>0031009882628</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4555,34 +4555,34 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-02-10T09:29:15+01:00</t>
+          <t>2026-02-11T16:34:40+01:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-02-11T12:45:30+00:00</t>
+          <t>2026-02-11T19:53:25+00:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>05228742782143</t>
+          <t>05228742791122</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0031009882628", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05228742781978</t>
+          <t>05228742782774</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0033005679737</t>
+          <t>171-8021437-2684301</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4618,34 +4618,34 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-02-10T09:35:10+01:00</t>
+          <t>2026-02-11T12:37:20+01:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Le Palais sur Vienne, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2026-02-11T12:47:04+00:00</t>
+          <t>2026-02-11T16:46:51+00:00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>05228742781978</t>
+          <t>05228742782774</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005679737", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "171-8021437-2684301", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>05228742781735</t>
+          <t>05228742783328</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B2BDS10121137</t>
+          <t>B2BDS10121016</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4681,34 +4681,34 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-02-10T09:29:09+01:00</t>
+          <t>2026-02-11T09:46:48+01:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2026-02-11T12:46:56+00:00</t>
+          <t>2026-02-11T16:45:48+00:00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>05228742781735</t>
+          <t>05228742783328</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>05228742781703</t>
+          <t>05228742783329</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>171-8024228-8339558</t>
+          <t>B2BDS10121016</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4744,34 +4744,34 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-02-10T08:29:35+01:00</t>
+          <t>2026-02-11T09:46:36+01:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Fresnes, FR, France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:01+00:00</t>
+          <t>2026-02-11T16:45:48+00:00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>05228742781703</t>
+          <t>05228742783329</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"external_order_id": "171-8024228-8339558", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>05228742784360</t>
+          <t>05228742782042</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>B2BDS10082780</t>
+          <t>B2BDS10121016</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4807,34 +4807,34 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-02-11T09:23:17+01:00</t>
+          <t>2026-02-10T13:07:18+01:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>La Roche sur Yon, FR, France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2026-02-11T16:45:52+00:00</t>
+          <t>2026-02-11T12:45:33+00:00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>05228742784360</t>
+          <t>05228742782042</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121016", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>05228742784661</t>
+          <t>05228742781706</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>171-8024228-8339558</t>
+          <t>171-8021437-2684301</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4870,34 +4870,34 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-02-11T08:27:01+01:00</t>
+          <t>2026-02-10T12:18:01+01:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Fresnes, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:01+00:00</t>
+          <t>2026-02-11T12:46:56+00:00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>05228742784661</t>
+          <t>05228742781706</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"external_order_id": "171-8024228-8339558", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "171-8021437-2684301", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>05228742780806</t>
+          <t>05228742783062</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>B2BDS10082780</t>
+          <t>B2BDS10121137</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4933,34 +4933,34 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-02-10T09:56:00+01:00</t>
+          <t>2026-02-11T09:31:22+01:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>La Roche sur Yon, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:00+00:00</t>
+          <t>2026-02-11T16:45:37+00:00</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>05228742780806</t>
+          <t>05228742783062</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>05228742780808</t>
+          <t>05228742784302</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>B2BDS10082780</t>
+          <t>0033005679737</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4996,34 +4996,34 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-02-10T09:55:52+01:00</t>
+          <t>2026-02-11T09:10:38+01:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>LA ROCHE SUR YON (FR), France</t>
+          <t>Le Palais sur Vienne, FR, France</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2026-02-11T12:40:54+00:00</t>
+          <t>2026-02-11T12:45:31+00:00</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>05228742780808</t>
+          <t>05228742784302</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005679737", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>05228742780807</t>
+          <t>05228742784085</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>B2BDS10082780</t>
+          <t>B2BDS10121137</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5059,34 +5059,34 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-02-10T09:55:49+01:00</t>
+          <t>2026-02-11T09:31:15+01:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>La Roche sur Yon, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:01+00:00</t>
+          <t>2026-02-11T16:46:52+00:00</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>05228742780807</t>
+          <t>05228742784085</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>05228742784173</t>
+          <t>05228742781978</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>B2BDS10069296</t>
+          <t>0033005679737</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5122,34 +5122,34 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-02-11T09:27:17+01:00</t>
+          <t>2026-02-10T09:35:10+01:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Le Palais sur Vienne, FR, France</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:01+00:00</t>
+          <t>2026-02-11T12:47:04+00:00</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>05228742784173</t>
+          <t>05228742781978</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10069296", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005679737", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>05228742781055</t>
+          <t>05228742782143</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B2BDS10071326</t>
+          <t>B2BDS10121137</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5185,34 +5185,34 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-02-10T14:12:15+01:00</t>
+          <t>2026-02-10T09:29:15+01:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Trappes, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2026-02-11T16:41:00+00:00</t>
+          <t>2026-02-11T12:45:30+00:00</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>05228742781055</t>
+          <t>05228742782143</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10071326", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>05228742785053</t>
+          <t>05228742781735</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>B2BDS10071326</t>
+          <t>B2BDS10121137</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5248,34 +5248,34 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-02-11T14:26:55+01:00</t>
+          <t>2026-02-10T09:29:09+01:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Trappes, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2026-02-11T15:41:00+00:00</t>
+          <t>2026-02-11T12:46:56+00:00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>05228742785053</t>
+          <t>05228742781735</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10071326", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121137", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>05228742791125</t>
+          <t>05228742784360</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0031009881546</t>
+          <t>B2BDS10082780</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5311,34 +5311,34 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-02-11T16:05:03+01:00</t>
+          <t>2026-02-11T09:23:17+01:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Beverwijk, NL, Netherlands</t>
+          <t>La Roche sur Yon, FR, France</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2026-02-11T19:08:45+00:00</t>
+          <t>2026-02-11T16:45:52+00:00</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>05228742791125</t>
+          <t>05228742784360</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009881546", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>05228742791105</t>
+          <t>05228742780806</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0032005536925</t>
+          <t>B2BDS10082780</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5374,34 +5374,34 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-02-11T14:25:45+01:00</t>
+          <t>2026-02-10T09:56:00+01:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Lummen, BE, Belgium</t>
+          <t>La Roche sur Yon, FR, France</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2026-02-11T14:10:42+00:00</t>
+          <t>2026-02-11T16:41:00+00:00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>05228742791105</t>
+          <t>05228742780806</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536925", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05228742791136</t>
+          <t>05228742781703</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5421,12 +5421,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0032005536925</t>
+          <t>171-8024228-8339558</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5437,34 +5437,34 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-02-11T14:25:45+01:00</t>
+          <t>2026-02-10T08:29:35+01:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Lummen, BE, Belgium</t>
+          <t>Fresnes, FR, France</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2026-02-11T14:10:45+00:00</t>
+          <t>2026-02-11T16:41:01+00:00</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>05228742791136</t>
+          <t>05228742781703</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005536925", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "171-8024228-8339558", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05228742791103</t>
+          <t>05228742784661</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>79371831-A</t>
+          <t>171-8024228-8339558</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5500,34 +5500,34 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-02-11T18:24:36+01:00</t>
+          <t>2026-02-11T08:27:01+01:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Vijfhuizen, NL, Netherlands</t>
+          <t>Fresnes, FR, France</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2026-02-11T17:41:00+00:00</t>
+          <t>2026-02-11T16:41:01+00:00</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>05228742791103</t>
+          <t>05228742784661</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"external_order_id": "79371831-A", "sales_office_id": "4322"}</t>
+          <t>{"external_order_id": "171-8024228-8339558", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>05228742792273</t>
+          <t>05228742780807</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0032005537164</t>
+          <t>B2BDS10082780</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5563,34 +5563,34 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-02-11T14:18:57+01:00</t>
+          <t>2026-02-10T09:55:49+01:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Flemalle, BE, Belgium</t>
+          <t>La Roche sur Yon, FR, France</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2026-02-11T13:40:48+00:00</t>
+          <t>2026-02-11T16:41:01+00:00</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>05228742792273</t>
+          <t>05228742780807</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005537164", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>05228742781695</t>
+          <t>05228742780808</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0033005682062</t>
+          <t>B2BDS10082780</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5626,34 +5626,34 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-02-11T11:49:08+01:00</t>
+          <t>2026-02-10T09:55:52+01:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>LA ROCHE SUR YON (FR), France</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:56+00:00</t>
+          <t>2026-02-11T12:40:54+00:00</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>05228742781695</t>
+          <t>05228742780808</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10082780", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>05228742781694</t>
+          <t>05228742784173</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0033005682062</t>
+          <t>B2BDS10069296</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5689,34 +5689,34 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-02-11T11:48:59+01:00</t>
+          <t>2026-02-11T09:27:17+01:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:55+00:00</t>
+          <t>2026-02-11T16:41:01+00:00</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>05228742781694</t>
+          <t>05228742784173</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10069296", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>05228742781716</t>
+          <t>05228742785053</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0033005682062</t>
+          <t>B2BDS10071326</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5752,34 +5752,34 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-02-11T11:49:03+01:00</t>
+          <t>2026-02-11T14:26:55+01:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Trappes, FR, France</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:55+00:00</t>
+          <t>2026-02-11T19:41:06+00:00</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>05228742781716</t>
+          <t>05228742785053</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10071326", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>05228742784335</t>
+          <t>05228742781055</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5799,12 +5799,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0033005682062</t>
+          <t>B2BDS10071326</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5815,34 +5815,34 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-02-11T11:49:16+01:00</t>
+          <t>2026-02-10T14:12:15+01:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Trappes, FR, France</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:57+00:00</t>
+          <t>2026-02-11T16:41:00+00:00</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>05228742784335</t>
+          <t>05228742781055</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10071326", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>05228742782696</t>
+          <t>05228742791125</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5862,12 +5862,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>408-8908985-3866765</t>
+          <t>0031009881546</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5878,34 +5878,34 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-02-11T16:10:03+01:00</t>
+          <t>2026-02-11T16:05:03+01:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Calmont, FR, France</t>
+          <t>Beverwijk, NL, Netherlands</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2026-02-11T17:27:59+00:00</t>
+          <t>2026-02-11T19:08:45+00:00</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>05228742782696</t>
+          <t>05228742791125</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"external_order_id": "408-8908985-3866765", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0031009881546", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>05228742783819</t>
+          <t>05228742791103</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>B2BDS10073790</t>
+          <t>79371831-A</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5941,34 +5941,34 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-02-11T12:35:59+01:00</t>
+          <t>2026-02-11T18:24:36+01:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>CARENTAN LES MARAIS, FR, France</t>
+          <t>Vijfhuizen, NL, Netherlands</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2026-02-11T17:58:08+00:00</t>
+          <t>2026-02-11T17:41:00+00:00</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>05228742783819</t>
+          <t>05228742791103</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10073790", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "79371831-A", "sales_office_id": "4322"}</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>05228742781595</t>
+          <t>05228742791136</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5988,12 +5988,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>B2BDS10073790</t>
+          <t>0032005536925</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6004,30 +6004,34 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-02-10T00:00:00</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>2026-02-11T14:25:45+01:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Lummen, BE, Belgium</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:52+00:00</t>
+          <t>2026-02-11T14:10:45+00:00</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>05228742781595</t>
+          <t>05228742791136</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10073790", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0032005536925", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>05228742783321</t>
+          <t>05228742791105</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6047,12 +6051,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>407-7211059-8815569</t>
+          <t>0032005536925</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6063,34 +6067,34 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-02-11T15:04:12+01:00</t>
+          <t>2026-02-11T14:25:45+01:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Saint Georges des Coteaux, FR, France</t>
+          <t>Lummen, BE, Belgium</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2026-02-11T16:57:53+00:00</t>
+          <t>2026-02-11T14:10:42+00:00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>05228742783321</t>
+          <t>05228742791105</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-7211059-8815569", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0032005536925", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05228742782226</t>
+          <t>05228742792273</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6110,12 +6114,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>407-7211059-8815569</t>
+          <t>0032005537164</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6126,34 +6130,34 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-02-10T15:08:36+01:00</t>
+          <t>2026-02-11T14:18:57+01:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Saint Georges des Coteaux, FR, France</t>
+          <t>Flemalle, BE, Belgium</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:53+00:00</t>
+          <t>2026-02-11T13:40:48+00:00</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>05228742782226</t>
+          <t>05228742792273</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-7211059-8815569", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0032005537164", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05228742782244</t>
+          <t>05228742781716</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6173,12 +6177,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>B2BDS10077220</t>
+          <t>0033005682062</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6189,34 +6193,34 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-02-11T11:52:59+01:00</t>
+          <t>2026-02-11T11:49:03+01:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2026-02-11T17:57:27+00:00</t>
+          <t>2026-02-11T14:57:55+00:00</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>05228742782244</t>
+          <t>05228742781716</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>05228742781763</t>
+          <t>05228742784335</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6236,7 +6240,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0033005681557</t>
+          <t>0033005682062</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6252,34 +6256,34 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-02-10T13:27:18+01:00</t>
+          <t>2026-02-11T11:49:16+01:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Labastide-Saint-Pierre, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:08+00:00</t>
+          <t>2026-02-11T14:57:57+00:00</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>05228742781763</t>
+          <t>05228742784335</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>05228742781854</t>
+          <t>05228742781694</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6299,12 +6303,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B2BDS10077220</t>
+          <t>0033005682062</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6315,34 +6319,34 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-02-10T11:41:55+01:00</t>
+          <t>2026-02-11T11:48:59+01:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:11+00:00</t>
+          <t>2026-02-11T14:57:55+00:00</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>05228742781854</t>
+          <t>05228742781694</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>05228742782288</t>
+          <t>05228742781695</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6362,7 +6366,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0033005681557</t>
+          <t>0033005682062</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6378,34 +6382,34 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-02-10T13:27:19+01:00</t>
+          <t>2026-02-11T11:49:08+01:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Labastide-Saint-Pierre, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:18+00:00</t>
+          <t>2026-02-11T14:57:56+00:00</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>05228742782288</t>
+          <t>05228742781695</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005682062", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>05228742783366</t>
+          <t>05228742782696</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6425,12 +6429,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0033005681557</t>
+          <t>408-8908985-3866765</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6441,34 +6445,34 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-02-11T10:08:42+01:00</t>
+          <t>2026-02-11T16:10:03+01:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Labastide-Saint-Pierre, FR, France</t>
+          <t>Calmont, FR, France</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2026-02-11T16:57:27+00:00</t>
+          <t>2026-02-11T21:28:03+00:00</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>05228742783366</t>
+          <t>05228742782696</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "408-8908985-3866765", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>05228742781230</t>
+          <t>05228742781595</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6488,7 +6492,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>B2BDS10077220</t>
+          <t>B2BDS10073790</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6504,34 +6508,30 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-02-10T11:42:03+01:00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
-        </is>
-      </c>
+          <t>2026-02-10T00:00:00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:06+00:00</t>
+          <t>2026-02-11T10:57:52+00:00</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>05228742781230</t>
+          <t>05228742781595</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10073790", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>05228742784535</t>
+          <t>05228742783819</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>404-6869722-6264332</t>
+          <t>B2BDS10073790</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6567,34 +6567,34 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-02-11T16:12:16+01:00</t>
+          <t>2026-02-11T12:35:59+01:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>CARENTAN LES MARAIS, FR, France</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2026-02-11T16:57:08+00:00</t>
+          <t>2026-02-11T17:58:08+00:00</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>05228742784535</t>
+          <t>05228742783819</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"external_order_id": "404-6869722-6264332", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10073790", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>05228742781764</t>
+          <t>05228742783321</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>404-6869722-6264332</t>
+          <t>407-7211059-8815569</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6630,34 +6630,34 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-02-10T12:06:54+01:00</t>
+          <t>2026-02-11T15:04:12+01:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Saint Georges des Coteaux, FR, France</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2026-02-11T14:57:00+00:00</t>
+          <t>2026-02-11T16:57:53+00:00</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>05228742781764</t>
+          <t>05228742783321</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{"external_order_id": "404-6869722-6264332", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "407-7211059-8815569", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>05228742783446</t>
+          <t>05228742782226</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PO-069-15614301233272578</t>
+          <t>407-7211059-8815569</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6693,34 +6693,34 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-02-11T14:05:47+01:00</t>
+          <t>2026-02-10T15:08:36+01:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Gennevilliers, FR, France</t>
+          <t>Saint Georges des Coteaux, FR, France</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:58+00:00</t>
+          <t>2026-02-11T14:57:53+00:00</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>05228742783446</t>
+          <t>05228742782226</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-069-15614301233272578", "sales_office_id": "4672"}</t>
+          <t>{"external_order_id": "407-7211059-8815569", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>05228742780715</t>
+          <t>05228742783366</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PO-069-15614301233272578</t>
+          <t>0033005681557</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6756,34 +6756,34 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-02-10T15:48:19+01:00</t>
+          <t>2026-02-11T10:08:42+01:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Gennevilliers, FR, France</t>
+          <t>Labastide-Saint-Pierre, FR, France</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:55+00:00</t>
+          <t>2026-02-11T16:57:27+00:00</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>05228742780715</t>
+          <t>05228742783366</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-069-15614301233272578", "sales_office_id": "4672"}</t>
+          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>05228742783250</t>
+          <t>05228742782244</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>B2BDS10105716</t>
+          <t>B2BDS10077220</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6819,34 +6819,34 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-02-11T13:39:12+01:00</t>
+          <t>2026-02-11T11:52:59+01:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Lons, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2026-02-11T18:27:23+00:00</t>
+          <t>2026-02-11T17:57:27+00:00</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>05228742783250</t>
+          <t>05228742782244</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10105716", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>05228742781705</t>
+          <t>05228742781854</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>B2BDS10105716</t>
+          <t>B2BDS10077220</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6882,34 +6882,34 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-02-10T10:21:22+01:00</t>
+          <t>2026-02-10T11:41:55+01:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Lons, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:38+00:00</t>
+          <t>2026-02-11T10:57:11+00:00</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>05228742781705</t>
+          <t>05228742781854</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10105716", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>05228742783529</t>
+          <t>05228742781230</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B2BDS10066954</t>
+          <t>B2BDS10077220</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6945,34 +6945,34 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-02-11T11:03:31+01:00</t>
+          <t>2026-02-10T11:42:03+01:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Bondoufle, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:37+00:00</t>
+          <t>2026-02-11T10:57:06+00:00</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>05228742783529</t>
+          <t>05228742781230</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10066954", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10077220", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>05228742781247</t>
+          <t>05228742782288</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6992,12 +6992,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B2BDS10066954</t>
+          <t>0033005681557</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7008,34 +7008,34 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-02-10T11:27:35+01:00</t>
+          <t>2026-02-10T13:27:19+01:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Bondoufle, FR, France</t>
+          <t>Labastide-Saint-Pierre, FR, France</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:37+00:00</t>
+          <t>2026-02-11T10:57:18+00:00</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>05228742781247</t>
+          <t>05228742782288</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10066954", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>05228742782064</t>
+          <t>05228742781763</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0033005680922</t>
+          <t>0033005681557</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7071,34 +7071,34 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-02-10T15:59:47+01:00</t>
+          <t>2026-02-10T13:27:18+01:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Trappes, FR, France</t>
+          <t>Labastide-Saint-Pierre, FR, France</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:36+00:00</t>
+          <t>2026-02-11T10:57:08+00:00</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>05228742782064</t>
+          <t>05228742781763</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680922", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005681557", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>05228742784012</t>
+          <t>05228742784535</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7118,12 +7118,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>B2BDS10126611</t>
+          <t>404-6869722-6264332</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7134,34 +7134,34 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-02-11T09:50:55+01:00</t>
+          <t>2026-02-11T16:12:16+01:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>La Roche sur Yon, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:35+00:00</t>
+          <t>2026-02-11T20:57:11+00:00</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>05228742784012</t>
+          <t>05228742784535</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10126611", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "404-6869722-6264332", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>05228742784960</t>
+          <t>05228742781764</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>402-5688716-9209939</t>
+          <t>404-6869722-6264332</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7197,34 +7197,34 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-02-11T09:22:57+01:00</t>
+          <t>2026-02-10T12:06:54+01:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Fresnes, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:32+00:00</t>
+          <t>2026-02-11T14:57:00+00:00</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>05228742784960</t>
+          <t>05228742781764</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{"external_order_id": "402-5688716-9209939", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "404-6869722-6264332", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>05228742781492</t>
+          <t>05228742783446</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7244,12 +7244,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>B2BDS10115483</t>
+          <t>PO-069-15614301233272578</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4672</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7260,34 +7260,34 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-02-10T13:49:53+01:00</t>
+          <t>2026-02-11T14:05:47+01:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Saint Georges des Coteaux, FR, France</t>
+          <t>Gennevilliers, FR, France</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:31+00:00</t>
+          <t>2026-02-11T17:56:58+00:00</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>05228742781492</t>
+          <t>05228742783446</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10115483", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "PO-069-15614301233272578", "sales_office_id": "4672"}</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>05228742782631</t>
+          <t>05228742780715</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7307,12 +7307,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>B2BDS10115483</t>
+          <t>PO-069-15614301233272578</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4672</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7323,34 +7323,34 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-02-11T13:32:19+01:00</t>
+          <t>2026-02-10T15:48:19+01:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Saint Georges des Coteaux, FR, France</t>
+          <t>Gennevilliers, FR, France</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:45+00:00</t>
+          <t>2026-02-11T14:56:55+00:00</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>05228742782631</t>
+          <t>05228742780715</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10115483", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "PO-069-15614301233272578", "sales_office_id": "4672"}</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>05228742784275</t>
+          <t>05228742781705</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>B2BDS10067618</t>
+          <t>B2BDS10105716</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7386,34 +7386,34 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-02-11T09:41:47+01:00</t>
+          <t>2026-02-10T10:21:22+01:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Lons, FR, France</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:27+00:00</t>
+          <t>2026-02-11T10:56:38+00:00</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>05228742784275</t>
+          <t>05228742781705</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10105716", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>05228742781791</t>
+          <t>05228742783250</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>B2BDS10067618</t>
+          <t>B2BDS10105716</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7449,34 +7449,34 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-02-10T09:48:36+01:00</t>
+          <t>2026-02-11T13:39:12+01:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Lons, FR, France</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:28+00:00</t>
+          <t>2026-02-11T18:27:23+00:00</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>05228742781791</t>
+          <t>05228742783250</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10105716", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05228742784274</t>
+          <t>05228742783529</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>B2BDS10067618</t>
+          <t>B2BDS10066954</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7512,34 +7512,34 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-02-11T09:41:57+01:00</t>
+          <t>2026-02-11T11:03:31+01:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:27+00:00</t>
+          <t>2026-02-11T10:56:37+00:00</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>05228742784274</t>
+          <t>05228742783529</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10066954", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>05228742780500</t>
+          <t>05228742781247</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>B2BDS10067618</t>
+          <t>B2BDS10066954</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7575,34 +7575,34 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-02-10T09:48:38+01:00</t>
+          <t>2026-02-10T11:27:35+01:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Criqueboeuf SUR SEINE (FR), France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:39+00:00</t>
+          <t>2026-02-11T10:56:37+00:00</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>05228742780500</t>
+          <t>05228742781247</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10066954", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>05228742784770</t>
+          <t>05228742782064</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7622,12 +7622,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>B2BDS10067618</t>
+          <t>0033005680922</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7638,34 +7638,34 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-02-11T09:41:55+01:00</t>
+          <t>2026-02-10T15:59:47+01:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Trappes, FR, France</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:27+00:00</t>
+          <t>2026-02-11T10:56:36+00:00</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>05228742784770</t>
+          <t>05228742782064</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680922", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>05228742783355</t>
+          <t>05228742784012</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>B2BDS10120749</t>
+          <t>B2BDS10126611</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7701,34 +7701,34 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-02-11T12:25:56+01:00</t>
+          <t>2026-02-11T09:50:55+01:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Lons, FR, France</t>
+          <t>La Roche sur Yon, FR, France</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:29+00:00</t>
+          <t>2026-02-11T10:56:35+00:00</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>05228742783355</t>
+          <t>05228742784012</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10120749", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10126611", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>05228742784363</t>
+          <t>05228742781492</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>B2BDS10069271</t>
+          <t>B2BDS10115483</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7764,34 +7764,34 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-02-11T09:18:53+01:00</t>
+          <t>2026-02-10T13:49:53+01:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>St Andre les Vergers, FR, France</t>
+          <t>Saint Georges des Coteaux, FR, France</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:23+00:00</t>
+          <t>2026-02-11T10:56:31+00:00</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>05228742784363</t>
+          <t>05228742781492</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10115483", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>05228742784222</t>
+          <t>05228742784960</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7811,12 +7811,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>B2BDS10069271</t>
+          <t>402-5688716-9209939</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7827,34 +7827,34 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-02-11T09:18:54+01:00</t>
+          <t>2026-02-11T09:22:57+01:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>St Andre les Vergers, FR, France</t>
+          <t>Fresnes, FR, France</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:22+00:00</t>
+          <t>2026-02-11T10:56:32+00:00</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>05228742784222</t>
+          <t>05228742784960</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "402-5688716-9209939", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>05228742780554</t>
+          <t>05228742782631</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>B2BDS10069271</t>
+          <t>B2BDS10115483</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -7890,34 +7890,34 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-02-10T09:46:52+01:00</t>
+          <t>2026-02-11T13:32:19+01:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>St Andre les Vergers, FR, France</t>
+          <t>Saint Georges des Coteaux, FR, France</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:23+00:00</t>
+          <t>2026-02-11T18:26:45+00:00</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>05228742780554</t>
+          <t>05228742782631</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10115483", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>05228742785097</t>
+          <t>05228742784770</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7937,12 +7937,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0033005681564</t>
+          <t>B2BDS10067618</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7953,34 +7953,34 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-02-11T14:20:54+01:00</t>
+          <t>2026-02-11T09:41:55+01:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:27+00:00</t>
+          <t>2026-02-11T10:56:27+00:00</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>05228742785097</t>
+          <t>05228742784770</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>05228742785096</t>
+          <t>05228742784274</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8000,12 +8000,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0033005681564</t>
+          <t>B2BDS10067618</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8016,34 +8016,34 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-02-11T14:20:21+01:00</t>
+          <t>2026-02-11T09:41:57+01:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:32+00:00</t>
+          <t>2026-02-11T10:56:27+00:00</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>05228742785096</t>
+          <t>05228742784274</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>05228742781629</t>
+          <t>05228742780500</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8063,12 +8063,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0033005681564</t>
+          <t>B2BDS10067618</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8079,34 +8079,34 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-02-11T14:20:55+01:00</t>
+          <t>2026-02-10T09:48:38+01:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Criqueboeuf SUR SEINE (FR), France</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:33+00:00</t>
+          <t>2026-02-11T10:56:39+00:00</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>05228742781629</t>
+          <t>05228742780500</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>05228742781982</t>
+          <t>05228742781791</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0033005682274</t>
+          <t>B2BDS10067618</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8142,34 +8142,34 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-02-10T12:05:27+01:00</t>
+          <t>2026-02-10T09:48:36+01:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Bondoufle, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:19+00:00</t>
+          <t>2026-02-11T10:56:28+00:00</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>05228742781982</t>
+          <t>05228742781791</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682274", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>05228742784891</t>
+          <t>05228742784275</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8189,12 +8189,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>407-2346357-9677953</t>
+          <t>B2BDS10067618</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8205,34 +8205,34 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-02-11T16:13:41+01:00</t>
+          <t>2026-02-11T09:41:47+01:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Labastide-Saint-Pierre, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:32+00:00</t>
+          <t>2026-02-11T10:56:27+00:00</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>05228742784891</t>
+          <t>05228742784275</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-2346357-9677953", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10067618", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>05228742784953</t>
+          <t>05228742783355</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8252,12 +8252,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>402-0341357-7365916</t>
+          <t>B2BDS10120749</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8268,34 +8268,34 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-02-11T12:04:07+01:00</t>
+          <t>2026-02-11T12:25:56+01:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Séné, FR, France</t>
+          <t>Lons, FR, France</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2026-02-11T14:26:25+00:00</t>
+          <t>2026-02-11T13:56:29+00:00</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>05228742784953</t>
+          <t>05228742783355</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10120749", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>05228742784962</t>
+          <t>05228742784222</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8315,12 +8315,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>402-0341357-7365916</t>
+          <t>B2BDS10069271</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8331,34 +8331,34 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-02-11T12:04:22+01:00</t>
+          <t>2026-02-11T09:18:54+01:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Séné, FR, France</t>
+          <t>St Andre les Vergers, FR, France</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:24+00:00</t>
+          <t>2026-02-11T10:56:22+00:00</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>05228742784962</t>
+          <t>05228742784222</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>05228742785065</t>
+          <t>05228742780554</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8378,12 +8378,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>402-0341357-7365916</t>
+          <t>B2BDS10069271</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8394,34 +8394,34 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-02-11T12:04:47+01:00</t>
+          <t>2026-02-10T09:46:52+01:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Séné, FR, France</t>
+          <t>St Andre les Vergers, FR, France</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:25+00:00</t>
+          <t>2026-02-11T10:56:23+00:00</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>05228742785065</t>
+          <t>05228742780554</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>05228742782797</t>
+          <t>05228742784363</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>B2BDS10083722</t>
+          <t>B2BDS10069271</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -8457,7 +8457,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-02-11T11:41:15+01:00</t>
+          <t>2026-02-11T09:18:53+01:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8467,24 +8467,24 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:19+00:00</t>
+          <t>2026-02-11T10:56:23+00:00</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>05228742782797</t>
+          <t>05228742784363</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083722", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10069271", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>05228742781905</t>
+          <t>05228742785096</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>0033005681564</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8520,34 +8520,34 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-02-11T12:56:17+01:00</t>
+          <t>2026-02-11T14:20:21+01:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:20+00:00</t>
+          <t>2026-02-11T18:26:32+00:00</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>05228742781905</t>
+          <t>05228742785096</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>05228742781494</t>
+          <t>05228742785097</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8567,12 +8567,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>B2BDS10083722</t>
+          <t>0033005681564</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8583,34 +8583,34 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-02-10T11:49:51+01:00</t>
+          <t>2026-02-11T14:20:54+01:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>St Andre les Vergers, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:17+00:00</t>
+          <t>2026-02-11T17:56:27+00:00</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>05228742781494</t>
+          <t>05228742785097</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083722", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>05228742781906</t>
+          <t>05228742781629</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>0033005681564</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8646,34 +8646,34 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-02-11T12:55:16+01:00</t>
+          <t>2026-02-11T14:20:55+01:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:23+00:00</t>
+          <t>2026-02-11T18:26:33+00:00</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>05228742781906</t>
+          <t>05228742781629</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005681564", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>05228742783288</t>
+          <t>05228742781982</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>0033005682274</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8709,34 +8709,34 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-02-11T12:55:53+01:00</t>
+          <t>2026-02-10T12:05:27+01:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>Bondoufle, FR, France</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:19+00:00</t>
+          <t>2026-02-11T10:56:19+00:00</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>05228742783288</t>
+          <t>05228742781982</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005682274", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>05228742782425</t>
+          <t>05228742784891</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>M260287883652</t>
+          <t>407-2346357-9677953</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8772,34 +8772,34 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-02-10T14:04:36+01:00</t>
+          <t>2026-02-11T16:13:41+01:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Labastide-Saint-Pierre, FR, France</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:27+00:00</t>
+          <t>2026-02-11T20:56:35+00:00</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>05228742782425</t>
+          <t>05228742784891</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>{"external_order_id": "M260287883652", "sales_office_id": "4095"}</t>
+          <t>{"external_order_id": "407-2346357-9677953", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>05228742783908</t>
+          <t>05228742785065</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8819,12 +8819,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>402-0341357-7365916</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8835,34 +8835,34 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-02-11T12:55:47+01:00</t>
+          <t>2026-02-11T12:04:47+01:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>Séné, FR, France</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:21+00:00</t>
+          <t>2026-02-11T18:26:25+00:00</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>05228742783908</t>
+          <t>05228742785065</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>05228742782460</t>
+          <t>05228742784962</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8882,12 +8882,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>M260287883652</t>
+          <t>402-0341357-7365916</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8898,34 +8898,34 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-02-10T14:04:25+01:00</t>
+          <t>2026-02-11T12:04:22+01:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Séné, FR, France</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:15+00:00</t>
+          <t>2026-02-11T17:56:24+00:00</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>05228742782460</t>
+          <t>05228742784962</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>{"external_order_id": "M260287883652", "sales_office_id": "4095"}</t>
+          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>05228742782627</t>
+          <t>05228742784953</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8945,12 +8945,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>402-0341357-7365916</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8961,34 +8961,34 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-02-11T12:56:02+01:00</t>
+          <t>2026-02-11T12:04:07+01:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>Séné, FR, France</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:23+00:00</t>
+          <t>2026-02-11T14:26:25+00:00</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>05228742782627</t>
+          <t>05228742784953</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "402-0341357-7365916", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>05228742782685</t>
+          <t>05228742781906</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9024,7 +9024,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-02-11T12:55:17+01:00</t>
+          <t>2026-02-11T12:55:16+01:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9034,12 +9034,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:20+00:00</t>
+          <t>2026-02-11T13:56:23+00:00</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>05228742782685</t>
+          <t>05228742781906</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9051,7 +9051,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>05228742782684</t>
+          <t>05228742781494</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9071,12 +9071,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>B2BDS10083722</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9087,34 +9087,34 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-02-11T12:56:00+01:00</t>
+          <t>2026-02-10T11:49:51+01:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>St Andre les Vergers, FR, France</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:22+00:00</t>
+          <t>2026-02-11T10:56:17+00:00</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>05228742782684</t>
+          <t>05228742781494</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10083722", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>05228742783909</t>
+          <t>05228742782797</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9134,12 +9134,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0033005681029</t>
+          <t>B2BDS10083722</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9150,34 +9150,34 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-02-11T12:55:40+01:00</t>
+          <t>2026-02-11T11:41:15+01:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Boulazac, FR, France</t>
+          <t>St Andre les Vergers, FR, France</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:18+00:00</t>
+          <t>2026-02-11T10:56:19+00:00</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>05228742783909</t>
+          <t>05228742782797</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10083722", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>05228742782273</t>
+          <t>05228742781905</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9213,7 +9213,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-02-10T13:30:40+01:00</t>
+          <t>2026-02-11T12:56:17+01:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9223,12 +9223,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:17+00:00</t>
+          <t>2026-02-11T13:56:20+00:00</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>05228742782273</t>
+          <t>05228742781905</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -9240,7 +9240,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>05228742781999</t>
+          <t>05228742782627</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9260,12 +9260,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B2BDS10121570</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9276,34 +9276,34 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-02-10T13:52:02+01:00</t>
+          <t>2026-02-11T12:56:02+01:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Montevrain, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:18+00:00</t>
+          <t>2026-02-11T13:56:23+00:00</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>05228742781999</t>
+          <t>05228742782627</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10121570", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>05228742783236</t>
+          <t>05228742782460</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -9323,12 +9323,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0033005681054</t>
+          <t>M260287883652</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4095</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9339,12 +9339,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-02-11T11:03:00+01:00</t>
+          <t>2026-02-10T14:04:25+01:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Tresses, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -9354,19 +9354,19 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>05228742783236</t>
+          <t>05228742782460</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681054", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "M260287883652", "sales_office_id": "4095"}</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>05228742783065</t>
+          <t>05228742782685</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -9386,12 +9386,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PO-069-15435448914551788</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9402,34 +9402,34 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-02-11T10:57:25+01:00</t>
+          <t>2026-02-11T12:55:17+01:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Trappes, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:18+00:00</t>
+          <t>2026-02-11T13:56:20+00:00</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>05228742783065</t>
+          <t>05228742782685</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-069-15435448914551788", "sales_office_id": "4672"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>05228742783205</t>
+          <t>05228742783908</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0033005681054</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9465,34 +9465,34 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-02-11T11:03:16+01:00</t>
+          <t>2026-02-11T12:55:47+01:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Tresses, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:19+00:00</t>
+          <t>2026-02-11T13:56:21+00:00</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>05228742783205</t>
+          <t>05228742783908</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005681054", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>05228742781988</t>
+          <t>05228742782425</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -9512,12 +9512,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PO-069-15435448914551788</t>
+          <t>M260287883652</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>4095</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9528,34 +9528,34 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-10T10:46:21+01:00</t>
+          <t>2026-02-10T14:04:36+01:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Trappes, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:23+00:00</t>
+          <t>2026-02-11T10:56:27+00:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>05228742781988</t>
+          <t>05228742782425</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>{"external_order_id": "PO-069-15435448914551788", "sales_office_id": "4672"}</t>
+          <t>{"external_order_id": "M260287883652", "sales_office_id": "4095"}</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>05228742784699</t>
+          <t>05228742783288</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -9575,12 +9575,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>9002503101-A</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9591,34 +9591,34 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-11T10:17:37+01:00</t>
+          <t>2026-02-11T12:55:53+01:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Tresses, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:16+00:00</t>
+          <t>2026-02-11T13:56:19+00:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>05228742784699</t>
+          <t>05228742783288</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>{"external_order_id": "9002503101-A", "sales_office_id": "4152"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>05228742784789</t>
+          <t>05228742782684</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -9638,12 +9638,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>9002503101-A</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -9654,34 +9654,34 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-11T10:17:27+01:00</t>
+          <t>2026-02-11T12:56:00+01:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Tresses, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:16+00:00</t>
+          <t>2026-02-11T13:56:22+00:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>05228742784789</t>
+          <t>05228742782684</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>{"external_order_id": "9002503101-A", "sales_office_id": "4152"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>05228742783875</t>
+          <t>05228742781999</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>B2BDS10081558</t>
+          <t>B2BDS10121570</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9717,34 +9717,34 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-11T12:57:01+01:00</t>
+          <t>2026-02-10T13:52:02+01:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Montevrain, FR, France</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-11T13:56:16+00:00</t>
+          <t>2026-02-11T14:56:18+00:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>05228742783875</t>
+          <t>05228742781999</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10121570", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>05228742781326</t>
+          <t>05228742782273</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -9764,12 +9764,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>B2BDS10081558</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9780,34 +9780,34 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-10T11:47:03+01:00</t>
+          <t>2026-02-10T13:30:40+01:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:10+00:00</t>
+          <t>2026-02-11T10:56:17+00:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>05228742781326</t>
+          <t>05228742782273</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>05228742783896</t>
+          <t>05228742783909</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>B2BDS10081558</t>
+          <t>0033005681029</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9843,34 +9843,34 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-11T12:56:59+01:00</t>
+          <t>2026-02-11T12:55:40+01:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Boulazac, FR, France</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:17+00:00</t>
+          <t>2026-02-11T13:56:18+00:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>05228742783896</t>
+          <t>05228742783909</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681029", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>05228742783595</t>
+          <t>05228742783205</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>B2BDS10068013</t>
+          <t>0033005681054</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9906,34 +9906,34 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-11T09:49:34+01:00</t>
+          <t>2026-02-11T11:03:16+01:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Vars, FR, France</t>
+          <t>Tresses, FR, France</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:17+00:00</t>
+          <t>2026-02-11T14:56:19+00:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>05228742783595</t>
+          <t>05228742783205</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10068013", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005681054", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>05228742780541</t>
+          <t>05228742783065</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9953,12 +9953,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>B2BDS10068013</t>
+          <t>PO-069-15435448914551788</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4672</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9969,34 +9969,34 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-10T11:04:02+01:00</t>
+          <t>2026-02-11T10:57:25+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Vars, FR, France</t>
+          <t>Trappes, FR, France</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:17+00:00</t>
+          <t>2026-02-11T14:56:18+00:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>05228742780541</t>
+          <t>05228742783065</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10068013", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "PO-069-15435448914551788", "sales_office_id": "4672"}</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>05228742783367</t>
+          <t>05228742783236</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -10016,12 +10016,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>407-5427801-2581952</t>
+          <t>0033005681054</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10032,34 +10032,34 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-11T13:14:59+01:00</t>
+          <t>2026-02-11T11:03:00+01:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Tresses, FR, France</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:15+00:00</t>
+          <t>2026-02-11T10:56:15+00:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>05228742783367</t>
+          <t>05228742783236</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0033005681054", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>05228742784674</t>
+          <t>05228742781988</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -10079,12 +10079,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>407-5427801-2581952</t>
+          <t>PO-069-15435448914551788</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4672</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -10095,34 +10095,34 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-11T13:14:46+01:00</t>
+          <t>2026-02-10T10:46:21+01:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Trappes, FR, France</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:21+00:00</t>
+          <t>2026-02-11T10:56:23+00:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>05228742784674</t>
+          <t>05228742781988</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "PO-069-15435448914551788", "sales_office_id": "4672"}</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>05228742781414</t>
+          <t>05228742784789</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -10142,12 +10142,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>407-5427801-2581952</t>
+          <t>9002503101-A</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10158,34 +10158,34 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-10T11:31:07+01:00</t>
+          <t>2026-02-11T10:17:27+01:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Tresses, FR, France</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:12+00:00</t>
+          <t>2026-02-11T13:56:16+00:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>05228742781414</t>
+          <t>05228742784789</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "9002503101-A", "sales_office_id": "4152"}</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>05228742781413</t>
+          <t>05228742784699</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>407-5427801-2581952</t>
+          <t>9002503101-A</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10221,34 +10221,34 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-10T11:30:48+01:00</t>
+          <t>2026-02-11T10:17:37+01:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Tresses, FR, France</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-11T10:56:06+00:00</t>
+          <t>2026-02-11T13:56:16+00:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>05228742781413</t>
+          <t>05228742784699</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "9002503101-A", "sales_office_id": "4152"}</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>05228742783829</t>
+          <t>05228742781326</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -10268,12 +10268,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>B2BDS10081558</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10284,34 +10284,34 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-11T12:44:56+01:00</t>
+          <t>2026-02-10T11:47:03+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:09+00:00</t>
+          <t>2026-02-11T10:56:10+00:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>05228742783829</t>
+          <t>05228742781326</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>05228742783830</t>
+          <t>05228742783896</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -10331,12 +10331,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>B2BDS10081558</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10347,34 +10347,34 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-11T12:44:26+01:00</t>
+          <t>2026-02-11T12:56:59+01:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:08+00:00</t>
+          <t>2026-02-11T17:56:17+00:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>05228742783830</t>
+          <t>05228742783896</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>05228742782410</t>
+          <t>05228742783595</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -10394,12 +10394,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>B2BDS10068013</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10410,34 +10410,34 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-10T14:15:20+01:00</t>
+          <t>2026-02-11T09:49:34+01:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Vars, FR, France</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:03+00:00</t>
+          <t>2026-02-11T14:56:17+00:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>05228742782410</t>
+          <t>05228742783595</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10068013", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>05228742782411</t>
+          <t>05228742783875</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -10457,12 +10457,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>B2BDS10081558</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10473,34 +10473,34 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-10T14:15:35+01:00</t>
+          <t>2026-02-11T12:57:01+01:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:03+00:00</t>
+          <t>2026-02-11T13:56:16+00:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>05228742782411</t>
+          <t>05228742783875</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081558", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>05228742782409</t>
+          <t>05228742780541</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -10520,12 +10520,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>B2BDS10068013</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10536,34 +10536,34 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-10T14:15:23+01:00</t>
+          <t>2026-02-10T11:04:02+01:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Vars, FR, France</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:04+00:00</t>
+          <t>2026-02-11T14:56:17+00:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>05228742782409</t>
+          <t>05228742780541</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10068013", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>05228742783828</t>
+          <t>05228742783367</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>407-5427801-2581952</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -10599,34 +10599,34 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-02-11T12:45:00+01:00</t>
+          <t>2026-02-11T13:14:59+01:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:15+00:00</t>
+          <t>2026-02-11T16:56:15+00:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>05228742783828</t>
+          <t>05228742783367</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>05228742783827</t>
+          <t>05228742784674</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -10646,12 +10646,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>407-5427801-2581952</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10662,34 +10662,34 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-02-11T12:45:07+01:00</t>
+          <t>2026-02-11T13:14:46+01:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:09+00:00</t>
+          <t>2026-02-11T16:56:21+00:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>05228742783827</t>
+          <t>05228742784674</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>05228742782618</t>
+          <t>05228742781414</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -10709,12 +10709,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>407-5427801-2581952</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10725,34 +10725,34 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-02-11T12:44:20+01:00</t>
+          <t>2026-02-10T11:31:07+01:00</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-11T17:56:09+00:00</t>
+          <t>2026-02-11T10:56:12+00:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>05228742782618</t>
+          <t>05228742781414</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>05228742782617</t>
+          <t>05228742781413</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0033005680832</t>
+          <t>407-5427801-2581952</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -10788,34 +10788,34 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-11T12:44:32+01:00</t>
+          <t>2026-02-10T11:30:48+01:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Ussac, FR, France</t>
+          <t>Rouvignies, FR, France</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-11T18:26:09+00:00</t>
+          <t>2026-02-11T10:56:06+00:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>05228742782617</t>
+          <t>05228742781413</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-5427801-2581952", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>05228742783257</t>
+          <t>05228742783830</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10835,12 +10835,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>B2BDS10081336</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -10851,34 +10851,34 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-11T10:15:08+01:00</t>
+          <t>2026-02-11T12:44:26+01:00</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Paris, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:01+00:00</t>
+          <t>2026-02-11T17:56:08+00:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>05228742783257</t>
+          <t>05228742783830</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>05228742781124</t>
+          <t>05228742783829</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10898,12 +10898,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>B2BDS10083459</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10914,34 +10914,34 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-02-10T10:33:17+01:00</t>
+          <t>2026-02-11T12:44:56+01:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Vars, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:00+00:00</t>
+          <t>2026-02-11T17:56:09+00:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>05228742781124</t>
+          <t>05228742783829</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083459", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>05228742783564</t>
+          <t>05228742782409</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -10961,12 +10961,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>B2BDS10081336</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -10977,34 +10977,34 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-02-11T10:15:06+01:00</t>
+          <t>2026-02-10T14:15:23+01:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Paris, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-11T15:26:04+00:00</t>
+          <t>2026-02-11T14:56:04+00:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>05228742783564</t>
+          <t>05228742782409</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>05228742784889</t>
+          <t>05228742782410</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -11024,12 +11024,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B2BDS10083459</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11040,34 +11040,34 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-11T10:27:07+01:00</t>
+          <t>2026-02-10T14:15:20+01:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Vars, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:01+00:00</t>
+          <t>2026-02-11T14:56:03+00:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>05228742784889</t>
+          <t>05228742782410</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083459", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>05228742782294</t>
+          <t>05228742783828</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -11087,12 +11087,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B2BDS10081336</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11103,34 +11103,34 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-10T10:42:35+01:00</t>
+          <t>2026-02-11T12:45:00+01:00</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Paris, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:00+00:00</t>
+          <t>2026-02-11T17:56:15+00:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>05228742782294</t>
+          <t>05228742783828</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>05228742781269</t>
+          <t>05228742782411</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -11150,12 +11150,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>B2BDS10076042</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11166,34 +11166,34 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-02-10T14:35:20+01:00</t>
+          <t>2026-02-10T14:15:35+01:00</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Saint-Barthelemy d'Anjou, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:01+00:00</t>
+          <t>2026-02-11T14:56:03+00:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>05228742781269</t>
+          <t>05228742782411</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10076042", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>05228742781806</t>
+          <t>05228742783827</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -11213,12 +11213,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>B2BDS10081733</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11229,34 +11229,34 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-02-11T16:04:03+01:00</t>
+          <t>2026-02-11T12:45:07+01:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>La Creche, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:01+00:00</t>
+          <t>2026-02-11T17:56:09+00:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>05228742781806</t>
+          <t>05228742783827</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081733", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>05228742783272</t>
+          <t>05228742782618</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>407-8570891-8810711</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -11292,34 +11292,34 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-02-11T10:25:38+01:00</t>
+          <t>2026-02-11T12:44:20+01:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Criqueboeuf sur Seine, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:04+00:00</t>
+          <t>2026-02-11T17:56:09+00:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>05228742783272</t>
+          <t>05228742782618</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-8570891-8810711", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>05228742780522</t>
+          <t>05228742782617</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>B2BDS10081733</t>
+          <t>0033005680832</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -11355,34 +11355,34 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-02-10T15:31:09+01:00</t>
+          <t>2026-02-11T12:44:32+01:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>La Creche, FR, France</t>
+          <t>Ussac, FR, France</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:58+00:00</t>
+          <t>2026-02-11T18:26:09+00:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>05228742780522</t>
+          <t>05228742782617</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081733", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005680832", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>05228742783137</t>
+          <t>05228742783257</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -11402,12 +11402,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>407-3432774-2217965</t>
+          <t>B2BDS10081336</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -11418,34 +11418,34 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-02-11T13:26:15+01:00</t>
+          <t>2026-02-11T10:15:08+01:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Paris, FR, France</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:18+00:00</t>
+          <t>2026-02-11T14:56:01+00:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>05228742783137</t>
+          <t>05228742783257</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>{"external_order_id": "407-3432774-2217965", "sales_office_id": "4561"}</t>
+          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>05228742783475</t>
+          <t>05228742784889</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -11465,12 +11465,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10083459</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -11481,34 +11481,34 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-11T11:01:26+01:00</t>
+          <t>2026-02-11T10:27:07+01:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Vars, FR, France</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:57+00:00</t>
+          <t>2026-02-11T14:56:01+00:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>05228742783475</t>
+          <t>05228742784889</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10083459", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>05228742783474</t>
+          <t>05228742782294</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10081336</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -11544,34 +11544,34 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-02-11T11:00:16+01:00</t>
+          <t>2026-02-10T10:42:35+01:00</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Paris, FR, France</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:56+00:00</t>
+          <t>2026-02-11T14:56:00+00:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>05228742783474</t>
+          <t>05228742782294</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>05228742781992</t>
+          <t>05228742781124</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>B2BDS10116203</t>
+          <t>B2BDS10083459</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11607,34 +11607,34 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-10T11:09:49+01:00</t>
+          <t>2026-02-10T10:33:17+01:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Vars, FR, France</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:59+00:00</t>
+          <t>2026-02-11T14:56:00+00:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>05228742781992</t>
+          <t>05228742781124</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10116203", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10083459", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>05228742783813</t>
+          <t>05228742783564</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>B2BDS10116203</t>
+          <t>B2BDS10081336</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -11670,34 +11670,34 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-11T14:52:58+01:00</t>
+          <t>2026-02-11T10:15:06+01:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Paris, FR, France</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:04+00:00</t>
+          <t>2026-02-11T15:26:04+00:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>05228742783813</t>
+          <t>05228742783564</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10116203", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10081336", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>05228742783016</t>
+          <t>05228742781269</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -11717,12 +11717,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10076042</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -11733,34 +11733,34 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-02-11T11:02:02+01:00</t>
+          <t>2026-02-10T14:35:20+01:00</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Saint-Barthelemy d'Anjou, FR, France</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:57+00:00</t>
+          <t>2026-02-11T14:56:01+00:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>05228742783016</t>
+          <t>05228742781269</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10076042", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>05228742782251</t>
+          <t>05228742781806</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10081733</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -11796,34 +11796,34 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-02-11T11:00:54+01:00</t>
+          <t>2026-02-11T16:04:03+01:00</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>La Creche, FR, France</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:57+00:00</t>
+          <t>2026-02-11T20:56:06+00:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>05228742782251</t>
+          <t>05228742781806</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081733", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>05228742782873</t>
+          <t>05228742783272</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>407-8570891-8810711</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -11859,34 +11859,34 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-02-11T11:01:53+01:00</t>
+          <t>2026-02-11T10:25:38+01:00</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Criqueboeuf sur Seine, FR, France</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:59+00:00</t>
+          <t>2026-02-11T14:56:04+00:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>05228742782873</t>
+          <t>05228742783272</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-8570891-8810711", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>05228742783213</t>
+          <t>05228742783137</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -11906,12 +11906,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>407-3432774-2217965</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -11922,34 +11922,34 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-02-11T11:00:49+01:00</t>
+          <t>2026-02-11T13:26:15+01:00</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:54+00:00</t>
+          <t>2026-02-11T20:56:22+00:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>05228742783213</t>
+          <t>05228742783137</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "407-3432774-2217965", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>05228742781861</t>
+          <t>05228742780522</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -11969,12 +11969,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10081733</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -11985,34 +11985,34 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-11T11:02:12+01:00</t>
+          <t>2026-02-10T15:31:09+01:00</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Billy Berclau, FR, France</t>
+          <t>La Creche, FR, France</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:59+00:00</t>
+          <t>2026-02-11T14:55:58+00:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>05228742781861</t>
+          <t>05228742780522</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10081733", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>05228742781737</t>
+          <t>05228742783474</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -12048,7 +12048,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2026-02-11T11:00:17+01:00</t>
+          <t>2026-02-11T11:00:16+01:00</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>05228742781737</t>
+          <t>05228742783474</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12075,7 +12075,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>05228742783636</t>
+          <t>05228742783813</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -12095,12 +12095,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0033005682077</t>
+          <t>B2BDS10116203</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12111,7 +12111,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2026-02-11T10:59:49+01:00</t>
+          <t>2026-02-11T14:52:58+01:00</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12121,24 +12121,24 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:58+00:00</t>
+          <t>2026-02-11T20:56:08+00:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>05228742783636</t>
+          <t>05228742783813</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "B2BDS10116203", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>05228742784430</t>
+          <t>05228742781992</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>B2BDS10073185</t>
+          <t>B2BDS10116203</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12174,34 +12174,34 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-11T10:34:58+01:00</t>
+          <t>2026-02-10T11:09:49+01:00</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Chartres, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:55+00:00</t>
+          <t>2026-02-11T14:55:59+00:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>05228742784430</t>
+          <t>05228742781992</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10116203", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>05228742780450</t>
+          <t>05228742783475</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -12221,12 +12221,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>B2BDS10083256</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -12237,34 +12237,34 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-10T18:43:51+01:00</t>
+          <t>2026-02-11T11:01:26+01:00</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:55+00:00</t>
+          <t>2026-02-11T14:55:57+00:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>05228742780450</t>
+          <t>05228742783475</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083256", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>05228742783882</t>
+          <t>05228742782873</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -12284,12 +12284,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>B2BDS10083256</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12300,34 +12300,34 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2026-02-11T11:19:11+01:00</t>
+          <t>2026-02-11T11:01:53+01:00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Amblainville, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-11T14:56:00+00:00</t>
+          <t>2026-02-11T14:55:59+00:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>05228742783882</t>
+          <t>05228742782873</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10083256", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>05228742781306</t>
+          <t>05228742781861</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -12347,12 +12347,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>B2BDS10073185</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12363,34 +12363,34 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2026-02-10T10:14:58+01:00</t>
+          <t>2026-02-11T11:02:12+01:00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Chartres, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:54+00:00</t>
+          <t>2026-02-11T14:55:59+00:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>05228742781306</t>
+          <t>05228742781861</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>05228742785223</t>
+          <t>05228742782251</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>0033005683262</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -12426,34 +12426,34 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-11T14:18:26+01:00</t>
+          <t>2026-02-11T11:00:54+01:00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Fresnes, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-11T17:55:58+00:00</t>
+          <t>2026-02-11T14:55:57+00:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>05228742785223</t>
+          <t>05228742782251</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005683262", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>05228742781016</t>
+          <t>05228742781737</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -12473,12 +12473,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>B2BDS10073185</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -12489,34 +12489,34 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2026-02-10T10:15:09+01:00</t>
+          <t>2026-02-11T11:00:17+01:00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Chartres, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:57+00:00</t>
+          <t>2026-02-11T14:55:56+00:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>05228742781016</t>
+          <t>05228742781737</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>05228742781113</t>
+          <t>05228742783016</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -12536,12 +12536,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>B2BDS10055581</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12552,34 +12552,34 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-10T11:52:22+01:00</t>
+          <t>2026-02-11T11:02:02+01:00</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>ROUVIGNIES (FR), France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-11T10:55:49+00:00</t>
+          <t>2026-02-11T14:55:57+00:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>05228742781113</t>
+          <t>05228742783016</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10055581", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>05228742784839</t>
+          <t>05228742783213</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -12599,12 +12599,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>B2BDS10055581</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -12615,34 +12615,34 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2026-02-11T10:54:24+01:00</t>
+          <t>2026-02-11T11:00:49+01:00</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-11T14:55:56+00:00</t>
+          <t>2026-02-11T14:55:54+00:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>05228742784839</t>
+          <t>05228742783213</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10055581", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>05228742785222</t>
+          <t>05228742783636</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0033005683262</t>
+          <t>0033005682077</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -12678,34 +12678,34 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2026-02-11T14:18:24+01:00</t>
+          <t>2026-02-11T10:59:49+01:00</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Fresnes, FR, France</t>
+          <t>Billy Berclau, FR, France</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:01+00:00</t>
+          <t>2026-02-11T14:55:58+00:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>05228742785222</t>
+          <t>05228742783636</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0033005683262", "sales_office_id": "0302"}</t>
+          <t>{"external_order_id": "0033005682077", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>05228742783243</t>
+          <t>05228742784430</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>B2BDS10081539</t>
+          <t>B2BDS10073185</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -12741,34 +12741,34 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2026-02-11T16:50:29+01:00</t>
+          <t>2026-02-11T10:34:58+01:00</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Chartres, FR, France</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-11T16:56:53+00:00</t>
+          <t>2026-02-11T14:55:55+00:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>05228742783243</t>
+          <t>05228742784430</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081539", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>05228742784179</t>
+          <t>05228742783882</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>B2BDS10081539</t>
+          <t>B2BDS10083256</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -12804,34 +12804,34 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-11T16:50:27+01:00</t>
+          <t>2026-02-11T11:19:11+01:00</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-11T16:26:38+00:00</t>
+          <t>2026-02-11T14:56:00+00:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>05228742784179</t>
+          <t>05228742783882</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081539", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10083256", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>05228742781328</t>
+          <t>05228742780450</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>B2BDS10081539</t>
+          <t>B2BDS10083256</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -12867,34 +12867,34 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-10T12:00:26+01:00</t>
+          <t>2026-02-10T18:43:51+01:00</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Rouvignies, FR, France</t>
+          <t>Amblainville, FR, France</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-11T10:55:44+00:00</t>
+          <t>2026-02-11T14:55:55+00:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>05228742781328</t>
+          <t>05228742780450</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10081539", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10083256", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>05228742781874</t>
+          <t>05228742781306</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>B2BDS10117443</t>
+          <t>B2BDS10073185</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -12930,34 +12930,34 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2026-02-10T09:33:42+01:00</t>
+          <t>2026-02-10T10:14:58+01:00</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>St Geours de Maremne, FR, France</t>
+          <t>Chartres, FR, France</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-11T10:55:44+00:00</t>
+          <t>2026-02-11T14:55:54+00:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>05228742781874</t>
+          <t>05228742781306</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10117443", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>05228742781446</t>
+          <t>05228742785223</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -12977,12 +12977,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>B2BDS10118675</t>
+          <t>0033005683262</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12993,34 +12993,34 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-10T11:37:13+01:00</t>
+          <t>2026-02-11T14:18:26+01:00</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Ballan Mire, FR, France</t>
+          <t>Fresnes, FR, France</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-11T10:55:38+00:00</t>
+          <t>2026-02-11T17:55:58+00:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>05228742781446</t>
+          <t>05228742785223</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10118675", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "0033005683262", "sales_office_id": "0302"}</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>05228742782435</t>
+          <t>05228742781016</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>B2BDS10118675</t>
+          <t>B2BDS10073185</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -13056,27 +13056,27 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-11T12:33:44+01:00</t>
+          <t>2026-02-10T10:15:09+01:00</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Ballan Mire, FR, France</t>
+          <t>Chartres, FR, France</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-11T13:55:43+00:00</t>
+          <t>2026-02-11T14:55:57+00:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>05228742782435</t>
+          <t>05228742781016</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10118675", "sales_office_id": "4452"}</t>
+          <t>{"external_order_id": "B2BDS10073185", "sales_office_id": "4452"}</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0031009883883</t>
+          <t>0031009887790</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -527,44 +527,44 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-12T14:28:19+01:00</t>
+          <t>2026-02-12T13:33:23+01:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:45+00:00</t>
+          <t>2026-02-12T19:33:37+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009883883", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009887790", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C0000M3CR3</t>
+          <t>0031009887580</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -590,44 +590,44 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-12T14:13:43+01:00</t>
+          <t>2026-02-12T11:29:10+01:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:44+00:00</t>
+          <t>2026-02-12T19:33:37+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"external_order_id": "C0000M3CR3", "sales_office_id": "4002"}</t>
+          <t>{"external_order_id": "0031009887580", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>0032005538401</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,44 +653,44 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T14:33:36+01:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:37+00:00</t>
+          <t>2026-02-12T15:19:36+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538401", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -716,44 +716,44 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-12T14:43:26+00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -779,44 +779,44 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-12T14:43:23+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0032005538723</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -842,44 +842,44 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-02-12T13:05:30+01:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-12T13:48:55+00:00</t>
+          <t>2026-02-12T14:43:22+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538723", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>00KLOKBI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009883883</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -905,44 +905,44 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T14:28:19+01:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:44+00:00</t>
+          <t>2026-02-12T13:50:45+00:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>00KLOKBI</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009883883", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>00KLOKIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>C0000M3CR3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -968,44 +968,44 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T14:13:43+01:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T13:50:44+00:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>00KLOKIX</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "C0000M3CR3", "sales_office_id": "4002"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>00KLOK0C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1031,44 +1031,44 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T13:50:38+00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>00KLOK0C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>00KLOK0B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1094,44 +1094,44 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-12T13:47:11+00:00</t>
+          <t>2026-02-12T13:50:38+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>00KLOK0B</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009885087</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1157,44 +1157,44 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T16:21:03+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T15:50:46+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1220,34 +1220,34 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T13:50:37+00:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>ZI679A2Q</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0032005538723</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1283,7 +1283,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-12T13:05:30+01:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1293,34 +1293,34 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-12T13:47:18+00:00</t>
+          <t>2026-02-12T13:48:55+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>ZI679A2Q</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538723", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>ZI679A0S</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0035000329275</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1346,44 +1346,44 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-11T12:20:19+02:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>GR. TRYAVNA</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:38+00:00</t>
+          <t>2026-02-12T14:23:44+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>ZI679A0S</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0035000329275</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1409,44 +1409,44 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-11T12:19:10+02:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>GR. TRYAVNA</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:33+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B2BDS10274721</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1472,44 +1472,44 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-12T11:46:28+01:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Nürnberg (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:56+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10274721", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>ZI6799VX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B2BDS10352342</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,44 +1535,44 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-12T11:55:56+01:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Vechta (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:57+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>ZI6799VX</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10352342", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1582,12 +1582,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0049010119934</t>
+          <t>0032005538512</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1598,44 +1598,44 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-12T09:58:39+01:00</t>
+          <t>2026-02-12T12:37:12+01:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Marl (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:54+00:00</t>
+          <t>2026-02-12T13:47:11+00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010119934", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>ZI6799VW</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0049010121495</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1661,44 +1661,44 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-12T09:57:19+01:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Staufenberg-Mainzlar (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:53+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>ZI6799VW</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010121495", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>ZI679A0N</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B2BDS10319197</t>
+          <t>0032005538512</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1724,44 +1724,44 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-12T14:07:10+01:00</t>
+          <t>2026-02-12T12:37:12+01:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hamm (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-12T13:25:02+00:00</t>
+          <t>2026-02-12T13:47:18+00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>ZI679A0N</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10319197", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>81225941052</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-ro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD Romania</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0032005538893</t>
+          <t>0035000329275</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1787,44 +1787,44 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-12T10:37:53+01:00</t>
+          <t>2026-02-11T12:19:10+02:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>GR. TRYAVNA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-12T09:49:51+00:00</t>
+          <t>2026-02-12T12:20:33+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>81225941052</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538893", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd-ro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD Romania</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>306-8489285-5583505</t>
+          <t>0035000329275</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1850,44 +1850,44 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-12T10:54:16+01:00</t>
+          <t>2026-02-11T12:20:19+02:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aichach (DE), Germany</t>
+          <t>GR. TRYAVNA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-12T11:05:34+00:00</t>
+          <t>2026-02-12T12:20:38+00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"external_order_id": "306-8489285-5583505", "sales_office_id": "4263"}</t>
+          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>01475240751129</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,56 +1897,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6001609505</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>B2BDS10274721</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-11T11:58:21-08:00</t>
+          <t>2026-02-12T11:46:28+01:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>REDLANDS, CA, 92374, US, United States</t>
+          <t>Nürnberg (DE), Germany</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-12T12:14:08+00:00</t>
+          <t>2026-02-12T11:19:56+00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>01475240751129</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{"external_order_id": "B2BDS10274721", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>996011434800723580</t>
+          <t>01475240752190</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1956,56 +1960,60 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6001610445</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>B2BDS10352342</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-12T10:27:29+01:00</t>
+          <t>2026-02-12T11:55:56+01:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>Vechta (DE), Germany</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-12T10:14:17+00:00</t>
+          <t>2026-02-12T12:19:57+00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>996011434800723580</t>
+          <t>01475240752190</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"external_order_id": "B2BDS10352342", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>REC000079529847</t>
+          <t>01475240751496</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2015,52 +2023,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6001610429</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>0049010119934</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:00</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>2026-02-12T09:58:39+01:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Marl (DE), Germany</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:36+00:00</t>
+          <t>2026-02-12T11:19:54+00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>REC000079529847</t>
+          <t>01475240751496</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "0049010119934", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REC000079527079</t>
+          <t>01475240752147</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2070,52 +2086,60 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6001610114</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>0049010121495</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-12T13:32:00</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>2026-02-12T09:57:19+01:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Staufenberg-Mainzlar (DE), Germany</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:17+00:00</t>
+          <t>2026-02-12T12:19:53+00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>REC000079527079</t>
+          <t>01475240752147</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "0049010121495", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>REC000079538267</t>
+          <t>01475240752249</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2125,52 +2149,60 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6001611040</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>B2BDS10319197</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-12T13:25:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>2026-02-12T14:07:10+01:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Hamm (DE), Germany</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:18+00:00</t>
+          <t>2026-02-12T13:25:02+00:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>REC000079538267</t>
+          <t>01475240752249</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "B2BDS10319197", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>REC000079529395</t>
+          <t>ZI6799ZD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2180,52 +2212,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6001610352</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>0032005538893</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-12T11:09:00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>2026-02-12T10:37:53+01:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>BE, Belgium</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-12T11:20:15+00:00</t>
+          <t>2026-02-12T09:49:51+00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>REC000079529395</t>
+          <t>ZI6799ZD</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "0032005538893", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>REC000079558194</t>
+          <t>01475240751348</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2235,52 +2275,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6001611704</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>306-8489285-5583505</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-12T13:58:00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>2026-02-12T10:54:16+01:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Aichach (DE), Germany</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:36+00:00</t>
+          <t>2026-02-12T11:05:34+00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>REC000079558194</t>
+          <t>01475240751348</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "306-8489285-5583505", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>REC000079523653</t>
+          <t>1Z0JA1729022187602</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2290,7 +2338,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6001609533</t>
+          <t>6001609505</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2302,23 +2350,27 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-12T13:18:00</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>2026-02-11T11:58:21-08:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>REDLANDS, CA, 92374, US, United States</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:17+00:00</t>
+          <t>2026-02-12T12:14:08+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>REC000079523653</t>
+          <t>1Z0JA1729022187602</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2436,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>REC000079545901</t>
+          <t>REC000079529395</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2404,7 +2456,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6001611275</t>
+          <t>6001610352</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2416,18 +2468,18 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-12T12:29:00</t>
+          <t>2026-02-12T11:09:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:15+00:00</t>
+          <t>2026-02-12T11:20:15+00:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>REC000079545901</t>
+          <t>REC000079529395</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2439,7 +2491,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>REC000079523823</t>
+          <t>REC000079527079</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2459,7 +2511,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6001609596</t>
+          <t>6001610114</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2471,7 +2523,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:00</t>
+          <t>2026-02-12T13:32:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2482,7 +2534,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>REC000079523823</t>
+          <t>REC000079527079</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2494,7 +2546,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>REC000079523616</t>
+          <t>REC000079523653</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2514,7 +2566,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6001609518</t>
+          <t>6001609533</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2526,18 +2578,18 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-12T14:10:00</t>
+          <t>2026-02-12T13:18:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-12T14:20:57+00:00</t>
+          <t>2026-02-12T13:19:17+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>REC000079523616</t>
+          <t>REC000079523653</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2549,7 +2601,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>REC000079532401</t>
+          <t>REC000079521402</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2569,7 +2621,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6001610629</t>
+          <t>6001608723</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2581,18 +2633,18 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-12T10:03:00</t>
+          <t>2026-02-12T17:33:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2026-02-12T09:19:12+00:00</t>
+          <t>2026-02-12T17:21:02+00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>REC000079532401</t>
+          <t>REC000079521402</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2604,7 +2656,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>REC000079523923</t>
+          <t>REC000079522286</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2624,7 +2676,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6001609634</t>
+          <t>6001609228</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2636,18 +2688,18 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-12T11:09:00</t>
+          <t>2026-02-12T16:56:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-12T11:20:15+00:00</t>
+          <t>2026-02-12T16:19:20+00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>REC000079523923</t>
+          <t>REC000079522286</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2659,17 +2711,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>REC000079521501</t>
+          <t>996011434800723580</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2679,7 +2731,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6001608847</t>
+          <t>6001610445</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2691,30 +2743,34 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-02-12T12:58:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>2026-02-12T10:27:29+01:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:36+00:00</t>
+          <t>2026-02-12T10:14:17+00:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>REC000079521501</t>
+          <t>996011434800723580</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>REC000079525376</t>
+          <t>REC000079526649</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2734,7 +2790,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6001609834</t>
+          <t>6001610041</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2746,967 +2802,23 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-12T13:27:00</t>
+          <t>2026-02-12T17:30:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:18+00:00</t>
+          <t>2026-02-12T17:21:02+00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>REC000079525376</t>
+          <t>REC000079526649</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ZDDO3KQQ</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6001611367</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ZDDO3KQQ</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ZDDO3KOQ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>6001610201</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ZDDO3KOQ</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ZDDO3KOP</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6001610201</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ZDDO3KOP</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ZDDO3KN6</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>6001609604</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ZDDO3KN6</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ZDDO3KN7</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>6001609604</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:04+00:00</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ZDDO3KN7</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ZDDO3KLZ</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>6001609193</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:04+00:00</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ZDDO3KLZ</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ZDDO3KM7</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>6001609237</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:04+00:00</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ZDDO3KM7</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ZDDO3KLT</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>6001609120</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:04+00:00</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ZDDO3KLT</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ZDDO3KIJ</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>6001608307</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2026-02-12T14:00:00+01:00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2026-02-12T13:05:04+00:00</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ZDDO3KIJ</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Z7V7CS7Q</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>6001609247</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2026-02-12T07:00:53+01:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>AT, Austria</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:14:31+00:00</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Z7V7CS7Q</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Z7V7CS7P</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>6001609247</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2026-02-12T07:00:53+01:00</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>AT, Austria</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:14:32+00:00</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Z7V7CS7P</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Z7V7CS7O</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6001609247</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2026-02-12T07:00:53+01:00</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>AT, Austria</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:14:32+00:00</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Z7V7CS7O</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>YVXA6L17</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>gls</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>GLS</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6001610343</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2026-01-23T13:40:00+01:00</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>DE, Germany</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2026-02-12T00:13:54+00:00</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>YVXA6L17</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>05222006537319</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>dpd</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DPD</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>6001609847</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2026-02-11T15:00:08+01:00</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Jaerfaella, SE, Sweden</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2026-02-12T00:13:49+00:00</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>05222006537319</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>05222006537372</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>dpd</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DPD</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>6001611607</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2026-02-11T14:52:47+01:00</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Vijfhuizen, NL, Netherlands</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2026-02-12T00:13:50+00:00</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>05222006537372</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>05222006537400</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>dpd</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DPD</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>6001612083</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2026-02-12T10:32:58+01:00</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Beverwijk, NL, Netherlands</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2026-02-12T12:14:27+00:00</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>05222006537400</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,7 +1058,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>0031009885087</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T16:21:03+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1104,24 +1104,24 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-12T15:50:46+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0031009885087</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-12T16:21:03+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,24 +1167,24 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-12T15:50:46+00:00</t>
+          <t>2026-02-12T13:50:37+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>00KLOK0B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:37+00:00</t>
+          <t>2026-02-12T13:50:38+00:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>00KLOK0B</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1562,7 +1562,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>ZI6799VW</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1598,7 +1598,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1608,24 +1608,24 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-12T13:47:11+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>ZI6799VW</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0032005538512</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1661,7 +1661,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T12:37:12+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T13:47:11+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1787,7 +1787,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-11T12:19:10+02:00</t>
+          <t>2026-02-11T12:20:19+02:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:33+00:00</t>
+          <t>2026-02-12T12:20:38+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1814,7 +1814,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>81225941052</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-11T12:20:19+02:00</t>
+          <t>2026-02-11T12:19:10+02:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:38+00:00</t>
+          <t>2026-02-12T12:20:33+00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>81225941052</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2318,17 +2318,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>3366515579266</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>directfreight-au-ref</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>Direct Freight Express</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2338,56 +2338,60 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6001609505</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>250-3604430-4903019</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-11T11:58:21-08:00</t>
+          <t>2026-02-13T07:51:00+11:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>REDLANDS, CA, 92374, US, United States</t>
+          <t>Warrnambool, Australia</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-12T12:14:08+00:00</t>
+          <t>2026-02-12T21:02:10+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>3366515579266</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{"external_order_id": "250-3604430-4903019", "sales_office_id": "4272"}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>996011434800724656</t>
+          <t>1Z0JA1729022187602</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>ups-api</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2397,7 +2401,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6001609189</t>
+          <t>6001609505</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2409,44 +2413,44 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-12T09:53:31+01:00</t>
+          <t>2026-02-11T11:58:21-08:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>REDLANDS, CA, 92374, US, United States</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-12T09:14:18+00:00</t>
+          <t>2026-02-12T12:14:08+00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>996011434800724656</t>
+          <t>1Z0JA1729022187602</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>REC000079529395</t>
+          <t>996011434800723580</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2456,7 +2460,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6001610352</t>
+          <t>6001610445</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2468,23 +2472,27 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-12T11:09:00</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>2026-02-12T10:27:29+01:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2026-02-12T11:20:15+00:00</t>
+          <t>2026-02-12T10:14:17+00:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>REC000079529395</t>
+          <t>996011434800723580</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
@@ -2546,17 +2554,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>REC000079523653</t>
+          <t>996011434800724656</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2566,7 +2574,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6001609533</t>
+          <t>6001609189</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2578,247 +2586,27 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-12T13:18:00</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>2026-02-12T09:53:31+01:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>CH, Switzerland</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:17+00:00</t>
+          <t>2026-02-12T09:14:18+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>REC000079523653</t>
+          <t>996011434800724656</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>REC000079521402</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>6001608723</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2026-02-12T17:33:00</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2026-02-12T17:21:02+00:00</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>REC000079521402</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>REC000079522286</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6001609228</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2026-02-12T16:56:00</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2026-02-12T16:19:20+00:00</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>REC000079522286</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>996011434800723580</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>swiss-post</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Swiss Post</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>6001610445</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2026-02-12T10:27:29+01:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>CH, Switzerland</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2026-02-12T10:14:17+00:00</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>996011434800723580</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
           <t>{"courier": "swiss-post"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>REC000079526649</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>spanish-seur-ftp</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>6001610041</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>csv_importer</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2026-02-12T17:30:00</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2026-02-12T17:21:02+00:00</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>REC000079526649</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTV641786453</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0031009887790</t>
+          <t>0031009887580</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -527,7 +527,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-12T13:33:23+01:00</t>
+          <t>2026-02-12T11:29:10+01:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -537,24 +537,24 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-12T19:33:37+00:00</t>
+          <t>2026-02-13T03:33:40+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>UTV641786453</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009887790", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009887580", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTV619591751</t>
+          <t>UTV718405066</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0031009887580</t>
+          <t>0031009887047</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -590,7 +590,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-12T11:29:10+01:00</t>
+          <t>2026-02-12T20:06:38+01:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -600,34 +600,34 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-12T19:33:37+00:00</t>
+          <t>2026-02-13T01:33:41+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>UTV619591751</t>
+          <t>UTV718405066</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009887580", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009887047", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZI679A1X</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0032005538401</t>
+          <t>0031009887790</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,44 +653,44 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-12T14:33:36+01:00</t>
+          <t>2026-02-12T13:33:23+01:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-12T15:19:36+00:00</t>
+          <t>2026-02-13T03:33:38+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ZI679A1X</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538401", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009887790", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01475240751838</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cbn4v85r9p</t>
+          <t>0032005538401</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -716,34 +716,34 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-12T11:38:35+01:00</t>
+          <t>2026-02-12T14:33:36+01:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Salzgitter (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:26+00:00</t>
+          <t>2026-02-13T03:19:38+00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>01475240751838</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
+          <t>{"external_order_id": "0032005538401", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01475240751763</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:23+00:00</t>
+          <t>2026-02-12T14:43:26+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>01475240751763</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01475240751038</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:22+00:00</t>
+          <t>2026-02-12T14:43:23+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>01475240751038</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -869,17 +869,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0031009883883</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -905,34 +905,34 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-12T14:28:19+01:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:45+00:00</t>
+          <t>2026-02-12T14:43:22+00:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009883883", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>00KLOKBI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C0000M3CR3</t>
+          <t>0031009883883</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -968,7 +968,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-12T14:13:43+01:00</t>
+          <t>2026-02-12T14:28:19+01:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -978,24 +978,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:44+00:00</t>
+          <t>2026-02-12T13:50:45+00:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>00KLOKBI</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"external_order_id": "C0000M3CR3", "sales_office_id": "4002"}</t>
+          <t>{"external_order_id": "0031009883883", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>00KLOKIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>C0000M3CR3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1031,7 +1031,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T14:13:43+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-12T13:50:44+00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>00KLOKIX</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "C0000M3CR3", "sales_office_id": "4002"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>00KLOK0C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0031009885087</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-12T16:21:03+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1104,24 +1104,24 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-12T15:50:46+00:00</t>
+          <t>2026-02-12T13:50:38+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>00KLOK0C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0031009884566</t>
+          <t>0031009885087</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T16:21:03+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:37+00:00</t>
+          <t>2026-02-12T15:50:46+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>00KLOK5U</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0032005538723</t>
+          <t>0031009884566</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1283,34 +1283,34 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-12T13:05:30+01:00</t>
+          <t>2026-02-12T11:36:34+01:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-12T13:48:55+00:00</t>
+          <t>2026-02-12T13:50:37+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>00KLOJSZ</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538723", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>ZI679A2Q</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0032005538723</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1346,7 +1346,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T13:05:30+01:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1356,24 +1356,24 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:44+00:00</t>
+          <t>2026-02-13T01:48:24+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>ZI679A2Q</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538723", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>ZI679A0S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-12T14:23:44+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>ZI679A0S</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>ZI6799YB</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>ZI679A26</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1625,7 +1625,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>ZI6799VX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0032005538280</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1661,7 +1661,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-12T15:09:56+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1671,24 +1671,24 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-12T13:47:11+00:00</t>
+          <t>2026-02-12T14:23:45+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>ZI6799VX</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-12T13:47:18+00:00</t>
+          <t>2026-02-13T01:47:13+00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>ZI679A2O</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1751,17 +1751,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>ZI679A0N</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0035000329275</t>
+          <t>0032005538512</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1787,27 +1787,27 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-11T12:20:19+02:00</t>
+          <t>2026-02-12T12:37:12+01:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>GR. TRYAVNA</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:38+00:00</t>
+          <t>2026-02-13T01:47:12+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>ZI679A0N</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
+          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
@@ -1877,17 +1877,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dpd-ro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>DPD Romania</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,12 +1897,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B2BDS10274721</t>
+          <t>0035000329275</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1913,34 +1913,34 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-12T11:46:28+01:00</t>
+          <t>2026-02-11T12:20:19+02:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Nürnberg (DE), Germany</t>
+          <t>GR. TRYAVNA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:56+00:00</t>
+          <t>2026-02-12T12:20:38+00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>81225942281</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10274721", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>01475240751129</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B2BDS10352342</t>
+          <t>B2BDS10274721</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1976,34 +1976,34 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-12T11:55:56+01:00</t>
+          <t>2026-02-12T11:46:28+01:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Vechta (DE), Germany</t>
+          <t>Nürnberg (DE), Germany</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:57+00:00</t>
+          <t>2026-02-12T11:19:56+00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>01475240751129</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10352342", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "B2BDS10274721", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>01475240752190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0049010119934</t>
+          <t>B2BDS10352342</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2039,34 +2039,34 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-12T09:58:39+01:00</t>
+          <t>2026-02-12T11:55:56+01:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Marl (DE), Germany</t>
+          <t>Vechta (DE), Germany</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:54+00:00</t>
+          <t>2026-02-12T12:19:57+00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>01475240752190</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010119934", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "B2BDS10352342", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>01475240751496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0049010121495</t>
+          <t>0049010119934</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2102,34 +2102,34 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-12T09:57:19+01:00</t>
+          <t>2026-02-12T09:58:39+01:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Staufenberg-Mainzlar (DE), Germany</t>
+          <t>Marl (DE), Germany</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:53+00:00</t>
+          <t>2026-02-12T11:19:54+00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>01475240751496</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010121495", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "0049010119934", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>01475240752147</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B2BDS10319197</t>
+          <t>0049010121495</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2165,44 +2165,44 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-12T14:07:10+01:00</t>
+          <t>2026-02-12T09:57:19+01:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hamm (DE), Germany</t>
+          <t>Staufenberg-Mainzlar (DE), Germany</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-12T13:25:02+00:00</t>
+          <t>2026-02-12T12:19:53+00:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>01475240752147</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10319197", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0049010121495", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>01475240752249</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0032005538893</t>
+          <t>B2BDS10319197</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2228,44 +2228,44 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-12T10:37:53+01:00</t>
+          <t>2026-02-12T14:07:10+01:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-12T09:49:51+00:00</t>
+          <t>2026-02-12T13:25:02+00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>01475240752249</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538893", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10319197", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>ZI6799ZD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>306-8489285-5583505</t>
+          <t>0032005538893</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2291,44 +2291,44 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-12T10:54:16+01:00</t>
+          <t>2026-02-12T10:37:53+01:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aichach (DE), Germany</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-12T11:05:34+00:00</t>
+          <t>2026-02-12T09:49:51+00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>ZI6799ZD</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"external_order_id": "306-8489285-5583505", "sales_office_id": "4263"}</t>
+          <t>{"external_order_id": "0032005538893", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3366515579266</t>
+          <t>01475240751348</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>directfreight-au-ref</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Direct Freight Express</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>250-3604430-4903019</t>
+          <t>306-8489285-5583505</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2354,44 +2354,44 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-13T07:51:00+11:00</t>
+          <t>2026-02-12T10:54:16+01:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Warrnambool, Australia</t>
+          <t>Aichach (DE), Germany</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-12T21:02:10+00:00</t>
+          <t>2026-02-12T11:05:34+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>3366515579266</t>
+          <t>01475240751348</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-3604430-4903019", "sales_office_id": "4272"}</t>
+          <t>{"external_order_id": "306-8489285-5583505", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>ZI6799V6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ups-api</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2401,56 +2401,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6001609505</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>B2BDS10289120</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-11T11:58:21-08:00</t>
+          <t>2026-02-12T12:13:34+01:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>REDLANDS, CA, 92374, US, United States</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-12T12:14:08+00:00</t>
+          <t>2026-02-13T00:26:36+00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1Z0JA1729022187602</t>
+          <t>ZI6799V6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"courier": "UPS", "custom_1": "returns_ups"}</t>
+          <t>{"external_order_id": "B2BDS10289120", "sales_office_id": "4490"}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>996011434800723580</t>
+          <t>ZI6799VO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2460,56 +2464,60 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6001610445</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>B2BDS10289120</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-12T10:27:29+01:00</t>
+          <t>2026-02-12T12:13:34+01:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2026-02-12T10:14:17+00:00</t>
+          <t>2026-02-13T00:26:37+00:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>996011434800723580</t>
+          <t>ZI6799VO</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"external_order_id": "B2BDS10289120", "sales_office_id": "4490"}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>REC000079527079</t>
+          <t>518157107742</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>spanish-seur-ftp</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2519,52 +2527,60 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6001610114</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>0081000027295</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-12T13:32:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>2026-02-13T12:18:00+09:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>羽島営業所, Japan</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2026-02-12T13:19:17+00:00</t>
+          <t>2026-02-13T03:35:23+00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>REC000079527079</t>
+          <t>518157107742</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"courier": "spanish-seur-ftp", "custom_1": "Returns_spanish-seur"}</t>
+          <t>{"external_order_id": "0081000027295", "sales_office_id": "4414"}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>996011434800724656</t>
+          <t>518157106681</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>swiss-post</t>
+          <t>sagawa</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Swiss Post</t>
+          <t>Sagawa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2574,39 +2590,5902 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6001609189</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>B2BDS10077565</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>csv_importer</t>
+          <t>api</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-12T09:53:31+01:00</t>
+          <t>2026-02-13T11:05:00+09:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CH, Switzerland</t>
+          <t>知多営業所, Japan</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-12T09:14:18+00:00</t>
+          <t>2026-02-13T02:31:48+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>996011434800724656</t>
+          <t>518157106681</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"courier": "swiss-post"}</t>
+          <t>{"external_order_id": "B2BDS10077565", "sales_office_id": "4468"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>518157106666</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>B2BDS10077584</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:26:00+09:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>一宮営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2026-02-13T05:01:16+00:00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>518157106666</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10077584", "sales_office_id": "4468"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>518157106434</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>B2BDS10077664</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:04:00+09:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>美濃加茂営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:30:49+00:00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>518157106434</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10077664", "sales_office_id": "4468"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>518157108136</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>249-4585933-9438249</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:44:00+09:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>千葉北営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>518157108136</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-4585933-9438249", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>518157107451</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>250-7497633-5764622</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:12:00+09:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>港営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:30:51+00:00</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>518157107451</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7497633-5764622", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>518157105874</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>B2BDS10077561</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:11:00+09:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>武蔵村山営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:30:44+00:00</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>518157105874</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10077561", "sales_office_id": "4468"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>518157107005</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>B2BDS10077585</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:21:00+09:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>目黒営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>518157107005</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10077585", "sales_office_id": "4468"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>518157107996</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>250-6221499-8851002</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:07:00+09:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>四日市営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:31:32+00:00</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>518157107996</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-6221499-8851002", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>518157108210</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>249-0693532-8711809</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:56:00+09:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>大和高田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:30:46+00:00</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>518157108210</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-0693532-8711809", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>518157107823</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>503-3195057-3696628</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:03:00+09:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>仙台南営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:28:57+00:00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>518157107823</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-3195057-3696628", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>518157107720</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0081000027296</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:50:00+09:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>花巻営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:28:56+00:00</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>518157107720</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0081000027296", "sales_office_id": "4414"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>518157109002</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>250-5917190-7963065</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:20:00+09:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>石巻営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:28:45+00:00</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>518157109002</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-5917190-7963065", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>518157109783</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>250-0611413-9229426</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:57:00+09:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>野田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>518157109783</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>518157109212</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>250-2852260-7250256</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:48:00+09:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>那須営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:56:50+00:00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>518157109212</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-2852260-7250256", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>518157109805</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>250-0611413-9229426</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:57:00+09:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>野田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:26:45+00:00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>518157109805</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>518157109794</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>250-0611413-9229426</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:57:00+09:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>野田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:26:47+00:00</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>518157109794</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>518157109584</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>249-7873677-9954258</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:37:00+09:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>松戸営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:56:45+00:00</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>518157109584</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-7873677-9954258", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>518157109116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>503-6523777-6917444</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:37:00+09:00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>千代田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:56:44+00:00</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>518157109116</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-6523777-6917444", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>518157109433</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>250-0611413-9229426</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:57:00+09:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>野田営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>518157109433</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>518157108836</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>503-7538458-4703020</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:25:00+09:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>茂原営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:56:47+00:00</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>518157108836</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-7538458-4703020", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>518157109352</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>249-9618753-0701414</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:41:00+09:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>羽生営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:56:46+00:00</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>518157109352</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-9618753-0701414", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>518157108766</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>503-5119143-0451047</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:38:00+09:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>深谷営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:56:44+00:00</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>518157108766</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-5119143-0451047", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>518157109153</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10001447</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:16:00+09:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>栃木営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:26:48+00:00</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>518157109153</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "10001447", "sales_office_id": "4595"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>518157108991</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>250-4157920-6558243</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:28:00+09:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>東京営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:56:46+00:00</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>518157108991</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-4157920-6558243", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>518157108593</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>250-0531588-5040616</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:56:00+09:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>和光営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:26:47+00:00</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>518157108593</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0531588-5040616", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>518157109330</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>250-7789990-5815014</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>亀岡営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:54+00:00</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>518157109330</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>518157108733</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10001445</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:39:00+09:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>横手営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:51+00:00</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>518157108733</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "10001445", "sales_office_id": "4595"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>518157108615</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>250-7644151-5526210</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:11:00+09:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>武蔵村山営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:24:52+00:00</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>518157108615</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7644151-5526210", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>518157108630</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>250-7789990-5815014</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>亀岡営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:53+00:00</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>518157108630</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>518157108932</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>250-7789990-5815014</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>亀岡営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:54+00:00</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>518157108932</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>518157109024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>250-7789990-5815014</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:37:00+09:00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>亀岡営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:53+00:00</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>518157109024</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>518157108626</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>250-7789990-5815014</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>亀岡営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:52+00:00</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>518157108626</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>518157108781</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>503-6251117-7547005</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:24:00+09:00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>都留営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:54:51+00:00</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>518157108781</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-6251117-7547005", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>518157109050</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>503-4093845-8371005</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:18:00+09:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>岐阜営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:54:48+00:00</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>518157109050</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-4093845-8371005", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>518157108722</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10001446</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:39:00+09:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>横手営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:52+00:00</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>518157108722</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "10001446", "sales_office_id": "4595"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>518157108685</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>503-5342454-5903812</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:41:00+09:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>前橋営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:50+00:00</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>518157108685</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-5342454-5903812", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>518157108862</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>503-1508447-9185455</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:44:00+09:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>三鷹営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:49+00:00</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>518157108862</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-1508447-9185455", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>518157109046</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>250-8367085-9498268</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:36:00+09:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>須磨営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:54:54+00:00</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>518157109046</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-8367085-9498268", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>518157109072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10001448</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:04:00+09:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>気仙沼営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:24:52+00:00</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>518157109072</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "10001448", "sales_office_id": "4595"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>518157110052</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>249-4142766-0247053</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:24:00+09:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>米沢営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:54:58+00:00</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>518157110052</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-4142766-0247053", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>518157110085</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>503-3478682-1619805</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:06:00+09:00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>白馬営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:22:49+00:00</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>518157110085</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-3478682-1619805", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>518157109363</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>249-2474623-1991832</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:45:00+09:00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>松阪営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:23:02+00:00</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>518157109363</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-2474623-1991832", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>518157110133</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>250-6546085-1173436</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>港営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:52:45+00:00</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>518157110133</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-6546085-1173436", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>518157108814</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>250-0129426-3763847</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:49:00+09:00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>岐阜営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:22:54+00:00</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>518157108814</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-0129426-3763847", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>518157110155</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>249-7094554-3459009</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:06:00+09:00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>福井営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:22:56+00:00</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>518157110155</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-7094554-3459009", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>518157109271</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>250-9718054-2412633</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:33:00+09:00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>大阪茨木営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:58:00+00:00</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>518157109271</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-9718054-2412633", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>518157109945</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>249-2684945-7883037</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:08:00+09:00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>杉並営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>518157109945</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-2684945-7883037", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>518157110026</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>503-2005849-4825425</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>城東営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:50:50+00:00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>518157110026</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-2005849-4825425", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>518157110273</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>250-8283214-4941440</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2026-02-13T08:55:00+09:00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>福生営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:20:43+00:00</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>518157110273</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-8283214-4941440", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>518157109470</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>249-1280237-0676603</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:00+09:00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>西埼玉営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:48:50+00:00</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>518157109470</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-1280237-0676603", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>518157110310</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>249-9790941-7799820</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:12:00+09:00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>八王子営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:48:47+00:00</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>518157110310</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-9790941-7799820", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>518157109956</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>503-3527076-8628666</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:37:00+09:00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>久喜営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2026-02-13T02:48:50+00:00</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>518157109956</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-3527076-8628666", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>518157110111</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>249-8760909-7438213</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:21:00+09:00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>山梨営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:48:41+00:00</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>518157110111</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-8760909-7438213", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>518157109864</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>503-2489646-2114245</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:02:00+09:00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>西埼玉営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>518157109864</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-2489646-2114245", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>518157109831</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>sagawa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sagawa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>249-0276981-0787826</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:29:00+09:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>東京営業所, Japan</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:47:44+00:00</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>518157109831</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-0276981-0787826", "sales_office_id": "4564"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2X0010417392</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>B2BDS10356120</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:11:26+11:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:53:38+00:00</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2X0010417392</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10356120", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2X0010417347</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>17-14212-28442</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:38:51+11:00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:46:35+00:00</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2X0010417347</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "17-14212-28442", "sales_office_id": "4391"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2X0010417362</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>31003452335_622_646776</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:46:26+11:00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:44:40+00:00</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2X0010417362</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "31003452335_622_646776", "sales_office_id": "4379"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2X0010417363</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>31003452335_622_646776</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:46:26+11:00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:44:43+00:00</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2X0010417363</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "31003452335_622_646776", "sales_office_id": "4379"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2X0010417372</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0061004385893</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:01:01+11:00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:44:36+00:00</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2X0010417372</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004385893", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2X0010417334</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0061004385934</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:35:46+11:00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Geelong, Australia</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:44:36+00:00</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2X0010417334</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004385934", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2X0010417408</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>503-0534587-0177460</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:45:21+11:00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:44:36+00:00</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2X0010417408</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "503-0534587-0177460", "sales_office_id": "4272"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2X0010417403</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0061004386075</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:31:13+11:00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:41:33+00:00</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2X0010417403</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386075", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2X0010417407</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>250-3653716-6494221</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:51:30+11:00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:41:35+00:00</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2X0010417407</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-3653716-6494221", "sales_office_id": "4272"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2X0010417366</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>250-3653716-6494221</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:51:30+11:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:41:34+00:00</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2X0010417366</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "250-3653716-6494221", "sales_office_id": "4272"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2X0010417327</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>AH6NLBQ6</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:54:56+11:00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:41:31+00:00</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2X0010417327</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "AH6NLBQ6", "sales_office_id": "4285"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2X0010417414</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>HMAKB6A2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2026-02-13T14:29:13+11:00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:39:37+00:00</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2X0010417414</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "HMAKB6A2", "sales_office_id": "4285"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2X0010417384</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>B2BDS10317325</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:17:52+11:00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:39:34+00:00</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2X0010417384</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10317325", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2X0010417356</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31003146211_622_588674</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:55+11:00</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:39:36+00:00</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2X0010417356</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "31003146211_622_588674", "sales_office_id": "4379"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2X0010417428</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>31003452056_622_646717</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:00:26+11:00</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Geelong, Australia</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:39:36+00:00</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2X0010417428</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "31003452056_622_646717", "sales_office_id": "4379"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2X0010417348</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>W6JJV3YB</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:16:51+11:00</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:35+00:00</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2X0010417348</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "W6JJV3YB", "sales_office_id": "4285"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2X0010417352</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>B2BDS10328334</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:17:51+11:00</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:37+00:00</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2X0010417352</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10328334", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2X0010417382</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0061004386232</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:27:01+11:00</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:36+00:00</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2X0010417382</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386232", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2X0010417427</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0061004385932</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:36:22+11:00</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:35+00:00</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2X0010417427</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004385932", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2X0010417357</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>B2BDS10244495</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:37+11:00</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:35+00:00</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2X0010417357</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10244495", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2X0010417358</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>fastway-au</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Aramex Australia</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>B2BDS10244510</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:34:37+11:00</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:37:35+00:00</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2X0010417358</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10244510", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3366515579241</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0061004385951</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:50:00+09:30</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:02:08+00:00</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>3366515579241</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004385951", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3366515579236</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>249-0098015-0235831</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:09:00+09:30</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:14:08+00:00</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>3366515579236</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "249-0098015-0235831", "sales_office_id": "4272"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3366515579230</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>B2BDS10334723</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2026-02-13T14:21:00+09:30</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:26:08+00:00</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>3366515579230</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10334723", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3366515579290</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0061004386218</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:19:00+09:30</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>3366515579290</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386218", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3366515579323</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>358123424</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:19:00+09:30</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>3366515579323</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "358123424", "sales_office_id": "4131"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3366515579245</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>P2Z8NJEV</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:52:00+09:30</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:02:08+00:00</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>3366515579245</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "P2Z8NJEV", "sales_office_id": "4285"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3366515579299</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0061004386153</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:30:00+09:30</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Sydney(W), Australia</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2026-02-12T22:38:09+00:00</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>3366515579299</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386153", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3366515579269</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0061004386101</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:40:00+09:30</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Melbourne(SE), Australia</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2026-02-12T23:50:08+00:00</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>3366515579269</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386101", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3366515579254</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0061004385969</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:56:00+11:00</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Warragul, Australia</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2026-02-13T01:02:09+00:00</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>3366515579254</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004385969", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3366515579327</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>B2BDS10355740</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:14:00+09:30</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Melbourne(SE), Australia</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2026-02-12T23:14:09+00:00</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>3366515579327</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10355740", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3366515579336</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>358125398</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:58:00+09:30</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Sydney(SW), Australia</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:02:08+00:00</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>3366515579336</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "358125398", "sales_office_id": "4131"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3366515579326</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>B2BDS10355755</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:14:00+09:30</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Melbourne(SE), Australia</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2026-02-12T23:14:09+00:00</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>3366515579326</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10355755", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3366515579267</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>358117387</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2026-02-13T09:45:00+09:30</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Sydney(W), Australia</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2026-02-12T22:50:07+00:00</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>3366515579267</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "358117387", "sales_office_id": "4131"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3366515579328</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>B2BDS10361208</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2026-02-13T10:14:00+09:30</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Melbourne(SE), Australia</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2026-02-12T23:14:08+00:00</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>3366515579328</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10361208", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3366515579265</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>B2BDS10352271</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2026-02-13T14:28:00+09:30</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Melbourne(SE), Australia</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:38:09+00:00</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>3366515579265</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10352271", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3366515579300</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0061004386159</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:08:00+11:00</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Geelong, Australia</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2026-02-13T00:14:08+00:00</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>3366515579300</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386159", "sales_office_id": "3016"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3366515579231</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>B2BDS10334727</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2026-02-13T14:21:00+09:30</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Melbourne(N), Australia</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2026-02-13T03:26:08+00:00</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>3366515579231</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "B2BDS10334727", "sales_office_id": "4460"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3366515579298</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>directfreight-au-ref</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Direct Freight Express</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0061004386221</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2026-02-13T15:41:00+11:00</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Bairnsdale, Australia</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2026-02-13T04:50:07+00:00</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>3366515579298</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>{"external_order_id": "0061004386221", "sales_office_id": "3016"}</t>
         </is>
       </c>
     </row>

--- a/docs/data/returns_intransit.xlsx
+++ b/docs/data/returns_intransit.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTV619591751</t>
+          <t>01475240754092</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0031009887580</t>
+          <t>B2BDS10381479</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,44 +527,44 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-12T11:29:10+01:00</t>
+          <t>2026-02-13T10:01:19+01:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-13T03:33:40+00:00</t>
+          <t>2026-02-13T10:08:49+00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>UTV619591751</t>
+          <t>01475240754092</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009887580", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "B2BDS10381479", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTV718405066</t>
+          <t>01475240754161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0031009887047</t>
+          <t>PO-076-17929179809910236</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -590,44 +590,44 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-02-12T20:06:38+01:00</t>
+          <t>2026-02-13T09:24:26+01:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>Aschaffenburg (DE), Germany</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-13T01:33:41+00:00</t>
+          <t>2026-02-13T10:08:49+00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>UTV718405066</t>
+          <t>01475240754161</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009887047", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "PO-076-17929179809910236", "sales_office_id": "4670"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTV641786453</t>
+          <t>01475240754071</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>packs</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Packs</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0031009887790</t>
+          <t>0049010126947</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -653,44 +653,44 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-02-12T13:33:23+01:00</t>
+          <t>2026-02-13T09:21:46+01:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>,Netherlands</t>
+          <t>Bad Bentheim (DE), Germany</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-13T03:33:38+00:00</t>
+          <t>2026-02-13T10:08:47+00:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>UTV641786453</t>
+          <t>01475240754071</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009887790", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0049010126947", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZI679A1X</t>
+          <t>01475240754099</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0032005538401</t>
+          <t>0049010126947</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -716,34 +716,34 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-02-12T14:33:36+01:00</t>
+          <t>2026-02-13T09:21:46+01:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Bad Bentheim (DE), Germany</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2026-02-13T03:19:38+00:00</t>
+          <t>2026-02-13T10:08:46+00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ZI679A1X</t>
+          <t>01475240754099</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538401", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0049010126947", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01475240751838</t>
+          <t>01475240754150</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cbn4v85r9p</t>
+          <t>0049010126947</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -779,44 +779,44 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-02-12T11:38:35+01:00</t>
+          <t>2026-02-13T09:21:46+01:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Salzgitter (DE), Germany</t>
+          <t>Bad Bentheim (DE), Germany</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:26+00:00</t>
+          <t>2026-02-13T10:08:47+00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>01475240751838</t>
+          <t>01475240754150</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
+          <t>{"external_order_id": "0049010126947", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01475240751763</t>
+          <t>CY254163395DE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>dhl-germany</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Deutsche Post DHL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -826,60 +826,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cbn4v85r9p</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4316</t>
-        </is>
-      </c>
+          <t>6001615874</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-02-12T11:38:35+01:00</t>
+          <t>2026-02-12T13:04:00+01:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Salzgitter (DE), Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:23+00:00</t>
+          <t>2026-02-13T05:47:08+00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>01475240751763</t>
+          <t>CY254163395DE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01475240751038</t>
+          <t>888369336798</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>fedex</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>FedEx®</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -889,60 +885,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cbn4v85r9p</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4316</t>
-        </is>
-      </c>
+          <t>6001615584</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-12T11:38:35+01:00</t>
+          <t>2026-02-11T14:27:00+01:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Salzgitter (DE), Germany</t>
+          <t>HEM-HARDINVAL, 80, 80600, FR, France</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2026-02-12T14:43:22+00:00</t>
+          <t>2026-02-13T09:47:10+00:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>01475240751038</t>
+          <t>888369336798</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>996014994510148931</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>swiss-post</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>Swiss Post</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,60 +944,56 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0031009883883</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001612545</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-12T14:28:19+01:00</t>
+          <t>2026-02-05T10:06:09+01:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>CH, Switzerland</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:45+00:00</t>
+          <t>2026-02-13T05:47:07+00:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00KLOKBI</t>
+          <t>996014994510148931</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009883883", "sales_office_id": "0303"}</t>
+          <t>{"courier": "swiss-post"}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>Z7V7CS9A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,60 +1003,56 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C0000M3CR3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4002</t>
-        </is>
-      </c>
+          <t>6001613403</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-12T14:13:43+01:00</t>
+          <t>2026-02-13T07:00:53+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>AT, Austria</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:44+00:00</t>
+          <t>2026-02-13T10:08:19+00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00KLOKIX</t>
+          <t>Z7V7CS9A</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"external_order_id": "C0000M3CR3", "sales_office_id": "4002"}</t>
+          <t>{"courier": "GLS", "custom_1": "returns_gls"}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>05222006537448</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1078,60 +1062,56 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0031009884566</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001614848</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T14:37:02+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-13T05:46:53+00:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00KLOK0C</t>
+          <t>05222006537448</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>05222006537416</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1141,60 +1121,56 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0031009885087</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001613902</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-12T16:21:03+01:00</t>
+          <t>2026-02-12T15:27:24+01:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Vijfhuizen, NL, Netherlands</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-12T15:50:46+00:00</t>
+          <t>2026-02-13T09:46:58+00:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00KLOK5U</t>
+          <t>05222006537416</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009885087", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>05222006537489</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,60 +1180,56 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0031009884566</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001615739</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T17:37:04+01:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Veenendaal, NL, Netherlands</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:38+00:00</t>
+          <t>2026-02-13T05:46:52+00:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>00KLOK0B</t>
+          <t>05222006537489</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>05222006537455</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gls-netherlands-api</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLS Netherlands</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1267,60 +1239,56 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0031009884566</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001615064</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-12T11:36:34+01:00</t>
+          <t>2026-02-12T15:00:23+01:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Jaerfaella, SE, Sweden</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-12T13:50:37+00:00</t>
+          <t>2026-02-13T05:46:53+00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00KLOJSZ</t>
+          <t>05222006537455</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0031009884566", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>05222006537440</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1330,60 +1298,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0032005538723</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001614645</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-12T13:05:30+01:00</t>
+          <t>2026-02-12T15:00:36+01:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Taulov, DK, Denmark</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-13T01:48:24+00:00</t>
+          <t>2026-02-13T05:47:11+00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>ZI679A2Q</t>
+          <t>05222006537440</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538723", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>05222006537449</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,60 +1357,56 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0032005538280</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
+          <t>6001614848</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>csv_importer</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-12T14:37:02+01:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Berkel en Rodenrijs, NL, Netherlands</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:44+00:00</t>
+          <t>2026-02-13T09:46:56+00:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>ZI679A0S</t>
+          <t>05222006537449</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"courier": "dpd ", "custom_1": "returns_dpd"}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>UTV513398939</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1456,7 +1416,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009888651</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1472,44 +1432,44 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-13T09:54:43+01:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-13T09:47:53+00:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ZI6799YB</t>
+          <t>UTV513398939</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009888651", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>UTV783834079</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1519,7 +1479,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009890154</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1535,44 +1495,44 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-13T08:15:57+01:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-13T09:47:57+00:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ZI679A26</t>
+          <t>UTV783834079</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009890154", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>UTV728987689</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1582,7 +1542,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009888651</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1598,44 +1558,44 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-13T09:54:10+01:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-13T09:47:49+00:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>ZI6799VW</t>
+          <t>UTV728987689</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009888651", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>UTV554188566</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1645,7 +1605,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0032005538280</t>
+          <t>0031009888651</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1661,44 +1621,44 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-12T15:09:56+01:00</t>
+          <t>2026-02-13T09:53:27+01:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-12T14:23:45+00:00</t>
+          <t>2026-02-13T09:47:57+00:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ZI6799VX</t>
+          <t>UTV554188566</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538280", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009888651", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>UTV723111800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1708,7 +1668,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0031009888651</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1724,44 +1684,44 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-13T09:54:29+01:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-13T01:47:13+00:00</t>
+          <t>2026-02-13T09:47:53+00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ZI679A2O</t>
+          <t>UTV723111800</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009888651", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>UTV777499748</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1771,7 +1731,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0032005538512</t>
+          <t>0031009889235</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1787,44 +1747,44 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-12T12:37:12+01:00</t>
+          <t>2026-02-13T10:18:18+01:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-13T01:47:12+00:00</t>
+          <t>2026-02-13T09:47:55+00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ZI679A0N</t>
+          <t>UTV777499748</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538512", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009889235", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>UTV494534965</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1834,12 +1794,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0035000329275</t>
+          <t>0031009888885</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1850,44 +1810,44 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-11T12:19:10+02:00</t>
+          <t>2026-02-13T08:54:11+01:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>GR. TRYAVNA</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:33+00:00</t>
+          <t>2026-02-13T09:47:45+00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>81225941052</t>
+          <t>UTV494534965</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
+          <t>{"external_order_id": "0031009888885", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>UTV636994246</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dpd-ro</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DPD Romania</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,12 +1857,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0035000329275</t>
+          <t>0031009889985</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1913,44 +1873,44 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-11T12:20:19+02:00</t>
+          <t>2026-02-13T09:28:47+01:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>GR. TRYAVNA</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-12T12:20:38+00:00</t>
+          <t>2026-02-13T09:47:36+00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>81225942281</t>
+          <t>UTV636994246</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0035000329275", "sales_office_id": "3012"}</t>
+          <t>{"external_order_id": "0031009889985", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>UTV856251997</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1960,12 +1920,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B2BDS10274721</t>
+          <t>0031009888846</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1976,44 +1936,44 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-12T11:46:28+01:00</t>
+          <t>2026-02-13T10:40:48+01:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Nürnberg (DE), Germany</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:56+00:00</t>
+          <t>2026-02-13T09:47:45+00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>01475240751129</t>
+          <t>UTV856251997</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10274721", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0031009888846", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>UTV361932927</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2023,12 +1983,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B2BDS10352342</t>
+          <t>0031009892036</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2039,44 +1999,44 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-12T11:55:56+01:00</t>
+          <t>2026-02-13T08:12:42+01:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Vechta (DE), Germany</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:57+00:00</t>
+          <t>2026-02-13T09:47:32+00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>01475240752190</t>
+          <t>UTV361932927</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10352342", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0031009892036", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>UTV092162933</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2086,12 +2046,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0049010119934</t>
+          <t>0031009891350</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2102,44 +2062,44 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-12T09:58:39+01:00</t>
+          <t>2026-02-13T10:23:02+01:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Marl (DE), Germany</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2026-02-12T11:19:54+00:00</t>
+          <t>2026-02-13T09:47:32+00:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>01475240751496</t>
+          <t>UTV092162933</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010119934", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "0031009891350", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>UTV155195046</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2149,12 +2109,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0049010121495</t>
+          <t>0031009888266</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2165,34 +2125,34 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-12T09:57:19+01:00</t>
+          <t>2026-02-13T09:10:50+01:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Staufenberg-Mainzlar (DE), Germany</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-12T12:19:53+00:00</t>
+          <t>2026-02-13T09:46:53+00:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>01475240752147</t>
+          <t>UTV155195046</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0049010121495", "sales_office_id": "0301"}</t>
+          <t>{"external_order_id": "0031009888266", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>01475240753683</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2212,12 +2172,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B2BDS10319197</t>
+          <t>0049010125650</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2228,44 +2188,44 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-12T14:07:10+01:00</t>
+          <t>2026-02-13T10:38:14+01:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hamm (DE), Germany</t>
+          <t>Wilnsdorf (DE), Germany</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-12T13:25:02+00:00</t>
+          <t>2026-02-13T09:45:52+00:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>01475240752249</t>
+          <t>01475240753683</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10319197", "sales_office_id": "4436"}</t>
+          <t>{"external_order_id": "0049010125650", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>00KLOKT7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2275,7 +2235,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0032005538893</t>
+          <t>0031009891677</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2291,44 +2251,44 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-12T10:37:53+01:00</t>
+          <t>2026-02-13T09:56:50+01:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-12T09:49:51+00:00</t>
+          <t>2026-02-13T09:45:52+00:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>ZI6799ZD</t>
+          <t>00KLOKT7</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0032005538893", "sales_office_id": "0303"}</t>
+          <t>{"external_order_id": "0031009891677", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>00KLOLI7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dpd-de</t>
+          <t>gls-netherlands-api</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DPD Germany</t>
+          <t>GLS Netherlands</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2338,12 +2298,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>306-8489285-5583505</t>
+          <t>0031009891677</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2354,44 +2314,44 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-12T10:54:16+01:00</t>
+          <t>2026-02-13T09:56:50+01:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aichach (DE), Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-12T11:05:34+00:00</t>
+          <t>2026-02-13T09:45:55+00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>01475240751348</t>
+          <t>00KLOLI7</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"external_order_id": "306-8489285-5583505", "sales_office_id": "4263"}</t>
+          <t>{"external_order_id": "0031009891677", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZI6799V6</t>
+          <t>01475240753684</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gls</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2401,12 +2361,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B2BDS10289120</t>
+          <t>0049010125650</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2417,34 +2377,34 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-12T12:13:34+01:00</t>
+          <t>2026-02-13T10:38:14+01:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>Wilnsdorf (DE), Germany</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-13T00:26:36+00:00</t>
+          <t>2026-02-13T09:45:45+00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ZI6799V6</t>
+          <t>01475240753684</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10289120", "sales_office_id": "4490"}</t>
+          <t>{"external_order_id": "0049010125650", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ZI6799VO</t>
+          <t>YNQAF2L4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2464,12 +2424,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>B2BDS10289120</t>
+          <t>0045005236553</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2480,44 +2440,44 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-12T12:13:34+01:00</t>
+          <t>2026-02-13T10:16:54+01:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>BE, Belgium</t>
+          <t>DK, Denmark</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2026-02-13T00:26:37+00:00</t>
+          <t>2026-02-13T09:24:21+00:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ZI6799VO</t>
+          <t>YNQAF2L4</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10289120", "sales_office_id": "4490"}</t>
+          <t>{"external_order_id": "0045005236553", "sales_office_id": "3017"}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>518157107742</t>
+          <t>ZI679A8T</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2527,12 +2487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0081000027295</t>
+          <t>171-0288669-6143514</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2543,44 +2503,44 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-13T12:18:00+09:00</t>
+          <t>2026-02-13T10:47:04+01:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>羽島営業所, Japan</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2026-02-13T03:35:23+00:00</t>
+          <t>2026-02-13T09:59:46+00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>518157107742</t>
+          <t>ZI679A8T</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0081000027295", "sales_office_id": "4414"}</t>
+          <t>{"external_order_id": "171-0288669-6143514", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>518157106681</t>
+          <t>ZI679A8S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2590,12 +2550,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>B2BDS10077565</t>
+          <t>171-0288669-6143514</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2606,44 +2566,44 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-13T11:05:00+09:00</t>
+          <t>2026-02-13T10:47:04+01:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>知多営業所, Japan</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-13T02:31:48+00:00</t>
+          <t>2026-02-13T09:59:47+00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>518157106681</t>
+          <t>ZI679A8S</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077565", "sales_office_id": "4468"}</t>
+          <t>{"external_order_id": "171-0288669-6143514", "sales_office_id": "4561"}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>518157106666</t>
+          <t>UTV718405066</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2653,12 +2613,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>B2BDS10077584</t>
+          <t>0031009887047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2669,44 +2629,44 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-13T13:26:00+09:00</t>
+          <t>2026-02-12T20:06:38+01:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>一宮営業所, Japan</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2026-02-13T05:01:16+00:00</t>
+          <t>2026-02-13T09:33:42+00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>518157106666</t>
+          <t>UTV718405066</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077584", "sales_office_id": "4468"}</t>
+          <t>{"external_order_id": "0031009887047", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>518157106434</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2716,12 +2676,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>B2BDS10077664</t>
+          <t>0031009887790</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2732,44 +2692,44 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-13T12:04:00+09:00</t>
+          <t>2026-02-12T13:33:23+01:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>美濃加茂営業所, Japan</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-13T03:30:49+00:00</t>
+          <t>2026-02-13T03:33:38+00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>518157106434</t>
+          <t>UTV641786453</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077664", "sales_office_id": "4468"}</t>
+          <t>{"external_order_id": "0031009887790", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>518157108136</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>packs</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>Packs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2779,12 +2739,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>249-4585933-9438249</t>
+          <t>0031009887580</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2795,44 +2755,44 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-02-13T10:44:00+09:00</t>
+          <t>2026-02-12T11:29:10+01:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>千葉北営業所, Japan</t>
+          <t>,Netherlands</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2026-02-13T02:00:50+00:00</t>
+          <t>2026-02-13T03:33:40+00:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>518157108136</t>
+          <t>UTV619591751</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-4585933-9438249", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0031009887580", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>518157107451</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2842,12 +2802,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>250-7497633-5764622</t>
+          <t>0032005538401</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2858,44 +2818,44 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-13T11:12:00+09:00</t>
+          <t>2026-02-12T14:33:36+01:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>港営業所, Japan</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-13T02:30:51+00:00</t>
+          <t>2026-02-13T03:19:38+00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>518157107451</t>
+          <t>ZI679A1X</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7497633-5764622", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0032005538401", "sales_office_id": "0303"}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>518157105874</t>
+          <t>ZI679AB7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>gls</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2905,12 +2865,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B2BDS10077561</t>
+          <t>B2BDS10370837</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2921,44 +2881,44 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-02-13T09:11:00+09:00</t>
+          <t>2026-02-13T09:21:05+01:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>武蔵村山営業所, Japan</t>
+          <t>BE, Belgium</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2026-02-13T01:30:44+00:00</t>
+          <t>2026-02-13T08:35:32+00:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>518157105874</t>
+          <t>ZI679AB7</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077561", "sales_office_id": "4468"}</t>
+          <t>{"external_order_id": "B2BDS10370837", "sales_office_id": "4490"}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>518157107005</t>
+          <t>01475240753655</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2968,12 +2928,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B2BDS10077585</t>
+          <t>cbn4v9k2pp</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4468</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2984,44 +2944,44 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-13T11:21:00+09:00</t>
+          <t>2026-02-13T09:37:31+01:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>目黒営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2026-02-13T03:00:47+00:00</t>
+          <t>2026-02-13T09:15:10+00:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>518157107005</t>
+          <t>01475240753655</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10077585", "sales_office_id": "4468"}</t>
+          <t>{"external_order_id": "cbn4v9k2pp", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>518157107996</t>
+          <t>01475240753115</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3031,12 +2991,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>250-6221499-8851002</t>
+          <t>F6WX05W</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3047,44 +3007,44 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-13T11:07:00+09:00</t>
+          <t>2026-02-13T09:20:04+01:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>四日市営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2026-02-13T02:31:32+00:00</t>
+          <t>2026-02-13T09:15:12+00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>518157107996</t>
+          <t>01475240753115</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-6221499-8851002", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "F6WX05W", "sales_office_id": "4326"}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>518157108210</t>
+          <t>01475240753695</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3094,12 +3054,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>249-0693532-8711809</t>
+          <t>cbn4v9k2pp</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3110,44 +3070,44 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-02-13T12:56:00+09:00</t>
+          <t>2026-02-13T09:37:31+01:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>大和高田営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2026-02-13T04:30:46+00:00</t>
+          <t>2026-02-13T08:45:07+00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>518157108210</t>
+          <t>01475240753695</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-0693532-8711809", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v9k2pp", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>518157107823</t>
+          <t>01475240753116</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3157,12 +3117,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>503-3195057-3696628</t>
+          <t>F6WX05W</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3173,44 +3133,44 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-13T13:03:00+09:00</t>
+          <t>2026-02-13T09:20:04+01:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>仙台南営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2026-02-13T04:28:57+00:00</t>
+          <t>2026-02-13T08:45:06+00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>518157107823</t>
+          <t>01475240753116</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-3195057-3696628", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "F6WX05W", "sales_office_id": "4326"}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>518157107720</t>
+          <t>01475240752605</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3220,12 +3180,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0081000027296</t>
+          <t>cbn4v9k2pp</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3236,44 +3196,44 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-13T10:50:00+09:00</t>
+          <t>2026-02-13T09:37:31+01:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>花巻営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2026-02-13T02:28:56+00:00</t>
+          <t>2026-02-13T08:45:06+00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>518157107720</t>
+          <t>01475240752605</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0081000027296", "sales_office_id": "4414"}</t>
+          <t>{"external_order_id": "cbn4v9k2pp", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>518157109002</t>
+          <t>01475240753117</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3283,12 +3243,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>250-5917190-7963065</t>
+          <t>F6WX05W</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3299,44 +3259,44 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-13T13:20:00+09:00</t>
+          <t>2026-02-13T09:20:04+01:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>石巻営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2026-02-13T04:28:45+00:00</t>
+          <t>2026-02-13T08:45:03+00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>518157109002</t>
+          <t>01475240753117</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-5917190-7963065", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "F6WX05W", "sales_office_id": "4326"}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>518157109783</t>
+          <t>01475240752671</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3346,12 +3306,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>250-0611413-9229426</t>
+          <t>cbn4v9k2pp</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3362,44 +3322,44 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-13T09:57:00+09:00</t>
+          <t>2026-02-13T09:37:31+01:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>野田営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-02-13T01:26:50+00:00</t>
+          <t>2026-02-13T08:45:06+00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>518157109783</t>
+          <t>01475240752671</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v9k2pp", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>518157109212</t>
+          <t>01475240752655</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3409,12 +3369,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>250-2852260-7250256</t>
+          <t>306-6745284-7905129</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3425,44 +3385,44 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-13T10:48:00+09:00</t>
+          <t>2026-02-13T08:39:13+01:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>那須営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2026-02-13T01:56:50+00:00</t>
+          <t>2026-02-13T08:45:04+00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>518157109212</t>
+          <t>01475240752655</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-2852260-7250256", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "306-6745284-7905129", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>518157109805</t>
+          <t>01475240753710</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3472,12 +3432,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>250-0611413-9229426</t>
+          <t>B2BDS10360605</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3488,44 +3448,44 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-13T09:57:00+09:00</t>
+          <t>2026-02-13T10:19:43+01:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>野田営業所, Japan</t>
+          <t>Gudensberg (DE), Germany</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2026-02-13T01:26:45+00:00</t>
+          <t>2026-02-13T09:44:56+00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>518157109805</t>
+          <t>01475240753710</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10360605", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>518157109794</t>
+          <t>01475240752984</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3535,12 +3495,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>250-0611413-9229426</t>
+          <t>B2BDS10360605</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3551,44 +3511,44 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-13T09:57:00+09:00</t>
+          <t>2026-02-13T10:19:43+01:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>野田営業所, Japan</t>
+          <t>Gudensberg (DE), Germany</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2026-02-13T01:26:47+00:00</t>
+          <t>2026-02-13T09:44:56+00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>518157109794</t>
+          <t>01475240752984</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10360605", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>518157109584</t>
+          <t>01475240753623</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3598,12 +3558,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>249-7873677-9954258</t>
+          <t>0049010123338</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3614,44 +3574,44 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-02-13T09:37:00+09:00</t>
+          <t>2026-02-13T09:59:49+01:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>松戸営業所, Japan</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2026-02-13T00:56:45+00:00</t>
+          <t>2026-02-13T09:45:09+00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>518157109584</t>
+          <t>01475240753623</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-7873677-9954258", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010123338", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>518157109116</t>
+          <t>01475240752985</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3661,12 +3621,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>503-6523777-6917444</t>
+          <t>B2BDS10360605</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3677,44 +3637,44 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-13T09:37:00+09:00</t>
+          <t>2026-02-13T10:19:43+01:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>千代田営業所, Japan</t>
+          <t>Gudensberg (DE), Germany</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2026-02-13T00:56:44+00:00</t>
+          <t>2026-02-13T09:44:57+00:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>518157109116</t>
+          <t>01475240752985</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-6523777-6917444", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10360605", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>518157109433</t>
+          <t>01475240752862</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3724,12 +3684,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>250-0611413-9229426</t>
+          <t>0049010123338</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3740,44 +3700,44 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-13T09:57:00+09:00</t>
+          <t>2026-02-13T09:59:49+01:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>野田営業所, Japan</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-02-13T01:26:41+00:00</t>
+          <t>2026-02-13T09:44:55+00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>518157109433</t>
+          <t>01475240752862</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0611413-9229426", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010123338", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>518157108836</t>
+          <t>01475240752685</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3787,12 +3747,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>503-7538458-4703020</t>
+          <t>0049010123338</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3803,44 +3763,44 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-13T11:25:00+09:00</t>
+          <t>2026-02-13T09:59:49+01:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>茂原営業所, Japan</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2026-02-13T02:56:47+00:00</t>
+          <t>2026-02-13T09:44:52+00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>518157108836</t>
+          <t>01475240752685</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-7538458-4703020", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010123338", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>518157109352</t>
+          <t>01475240753925</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3850,12 +3810,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>249-9618753-0701414</t>
+          <t>0049010122917</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3866,44 +3826,44 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-13T11:41:00+09:00</t>
+          <t>2026-02-13T09:42:28+01:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>羽生営業所, Japan</t>
+          <t>Holzgünz (DE), Germany</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-02-13T02:56:46+00:00</t>
+          <t>2026-02-13T09:44:52+00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>518157109352</t>
+          <t>01475240753925</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-9618753-0701414", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010122917", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>518157108766</t>
+          <t>01475240752686</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3913,12 +3873,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>503-5119143-0451047</t>
+          <t>0049010123338</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3929,44 +3889,44 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-13T10:38:00+09:00</t>
+          <t>2026-02-13T09:59:49+01:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>深谷営業所, Japan</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-02-13T01:56:44+00:00</t>
+          <t>2026-02-13T09:44:44+00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>518157108766</t>
+          <t>01475240752686</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-5119143-0451047", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010123338", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>518157109153</t>
+          <t>01475240753105</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3976,12 +3936,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10001447</t>
+          <t>0049010124351</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3992,44 +3952,44 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-13T11:16:00+09:00</t>
+          <t>2026-02-13T07:24:50+01:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>栃木営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-02-13T02:26:48+00:00</t>
+          <t>2026-02-13T08:44:52+00:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>518157109153</t>
+          <t>01475240753105</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"external_order_id": "10001447", "sales_office_id": "4595"}</t>
+          <t>{"external_order_id": "0049010124351", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>518157108991</t>
+          <t>01475240753718</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4039,12 +3999,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>250-4157920-6558243</t>
+          <t>cbn4v87gpc</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4055,44 +4015,44 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-02-13T12:28:00+09:00</t>
+          <t>2026-02-13T10:27:59+01:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>東京営業所, Japan</t>
+          <t>Hermsdorf (DE), Germany</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-02-13T03:56:46+00:00</t>
+          <t>2026-02-13T09:44:52+00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>518157108991</t>
+          <t>01475240753718</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-4157920-6558243", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v87gpc", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>518157108593</t>
+          <t>01475240754202</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4102,12 +4062,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>250-0531588-5040616</t>
+          <t>B2BDS10378632</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4118,44 +4078,44 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-02-13T12:56:00+09:00</t>
+          <t>2026-02-13T10:07:18+01:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>和光営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-02-13T04:26:47+00:00</t>
+          <t>2026-02-13T09:44:44+00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>518157108593</t>
+          <t>01475240754202</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0531588-5040616", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10378632", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>518157109330</t>
+          <t>01475240752828</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4165,12 +4125,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>250-7789990-5815014</t>
+          <t>B2BDS10378632</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4181,44 +4141,44 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-13T10:34:00+09:00</t>
+          <t>2026-02-13T10:07:18+01:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>亀岡営業所, Japan</t>
+          <t>Mannheim (DE), Germany</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:54+00:00</t>
+          <t>2026-02-13T09:44:40+00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>518157109330</t>
+          <t>01475240752828</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10378632", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>518157108733</t>
+          <t>01475240752169</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4228,12 +4188,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10001445</t>
+          <t>B2BDS10352364</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4244,44 +4204,44 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-13T10:39:00+09:00</t>
+          <t>2026-02-13T10:16:36+01:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>横手営業所, Japan</t>
+          <t>Lübeck (DE), Germany</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:51+00:00</t>
+          <t>2026-02-13T09:43:51+00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>518157108733</t>
+          <t>01475240752169</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"external_order_id": "10001445", "sales_office_id": "4595"}</t>
+          <t>{"external_order_id": "B2BDS10352364", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>518157108615</t>
+          <t>01475240754126</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4291,12 +4251,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>250-7644151-5526210</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4307,44 +4267,44 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-13T10:11:00+09:00</t>
+          <t>2026-02-13T10:10:28+01:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>武蔵村山営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-02-13T01:24:52+00:00</t>
+          <t>2026-02-13T09:43:51+00:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>518157108615</t>
+          <t>01475240754126</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7644151-5526210", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>518157108630</t>
+          <t>01475240754303</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4354,12 +4314,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>250-7789990-5815014</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4370,44 +4330,44 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-02-13T10:34:00+09:00</t>
+          <t>2026-02-13T10:10:11+01:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>亀岡営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:53+00:00</t>
+          <t>2026-02-13T09:43:49+00:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>518157108630</t>
+          <t>01475240754303</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>518157108932</t>
+          <t>01475240752647</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4417,12 +4377,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>250-7789990-5815014</t>
+          <t>B2BDS10390925</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4433,44 +4393,44 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-13T10:34:00+09:00</t>
+          <t>2026-02-13T09:46:32+01:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>亀岡営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:54+00:00</t>
+          <t>2026-02-13T09:43:48+00:00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>518157108932</t>
+          <t>01475240752647</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10390925", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>518157109024</t>
+          <t>01475240752359</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4480,12 +4440,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>250-7789990-5815014</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4496,44 +4456,44 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-13T10:37:00+09:00</t>
+          <t>2026-02-13T10:10:11+01:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>亀岡営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:53+00:00</t>
+          <t>2026-02-13T09:43:46+00:00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>518157109024</t>
+          <t>01475240752359</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>518157108626</t>
+          <t>01475240753912</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4543,12 +4503,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>250-7789990-5815014</t>
+          <t>B2BDS10390925</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4559,44 +4519,44 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-02-13T10:34:00+09:00</t>
+          <t>2026-02-13T09:46:32+01:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>亀岡営業所, Japan</t>
+          <t>Duisburg (DE), Germany</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:52+00:00</t>
+          <t>2026-02-13T09:43:54+00:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>518157108626</t>
+          <t>01475240753912</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-7789990-5815014", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10390925", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>518157108781</t>
+          <t>01475240752358</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4606,12 +4566,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>503-6251117-7547005</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4622,44 +4582,44 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-02-13T12:24:00+09:00</t>
+          <t>2026-02-13T10:10:11+01:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>都留営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2026-02-13T03:54:51+00:00</t>
+          <t>2026-02-13T09:43:46+00:00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>518157108781</t>
+          <t>01475240752358</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-6251117-7547005", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>518157109050</t>
+          <t>01475240752390</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4669,12 +4629,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>503-4093845-8371005</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4685,44 +4645,44 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-02-13T09:18:00+09:00</t>
+          <t>2026-02-13T10:10:11+01:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>岐阜営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2026-02-13T00:54:48+00:00</t>
+          <t>2026-02-13T09:43:50+00:00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>518157109050</t>
+          <t>01475240752390</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-4093845-8371005", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>518157108722</t>
+          <t>01475240752357</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4732,12 +4692,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10001446</t>
+          <t>B2BDS10351984</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4748,44 +4708,44 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-02-13T10:39:00+09:00</t>
+          <t>2026-02-13T10:10:11+01:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>横手営業所, Japan</t>
+          <t>Hamburg (DE), Germany</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:52+00:00</t>
+          <t>2026-02-13T09:43:46+00:00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>518157108722</t>
+          <t>01475240752357</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{"external_order_id": "10001446", "sales_office_id": "4595"}</t>
+          <t>{"external_order_id": "B2BDS10351984", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>518157108685</t>
+          <t>01475240753739</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4795,12 +4755,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>503-5342454-5903812</t>
+          <t>1115957600-01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4811,44 +4771,44 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-02-13T10:41:00+09:00</t>
+          <t>2026-02-13T08:57:56+01:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>前橋営業所, Japan</t>
+          <t>Erftstadt-Lechenich (DE), Germany</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:50+00:00</t>
+          <t>2026-02-13T08:43:32+00:00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>518157108685</t>
+          <t>01475240753739</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-5342454-5903812", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "1115957600-01", "sales_office_id": "4677"}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>518157108862</t>
+          <t>01475240753553</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4858,12 +4818,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>503-1508447-9185455</t>
+          <t>0049010122379</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4874,44 +4834,44 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-02-13T10:44:00+09:00</t>
+          <t>2026-02-13T10:28:05+01:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>三鷹営業所, Japan</t>
+          <t>Raunheim (DE), Germany</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:49+00:00</t>
+          <t>2026-02-13T09:43:33+00:00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>518157108862</t>
+          <t>01475240753553</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-1508447-9185455", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010122379", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>518157109046</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4921,12 +4881,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>250-8367085-9498268</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4937,44 +4897,44 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-02-13T13:36:00+09:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>須磨営業所, Japan</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2026-02-13T04:54:54+00:00</t>
+          <t>2026-02-12T14:43:26+00:00</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>518157109046</t>
+          <t>01475240751838</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-8367085-9498268", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>518157109072</t>
+          <t>01475240753561</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4984,12 +4944,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10001448</t>
+          <t>1115957600-01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5000,44 +4960,44 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-02-13T11:04:00+09:00</t>
+          <t>2026-02-13T08:57:56+01:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>気仙沼営業所, Japan</t>
+          <t>Erftstadt-Lechenich (DE), Germany</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2026-02-13T02:24:52+00:00</t>
+          <t>2026-02-13T09:13:32+00:00</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>518157109072</t>
+          <t>01475240753561</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{"external_order_id": "10001448", "sales_office_id": "4595"}</t>
+          <t>{"external_order_id": "1115957600-01", "sales_office_id": "4677"}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>518157110052</t>
+          <t>01475240753142</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5047,12 +5007,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>249-4142766-0247053</t>
+          <t>1115957600-01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5063,44 +5023,44 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-02-13T10:24:00+09:00</t>
+          <t>2026-02-13T08:57:56+01:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>米沢営業所, Japan</t>
+          <t>Erftstadt-Lechenich (DE), Germany</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2026-02-13T01:54:58+00:00</t>
+          <t>2026-02-13T08:43:33+00:00</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>518157110052</t>
+          <t>01475240753142</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-4142766-0247053", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "1115957600-01", "sales_office_id": "4677"}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>518157110085</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5110,12 +5070,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>503-3478682-1619805</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5126,44 +5086,44 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-02-13T11:06:00+09:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>白馬営業所, Japan</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-02-13T02:22:49+00:00</t>
+          <t>2026-02-12T14:43:23+00:00</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>518157110085</t>
+          <t>01475240751763</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-3478682-1619805", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>518157109363</t>
+          <t>01475240753954</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5173,12 +5133,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>249-2474623-1991832</t>
+          <t>305-6972338-1576311</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5189,44 +5149,44 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-02-13T11:45:00+09:00</t>
+          <t>2026-02-13T08:47:24+01:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>松阪営業所, Japan</t>
+          <t>Walsrode (DE), Germany</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2026-02-13T03:23:02+00:00</t>
+          <t>2026-02-13T08:43:31+00:00</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>518157109363</t>
+          <t>01475240753954</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-2474623-1991832", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "305-6972338-1576311", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>518157110133</t>
+          <t>01475240753315</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5236,12 +5196,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>250-6546085-1173436</t>
+          <t>0049010122379</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5252,44 +5212,44 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-02-13T10:34:00+09:00</t>
+          <t>2026-02-13T10:28:05+01:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>港営業所, Japan</t>
+          <t>Raunheim (DE), Germany</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2026-02-13T01:52:45+00:00</t>
+          <t>2026-02-13T09:43:31+00:00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>518157110133</t>
+          <t>01475240753315</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-6546085-1173436", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010122379", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>518157108814</t>
+          <t>01475240752826</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5299,12 +5259,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>250-0129426-3763847</t>
+          <t>305-6972338-1576311</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5315,44 +5275,44 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-02-13T09:49:00+09:00</t>
+          <t>2026-02-13T08:47:24+01:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>岐阜営業所, Japan</t>
+          <t>Walsrode (DE), Germany</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2026-02-13T01:22:54+00:00</t>
+          <t>2026-02-13T08:13:37+00:00</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>518157108814</t>
+          <t>01475240752826</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-0129426-3763847", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "305-6972338-1576311", "sales_office_id": "4263"}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>518157110155</t>
+          <t>01475240753639</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5362,12 +5322,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>249-7094554-3459009</t>
+          <t>0049010124276</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5378,44 +5338,44 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-02-13T11:06:00+09:00</t>
+          <t>2026-02-13T10:28:16+01:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>福井営業所, Japan</t>
+          <t>Vlotho (DE), Germany</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2026-02-13T02:22:56+00:00</t>
+          <t>2026-02-13T09:43:27+00:00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>518157110155</t>
+          <t>01475240753639</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-7094554-3459009", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010124276", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>518157109271</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5425,12 +5385,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>250-9718054-2412633</t>
+          <t>cbn4v85r9p</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5441,44 +5401,44 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-02-13T13:33:00+09:00</t>
+          <t>2026-02-12T11:38:35+01:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>大阪茨木営業所, Japan</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2026-02-13T04:58:00+00:00</t>
+          <t>2026-02-12T14:43:22+00:00</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>518157109271</t>
+          <t>01475240751038</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-9718054-2412633", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "cbn4v85r9p", "sales_office_id": "4316"}</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>518157109945</t>
+          <t>01475240753324</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5488,12 +5448,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>249-2684945-7883037</t>
+          <t>0049010124276</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5504,44 +5464,44 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-02-13T11:08:00+09:00</t>
+          <t>2026-02-13T10:28:16+01:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>杉並営業所, Japan</t>
+          <t>Vlotho (DE), Germany</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2026-02-13T02:20:51+00:00</t>
+          <t>2026-02-13T09:43:23+00:00</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>518157109945</t>
+          <t>01475240753324</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-2684945-7883037", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010124276", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>518157110026</t>
+          <t>01475240754031</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5551,12 +5511,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>503-2005849-4825425</t>
+          <t>B2BDS10350884</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5567,44 +5527,44 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-02-13T12:34:00+09:00</t>
+          <t>2026-02-13T09:37:11+01:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>城東営業所, Japan</t>
+          <t>Altentreptow (DE), Germany</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2026-02-13T03:50:50+00:00</t>
+          <t>2026-02-13T09:43:11+00:00</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>518157110026</t>
+          <t>01475240754031</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-2005849-4825425", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10350884", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>518157110273</t>
+          <t>01475240753201</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5614,12 +5574,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>250-8283214-4941440</t>
+          <t>0049010126487</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5630,44 +5590,44 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-02-13T08:55:00+09:00</t>
+          <t>2026-02-13T10:14:04+01:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>福生営業所, Japan</t>
+          <t>Melle (DE), Germany</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2026-02-13T00:20:43+00:00</t>
+          <t>2026-02-13T09:43:11+00:00</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>518157110273</t>
+          <t>01475240753201</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-8283214-4941440", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010126487", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>518157109470</t>
+          <t>01475240754005</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5677,12 +5637,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>249-1280237-0676603</t>
+          <t>0049010122718</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5693,44 +5653,44 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-02-13T13:34:00+09:00</t>
+          <t>2026-02-13T09:10:40+01:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>西埼玉営業所, Japan</t>
+          <t>Kesselsdorf (DE), Germany</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2026-02-13T04:48:50+00:00</t>
+          <t>2026-02-13T09:14:25+00:00</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>518157109470</t>
+          <t>01475240754005</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-1280237-0676603", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010122718", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>518157110310</t>
+          <t>01475240754296</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5740,12 +5700,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>249-9790941-7799820</t>
+          <t>1024708856-A</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5756,44 +5716,44 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-02-13T11:12:00+09:00</t>
+          <t>2026-02-13T09:40:10+01:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>八王子営業所, Japan</t>
+          <t>Lehrte (DE), Germany</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2026-02-13T02:48:47+00:00</t>
+          <t>2026-02-13T09:09:55+00:00</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>518157110310</t>
+          <t>01475240754296</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-9790941-7799820", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "1024708856-A", "sales_office_id": "4074"}</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>518157109956</t>
+          <t>01475240754275</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5803,12 +5763,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>503-3527076-8628666</t>
+          <t>B2BDS10392937</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5819,44 +5779,44 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-02-13T11:37:00+09:00</t>
+          <t>2026-02-13T09:19:25+01:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>久喜営業所, Japan</t>
+          <t>Anröchte (DE), Germany</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2026-02-13T02:48:50+00:00</t>
+          <t>2026-02-13T09:09:33+00:00</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>518157109956</t>
+          <t>01475240754275</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-3527076-8628666", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10392937", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>518157110111</t>
+          <t>01475240754273</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5866,12 +5826,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>249-8760909-7438213</t>
+          <t>0049010128422</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5882,44 +5842,44 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-02-13T10:21:00+09:00</t>
+          <t>2026-02-13T09:40:55+01:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>山梨営業所, Japan</t>
+          <t>Holzgünz (DE), Germany</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2026-02-13T01:48:41+00:00</t>
+          <t>2026-02-13T09:09:20+00:00</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>518157110111</t>
+          <t>01475240754273</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-8760909-7438213", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "0049010128422", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>518157109864</t>
+          <t>01475240754250</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5929,12 +5889,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>503-2489646-2114245</t>
+          <t>B2BDS10397946</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5945,44 +5905,44 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-02-13T13:02:00+09:00</t>
+          <t>2026-02-13T08:57:04+01:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>西埼玉営業所, Japan</t>
+          <t>Raunheim (DE), Germany</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2026-02-13T04:17:46+00:00</t>
+          <t>2026-02-13T08:09:00+00:00</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>518157109864</t>
+          <t>01475240754250</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-2489646-2114245", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "B2BDS10397946", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>518157109831</t>
+          <t>01475240754187</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sagawa</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sagawa</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5992,12 +5952,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>249-0276981-0787826</t>
+          <t>O26-701512092987</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6008,44 +5968,44 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-02-13T10:29:00+09:00</t>
+          <t>2026-02-13T10:17:59+01:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>東京営業所, Japan</t>
+          <t>Berlin-Hohenschönhausen (DE), Germany</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2026-02-13T01:47:44+00:00</t>
+          <t>2026-02-13T09:38:55+00:00</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>518157109831</t>
+          <t>01475240754187</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{"external_order_id": "249-0276981-0787826", "sales_office_id": "4564"}</t>
+          <t>{"external_order_id": "O26-701512092987", "sales_office_id": "4632"}</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2X0010417392</t>
+          <t>01475240754251</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6055,12 +6015,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>B2BDS10356120</t>
+          <t>0049010127506</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6071,44 +6031,44 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-02-13T12:11:26+11:00</t>
+          <t>2026-02-13T09:32:14+01:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Essen (DE), Germany</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2026-02-13T03:53:38+00:00</t>
+          <t>2026-02-13T09:08:55+00:00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2X0010417392</t>
+          <t>01475240754251</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{"external_order_id": "B2BDS10356120", "sales_office_id": "4460"}</t>
+          <t>{"external_order_id": "0049010127506", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2X0010417347</t>
+          <t>01475240754248</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6118,12 +6078,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>17-14212-28442</t>
+          <t>0049010127699</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6134,44 +6094,44 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-02-13T11:38:51+11:00</t>
+          <t>2026-02-13T09:49:38+01:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Hamm (DE), Germany</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2026-02-13T03:46:35+00:00</t>
+          <t>2026-02-13T09:08:42+00:00</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2X0010417347</t>
+          <t>01475240754248</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{"external_order_id": "17-14212-28442", "sales_office_id": "4391"}</t>
+          <t>{"external_order_id": "0049010127699", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2X0010417362</t>
+          <t>01475240754050</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6181,12 +6141,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>31003452335_622_646776</t>
+          <t>B2BDS10371483</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4379</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6197,44 +6157,44 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-02-13T10:46:26+11:00</t>
+          <t>2026-02-13T08:40:34+01:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Salzgitter (DE), Germany</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2026-02-13T03:44:40+00:00</t>
+          <t>2026-02-13T08:08:30+00:00</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2X0010417362</t>
+          <t>01475240754050</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{"external_order_id": "31003452335_622_646776", "sales_office_id": "4379"}</t>
+          <t>{"external_order_id": "B2BDS10371483", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2X0010417363</t>
+          <t>01475240754217</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6244,12 +6204,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>31003452335_622_646776</t>
+          <t>B2BDS10405992</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4379</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6260,44 +6220,44 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-02-13T10:46:26+11:00</t>
+          <t>2026-02-13T09:07:52+01:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Erftstadt-Lechenich (DE), Germany</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2026-02-13T03:44:43+00:00</t>
+          <t>2026-02-13T09:08:14+00:00</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2X0010417363</t>
+          <t>01475240754217</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{"external_order_id": "31003452335_622_646776", "sales_office_id": "4379"}</t>
+          <t>{"external_order_id": "B2BDS10405992", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2X0010417372</t>
+          <t>01475240754308</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6307,12 +6267,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0061004385893</t>
+          <t>0049010128492</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6323,44 +6283,44 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-02-13T13:01:01+11:00</t>
+          <t>2026-02-13T10:54:07+01:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>St. Ingbert (DE), Germany</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2026-02-13T03:44:36+00:00</t>
+          <t>2026-02-13T10:08:12+00:00</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2X0010417372</t>
+          <t>01475240754308</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0061004385893", "sales_office_id": "3016"}</t>
+          <t>{"external_order_id": "0049010128492", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2X0010417334</t>
+          <t>01475240754298</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6370,12 +6330,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0061004385934</t>
+          <t>0049010121327</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6386,44 +6346,44 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-02-13T12:35:46+11:00</t>
+          <t>2026-02-13T10:51:46+01:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Geelong, Australia</t>
+          <t>Vechta (DE), Germany</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2026-02-13T03:44:36+00:00</t>
+          <t>2026-02-13T10:08:13+00:00</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2X0010417334</t>
+          <t>01475240754298</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0061004385934", "sales_office_id": "3016"}</t>
+          <t>{"external_order_id": "0049010121327", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2X0010417408</t>
+          <t>01475240753978</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6433,12 +6393,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>503-0534587-0177460</t>
+          <t>0049010124611</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6449,44 +6409,44 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-02-13T09:45:21+11:00</t>
+          <t>2026-02-13T09:53:05+01:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Hengersberg (DE), Germany</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2026-02-13T01:44:36+00:00</t>
+          <t>2026-02-13T09:07:58+00:00</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2X0010417408</t>
+          <t>01475240753978</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{"external_order_id": "503-0534587-0177460", "sales_office_id": "4272"}</t>
+          <t>{"external_order_id": "0049010124611", "sales_office_id": "0301"}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2X0010417403</t>
+          <t>01475240754314</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6496,12 +6456,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0061004386075</t>
+          <t>B2BDS10350412</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6512,44 +6472,44 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-02-13T11:31:13+11:00</t>
+          <t>2026-02-13T08:58:08+01:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Mittenwalde (DE), Germany</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2026-02-13T03:41:33+00:00</t>
+          <t>2026-02-13T08:07:29+00:00</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2X0010417403</t>
+          <t>01475240754314</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{"external_order_id": "0061004386075", "sales_office_id": "3016"}</t>
+          <t>{"external_order_id": "B2BDS10350412", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2X0010417407</t>
+          <t>01475240753563</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6559,12 +6519,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>250-3653716-6494221</t>
+          <t>B2BDS10375551</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6575,44 +6535,44 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-02-13T12:51:30+11:00</t>
+          <t>2026-02-13T09:36:06+01:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Melbourne, Australia</t>
+          <t>Vechta (DE), Germany</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2026-02-13T03:41:35+00:00</t>
+          <t>2026-02-13T09:37:32+00:00</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2X0010417407</t>
+          <t>01475240753563</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{"external_order_id": "250-3653716-6494221", "sales_office_id": "4272"}</t>
+          <t>{"external_order_id": "B2BDS10375551", "sales_office_id": "4436"}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2X0010417366</t>
+          <t>01475240753934</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>fastway-au</t>
+          <t>dpd-de</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Aramex Australia</t>
+          <t>DPD Germany</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6622,12 +6582,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>250-3653716-6494221</t>
+          <t>B2BDS10375551</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6638,44 +6598,44 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-02-13T12:51:30+11:00</t>
+          <t>2026-02-13T09:36:06+01:0